--- a/experiment_results/7249P9.xlsx
+++ b/experiment_results/7249P9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1447"/>
+  <dimension ref="A1:I1427"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -696,7 +696,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -846,7 +846,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Scenic Tours', 'Culinary Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -4896,7 +4896,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours', 'Eco-Tours']</t>
+          <t>Category: ['Eco-Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B294" t="inlineStr"/>
@@ -6321,7 +6321,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B389" t="inlineStr"/>
@@ -8196,7 +8196,7 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B514" t="inlineStr"/>
@@ -8646,7 +8646,7 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Museums', 'Cultural Cruises']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises', 'Museums']</t>
         </is>
       </c>
       <c r="B544" t="inlineStr"/>
@@ -9246,7 +9246,7 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B584" t="inlineStr"/>
@@ -9621,7 +9621,7 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B609" t="inlineStr"/>
@@ -9921,7 +9921,7 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B629" t="inlineStr"/>
@@ -10371,7 +10371,7 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Cultural Tours', 'Culinary Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B659" t="inlineStr"/>
@@ -10521,7 +10521,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B669" t="inlineStr"/>
@@ -10596,7 +10596,7 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B674" t="inlineStr"/>
@@ -11196,7 +11196,7 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B714" t="inlineStr"/>
@@ -12321,7 +12321,7 @@
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B789" t="inlineStr"/>
@@ -13521,7 +13521,7 @@
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Dining Experiences', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Dining Experiences', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B869" t="inlineStr"/>
@@ -15352,7 +15352,7 @@
     <row r="991">
       <c r="A991" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B991" t="inlineStr"/>
@@ -15517,7 +15517,7 @@
     <row r="1002">
       <c r="A1002" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 142334P8</t>
+          <t>PRODUCTCODE: 11690P2</t>
         </is>
       </c>
       <c r="B1002" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
     <row r="1003">
       <c r="A1003" t="inlineStr">
         <is>
-          <t>Summarized description: Visit to Normandy D-Day battle sites and U.S landing beaches from Paris. See the 100 feet high cliffs and german bunkers overlooking the British channel at Point du Hoc.</t>
+          <t>Summarized description: Private tour includes round-trip travel from your central Paris accommodation in a air conditioned van. Explore the WWII landings battlegrounds around Omaha Beach and Pointe du Hoc. Pay your respects at the American Cemetery with its Visitor Center.</t>
         </is>
       </c>
       <c r="B1003" t="inlineStr"/>
@@ -15547,7 +15547,7 @@
     <row r="1004">
       <c r="A1004" t="inlineStr">
         <is>
-          <t>Title: Pointe du Hoc,Omaha Beach, American Cemetery - Day trip from Paris to Normandy</t>
+          <t>Title: Normandy D-Day Private Tour with Omaha Beach from Paris</t>
         </is>
       </c>
       <c r="B1004" t="inlineStr"/>
@@ -15562,7 +15562,7 @@
     <row r="1005">
       <c r="A1005" t="inlineStr">
         <is>
-          <t>TotalReviews: 61</t>
+          <t>TotalReviews: 79</t>
         </is>
       </c>
       <c r="B1005" t="inlineStr"/>
@@ -15577,7 +15577,7 @@
     <row r="1006">
       <c r="A1006" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Transportation &amp; Travel Services', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1006" t="inlineStr"/>
@@ -15592,7 +15592,7 @@
     <row r="1007">
       <c r="A1007" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 9511P7</t>
+          <t>PRODUCTCODE: 118524P7</t>
         </is>
       </c>
       <c r="B1007" t="inlineStr"/>
@@ -15607,7 +15607,7 @@
     <row r="1008">
       <c r="A1008" t="inlineStr">
         <is>
-          <t>Summarized description: Pointe du Hoc, Omaha Beach, Colleville American Cemetery, Arromanches. Tailor program to discover, in one day, landing beaches and sites of legend.</t>
+          <t>Summarized description: Custom private tour on the DDay beaches from your hotel in Paris (Omaha beach, Pointe du Hoc, and more) with a knowledgeable bilingual guide at your service for the whole day.</t>
         </is>
       </c>
       <c r="B1008" t="inlineStr"/>
@@ -15622,7 +15622,7 @@
     <row r="1009">
       <c r="A1009" t="inlineStr">
         <is>
-          <t>Title: Normandy D-Day Landing Beaches Guided Tour from Paris</t>
+          <t>Title: DDay beaches private tour in Normandy from your hotel in Paris</t>
         </is>
       </c>
       <c r="B1009" t="inlineStr"/>
@@ -15637,7 +15637,7 @@
     <row r="1010">
       <c r="A1010" t="inlineStr">
         <is>
-          <t>TotalReviews: 38</t>
+          <t>TotalReviews: 70</t>
         </is>
       </c>
       <c r="B1010" t="inlineStr"/>
@@ -15652,7 +15652,7 @@
     <row r="1011">
       <c r="A1011" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1011" t="inlineStr"/>
@@ -15667,7 +15667,7 @@
     <row r="1012">
       <c r="A1012" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 29942P1</t>
+          <t>PRODUCTCODE: 142334P8</t>
         </is>
       </c>
       <c r="B1012" t="inlineStr"/>
@@ -15682,7 +15682,7 @@
     <row r="1013">
       <c r="A1013" t="inlineStr">
         <is>
-          <t>Summarized description: Travel with a private guide to key WWII battle sites including Omaha Beach and Pointe du Hoc. Then, visit the American Cemetery — where a great many soldiers are laid to rest.</t>
+          <t>Summarized description: Visit to Normandy D-Day battle sites and U.S landing beaches from Paris. See the 100 feet high cliffs and german bunkers overlooking the British channel at Point du Hoc.</t>
         </is>
       </c>
       <c r="B1013" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
     <row r="1014">
       <c r="A1014" t="inlineStr">
         <is>
-          <t>Title: Normandy D-Day Landing Beaches Private Day Trip from Paris</t>
+          <t>Title: Pointe du Hoc,Omaha Beach, American Cemetery - Day trip from Paris to Normandy</t>
         </is>
       </c>
       <c r="B1014" t="inlineStr"/>
@@ -15712,7 +15712,7 @@
     <row r="1015">
       <c r="A1015" t="inlineStr">
         <is>
-          <t>TotalReviews: 38</t>
+          <t>TotalReviews: 61</t>
         </is>
       </c>
       <c r="B1015" t="inlineStr"/>
@@ -15727,7 +15727,7 @@
     <row r="1016">
       <c r="A1016" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Transportation &amp; Travel Services', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1016" t="inlineStr"/>
@@ -15742,7 +15742,7 @@
     <row r="1017">
       <c r="A1017" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2050P258</t>
+          <t>PRODUCTCODE: 9511P7</t>
         </is>
       </c>
       <c r="B1017" t="inlineStr"/>
@@ -15757,7 +15757,7 @@
     <row r="1018">
       <c r="A1018" t="inlineStr">
         <is>
-          <t>Summarized description:  Normandy battlefields and landing beaches of World War II. Your guide will take you to famous wartime sites and also to the American cemetery. You will gain insight into the sacrifices of Allied soldiers and French citizens they liberated.</t>
+          <t>Summarized description: Pointe du Hoc, Omaha Beach, Colleville American Cemetery, Arromanches. Tailor program to discover, in one day, landing beaches and sites of legend.</t>
         </is>
       </c>
       <c r="B1018" t="inlineStr"/>
@@ -15772,7 +15772,7 @@
     <row r="1019">
       <c r="A1019" t="inlineStr">
         <is>
-          <t>Title: From Paris Normandy D-Day Beaches Guided Day Trip</t>
+          <t>Title: Normandy D-Day Landing Beaches Guided Tour from Paris</t>
         </is>
       </c>
       <c r="B1019" t="inlineStr"/>
@@ -15787,7 +15787,7 @@
     <row r="1020">
       <c r="A1020" t="inlineStr">
         <is>
-          <t>TotalReviews: 33</t>
+          <t>TotalReviews: 38</t>
         </is>
       </c>
       <c r="B1020" t="inlineStr"/>
@@ -15802,7 +15802,7 @@
     <row r="1021">
       <c r="A1021" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1021" t="inlineStr"/>
@@ -15817,7 +15817,7 @@
     <row r="1022">
       <c r="A1022" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 414383P1</t>
+          <t>PRODUCTCODE: 29942P1</t>
         </is>
       </c>
       <c r="B1022" t="inlineStr"/>
@@ -15832,7 +15832,7 @@
     <row r="1023">
       <c r="A1023" t="inlineStr">
         <is>
-          <t>Summarized description: Walk on the sands where valor and sacrifice once intertwined. Immerse yourself in the echoes of the past. From the hauntingly beautiful cliffs of Pointe du Hoc to the serene stretches of Omaha Beach.</t>
+          <t>Summarized description: Travel with a private guide to key WWII battle sites including Omaha Beach and Pointe du Hoc. Then, visit the American Cemetery — where a great many soldiers are laid to rest.</t>
         </is>
       </c>
       <c r="B1023" t="inlineStr"/>
@@ -15847,7 +15847,7 @@
     <row r="1024">
       <c r="A1024" t="inlineStr">
         <is>
-          <t>Title: From Paris, Private tour D-Day Beaches and Cemetery Full day</t>
+          <t>Title: Normandy D-Day Landing Beaches Private Day Trip from Paris</t>
         </is>
       </c>
       <c r="B1024" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
     <row r="1025">
       <c r="A1025" t="inlineStr">
         <is>
-          <t>TotalReviews: 25</t>
+          <t>TotalReviews: 38</t>
         </is>
       </c>
       <c r="B1025" t="inlineStr"/>
@@ -15877,7 +15877,7 @@
     <row r="1026">
       <c r="A1026" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1026" t="inlineStr"/>
@@ -15892,7 +15892,7 @@
     <row r="1027">
       <c r="A1027" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 11690P9</t>
+          <t>PRODUCTCODE: 2050P258</t>
         </is>
       </c>
       <c r="B1027" t="inlineStr"/>
@@ -15907,7 +15907,7 @@
     <row r="1028">
       <c r="A1028" t="inlineStr">
         <is>
-          <t>Summarized description: Tour focuses on the American sectors of Normandy landings. Explore the key battlegrounds with a private guide. Pay your respects at the American Cemetery.</t>
+          <t>Summarized description:  Normandy battlefields and landing beaches of World War II. Your guide will take you to famous wartime sites and also to the American cemetery. You will gain insight into the sacrifices of Allied soldiers and French citizens they liberated.</t>
         </is>
       </c>
       <c r="B1028" t="inlineStr"/>
@@ -15922,7 +15922,7 @@
     <row r="1029">
       <c r="A1029" t="inlineStr">
         <is>
-          <t>Title: Normandy D-Day Beaches All-American Private Day Tour from Paris</t>
+          <t>Title: From Paris Normandy D-Day Beaches Guided Day Trip</t>
         </is>
       </c>
       <c r="B1029" t="inlineStr"/>
@@ -15937,7 +15937,7 @@
     <row r="1030">
       <c r="A1030" t="inlineStr">
         <is>
-          <t>TotalReviews: 22</t>
+          <t>TotalReviews: 33</t>
         </is>
       </c>
       <c r="B1030" t="inlineStr"/>
@@ -15967,7 +15967,7 @@
     <row r="1032">
       <c r="A1032" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2050P219</t>
+          <t>PRODUCTCODE: 414383P1</t>
         </is>
       </c>
       <c r="B1032" t="inlineStr"/>
@@ -15982,7 +15982,7 @@
     <row r="1033">
       <c r="A1033" t="inlineStr">
         <is>
-          <t>Summarized description: Guided Normandy day trip from Paris by air conditioned minibus. You will discover the D-Day beaches of World War II with your private guide. The Omaha Beach and its visitor center to learn stories and historical facts.</t>
+          <t>Summarized description: Walk on the sands where valor and sacrifice once intertwined. Immerse yourself in the echoes of the past. From the hauntingly beautiful cliffs of Pointe du Hoc to the serene stretches of Omaha Beach.</t>
         </is>
       </c>
       <c r="B1033" t="inlineStr"/>
@@ -15997,7 +15997,7 @@
     <row r="1034">
       <c r="A1034" t="inlineStr">
         <is>
-          <t>Title: Normandy D-Day Landing Beaches with Private Guide From Paris</t>
+          <t>Title: From Paris, Private tour D-Day Beaches and Cemetery Full day</t>
         </is>
       </c>
       <c r="B1034" t="inlineStr"/>
@@ -16012,7 +16012,7 @@
     <row r="1035">
       <c r="A1035" t="inlineStr">
         <is>
-          <t>TotalReviews: 15</t>
+          <t>TotalReviews: 25</t>
         </is>
       </c>
       <c r="B1035" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
     <row r="1036">
       <c r="A1036" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1036" t="inlineStr"/>
@@ -16042,7 +16042,7 @@
     <row r="1037">
       <c r="A1037" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 47475P37</t>
+          <t>PRODUCTCODE: 11690P9</t>
         </is>
       </c>
       <c r="B1037" t="inlineStr"/>
@@ -16057,7 +16057,7 @@
     <row r="1038">
       <c r="A1038" t="inlineStr">
         <is>
-          <t>Summarized description: Take a day trip from Paris to Normandy to discover its moving history and hear stories from your guide. In your comfortable, climate-controlled vehicle, we'll travel to the Normandy beaches.</t>
+          <t>Summarized description: Tour focuses on the American sectors of Normandy landings. Explore the key battlegrounds with a private guide. Pay your respects at the American Cemetery.</t>
         </is>
       </c>
       <c r="B1038" t="inlineStr"/>
@@ -16072,7 +16072,7 @@
     <row r="1039">
       <c r="A1039" t="inlineStr">
         <is>
-          <t>Title: D-Day Normandy Beaches Day Trip From Paris</t>
+          <t>Title: Normandy D-Day Beaches All-American Private Day Tour from Paris</t>
         </is>
       </c>
       <c r="B1039" t="inlineStr"/>
@@ -16087,7 +16087,7 @@
     <row r="1040">
       <c r="A1040" t="inlineStr">
         <is>
-          <t>TotalReviews: 14</t>
+          <t>TotalReviews: 22</t>
         </is>
       </c>
       <c r="B1040" t="inlineStr"/>
@@ -16102,7 +16102,7 @@
     <row r="1041">
       <c r="A1041" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1041" t="inlineStr"/>
@@ -16117,7 +16117,7 @@
     <row r="1042">
       <c r="A1042" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2050P316</t>
+          <t>PRODUCTCODE: 2050P219</t>
         </is>
       </c>
       <c r="B1042" t="inlineStr"/>
@@ -16132,7 +16132,7 @@
     <row r="1043">
       <c r="A1043" t="inlineStr">
         <is>
-          <t>Summarized description: Discover where Allied forces landed to rescue Europe from Nazi invasion. Visit legendary Omaha Beach and remnants of the Arromanches artificial harbor left by allied forces. Pause to reflect in the solemn setting of the pristine American Cemetery.</t>
+          <t>Summarized description: Guided Normandy day trip from Paris by air conditioned minibus. You will discover the D-Day beaches of World War II with your private guide. The Omaha Beach and its visitor center to learn stories and historical facts.</t>
         </is>
       </c>
       <c r="B1043" t="inlineStr"/>
@@ -16147,7 +16147,7 @@
     <row r="1044">
       <c r="A1044" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Normandy D-Day Tour Guided Small Group From Paris </t>
+          <t>Title: Normandy D-Day Landing Beaches with Private Guide From Paris</t>
         </is>
       </c>
       <c r="B1044" t="inlineStr"/>
@@ -16162,7 +16162,7 @@
     <row r="1045">
       <c r="A1045" t="inlineStr">
         <is>
-          <t>TotalReviews: 13</t>
+          <t>TotalReviews: 15</t>
         </is>
       </c>
       <c r="B1045" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
     <row r="1047">
       <c r="A1047" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 10913P1</t>
+          <t>PRODUCTCODE: 47475P37</t>
         </is>
       </c>
       <c r="B1047" t="inlineStr"/>
@@ -16207,7 +16207,7 @@
     <row r="1048">
       <c r="A1048" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the Normandy landing beaches of World War II with insight from a private guide. Over the course of the day, you'll experience this historically rich area with visits to Omaha Beach, Juno Beach and more.</t>
+          <t>Summarized description: Take a day trip from Paris to Normandy to discover its moving history and hear stories from your guide. In your comfortable, climate-controlled vehicle, we'll travel to the Normandy beaches.</t>
         </is>
       </c>
       <c r="B1048" t="inlineStr"/>
@@ -16222,7 +16222,7 @@
     <row r="1049">
       <c r="A1049" t="inlineStr">
         <is>
-          <t>Title: Normandy Landing Beaches Private Day Tour from Paris</t>
+          <t>Title: D-Day Normandy Beaches Day Trip From Paris</t>
         </is>
       </c>
       <c r="B1049" t="inlineStr"/>
@@ -16237,7 +16237,7 @@
     <row r="1050">
       <c r="A1050" t="inlineStr">
         <is>
-          <t>TotalReviews: 11</t>
+          <t>TotalReviews: 14</t>
         </is>
       </c>
       <c r="B1050" t="inlineStr"/>
@@ -16252,7 +16252,7 @@
     <row r="1051">
       <c r="A1051" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1051" t="inlineStr"/>
@@ -16267,7 +16267,7 @@
     <row r="1052">
       <c r="A1052" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 26915P5</t>
+          <t>PRODUCTCODE: 2050P316</t>
         </is>
       </c>
       <c r="B1052" t="inlineStr"/>
@@ -16282,7 +16282,7 @@
     <row r="1053">
       <c r="A1053" t="inlineStr">
         <is>
-          <t>Summarized description: Paris is three hours drive to Utah beach, you will be traveling aboard our deluxe 7 seaters SUV. Enjoy a full day Normandy American Heroes private historical tailored tour for a moving memorable trip of the Dday landing sites and key American battlefields.</t>
+          <t>Summarized description: Discover where Allied forces landed to rescue Europe from Nazi invasion. Visit legendary Omaha Beach and remnants of the Arromanches artificial harbor left by allied forces. Pause to reflect in the solemn setting of the pristine American Cemetery.</t>
         </is>
       </c>
       <c r="B1053" t="inlineStr"/>
@@ -16297,7 +16297,7 @@
     <row r="1054">
       <c r="A1054" t="inlineStr">
         <is>
-          <t>Title: Full Day Private Tour of Historical Normandy American Sites from Paris</t>
+          <t xml:space="preserve">Title: Normandy D-Day Tour Guided Small Group From Paris </t>
         </is>
       </c>
       <c r="B1054" t="inlineStr"/>
@@ -16312,7 +16312,7 @@
     <row r="1055">
       <c r="A1055" t="inlineStr">
         <is>
-          <t>TotalReviews: 11</t>
+          <t>TotalReviews: 13</t>
         </is>
       </c>
       <c r="B1055" t="inlineStr"/>
@@ -16342,7 +16342,7 @@
     <row r="1057">
       <c r="A1057" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 9511P18</t>
+          <t>PRODUCTCODE: 268293P41</t>
         </is>
       </c>
       <c r="B1057" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
     <row r="1058">
       <c r="A1058" t="inlineStr">
         <is>
-          <t>Summarized description: A minibus guided tour with only 8 participants especially designed to discover, in one day, landing beaches and sites of legend. Air conditioned and comfortable minibus for a reduced transfer time.</t>
+          <t>Summarized description: Best anti-war Caen Memorial and Museum. 360 Circular Cinema with very impressive documentary. Arromanches-les-Bains Viewpoint over artificial D-Day harbour. Omaha Beaches with Signal Monument. Normandy American Cemetery in Colleville-sur-Mer. Pointe du Hoc Rangers Monument with fortifications. Overlord Museum with big collections of WW2 artifacts.</t>
         </is>
       </c>
       <c r="B1058" t="inlineStr"/>
@@ -16372,7 +16372,7 @@
     <row r="1059">
       <c r="A1059" t="inlineStr">
         <is>
-          <t>Title: Normandy Landing Beaches Guided Tour from Paris by Minibus</t>
+          <t>Title: Private Normandy D-Day Live guided Top 6 Sites trip from Paris</t>
         </is>
       </c>
       <c r="B1059" t="inlineStr"/>
@@ -16387,7 +16387,7 @@
     <row r="1060">
       <c r="A1060" t="inlineStr">
         <is>
-          <t>TotalReviews: 10</t>
+          <t>TotalReviews: 12</t>
         </is>
       </c>
       <c r="B1060" t="inlineStr"/>
@@ -16402,7 +16402,7 @@
     <row r="1061">
       <c r="A1061" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1061" t="inlineStr"/>
@@ -16417,7 +16417,7 @@
     <row r="1062">
       <c r="A1062" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 268293P42</t>
+          <t>PRODUCTCODE: 10913P1</t>
         </is>
       </c>
       <c r="B1062" t="inlineStr"/>
@@ -16432,7 +16432,7 @@
     <row r="1063">
       <c r="A1063" t="inlineStr">
         <is>
-          <t>Summarized description: Best anti-war Caen Memorial and Museum, 360 Circular Cinema with very impressive documentary, Arromanches-les-Bains Viewpoint over artificial D-Day harbour. Omaha Beaches with Signal Monument, Normandy American Cemetery in Colleville-sur-Mer with very nice Museum, Overlord Museum with big collections of WW2 artifacts.</t>
+          <t>Summarized description: Discover the Normandy landing beaches of World War II with insight from a private guide. Over the course of the day, you'll experience this historically rich area with visits to Omaha Beach, Juno Beach and more.</t>
         </is>
       </c>
       <c r="B1063" t="inlineStr"/>
@@ -16447,7 +16447,7 @@
     <row r="1064">
       <c r="A1064" t="inlineStr">
         <is>
-          <t>Title: Normandy D-Day Small-group 2 to 7 people to Top Sights from Paris</t>
+          <t>Title: Normandy Landing Beaches Private Day Tour from Paris</t>
         </is>
       </c>
       <c r="B1064" t="inlineStr"/>
@@ -16462,7 +16462,7 @@
     <row r="1065">
       <c r="A1065" t="inlineStr">
         <is>
-          <t>TotalReviews: 10</t>
+          <t>TotalReviews: 11</t>
         </is>
       </c>
       <c r="B1065" t="inlineStr"/>
@@ -16477,7 +16477,7 @@
     <row r="1066">
       <c r="A1066" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Museums', 'Historical Tours']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1066" t="inlineStr"/>
@@ -16492,7 +16492,7 @@
     <row r="1067">
       <c r="A1067" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 9511P33</t>
+          <t>PRODUCTCODE: 9511P18</t>
         </is>
       </c>
       <c r="B1067" t="inlineStr"/>
@@ -16507,7 +16507,7 @@
     <row r="1068">
       <c r="A1068" t="inlineStr">
         <is>
-          <t>Summarized description: A guided tour with only 8 participants (max) especially designed to discover, in one day, landing beaches and sites of legend. Air conditioned and comfortable minivan for a reduced transfer time.</t>
+          <t>Summarized description: A minibus guided tour with only 8 participants especially designed to discover, in one day, landing beaches and sites of legend. Air conditioned and comfortable minibus for a reduced transfer time.</t>
         </is>
       </c>
       <c r="B1068" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
     <row r="1069">
       <c r="A1069" t="inlineStr">
         <is>
-          <t>Title: Normandy D-Day Landing Beaches Small Group Guided Tour from Paris by minivan</t>
+          <t>Title: Normandy Landing Beaches Guided Tour from Paris by Minibus</t>
         </is>
       </c>
       <c r="B1069" t="inlineStr"/>
@@ -16537,7 +16537,7 @@
     <row r="1070">
       <c r="A1070" t="inlineStr">
         <is>
-          <t>TotalReviews: 7</t>
+          <t>TotalReviews: 10</t>
         </is>
       </c>
       <c r="B1070" t="inlineStr"/>
@@ -16567,7 +16567,7 @@
     <row r="1072">
       <c r="A1072" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 66049P35</t>
+          <t>PRODUCTCODE: 268293P42</t>
         </is>
       </c>
       <c r="B1072" t="inlineStr"/>
@@ -16582,7 +16582,7 @@
     <row r="1073">
       <c r="A1073" t="inlineStr">
         <is>
-          <t>Summarized description: Visit Omaha Beach, American Cemetery, the visitor center and learn stories about the World War II. Pay your respects at the American Cemetery. Find out the history of the WWII. Listen to tales at the Omaha Beach Visitor Centre.</t>
+          <t>Summarized description: Best anti-war Caen Memorial and Museum, 360 Circular Cinema with very impressive documentary, Arromanches-les-Bains Viewpoint over artificial D-Day harbour. Omaha Beaches with Signal Monument, Normandy American Cemetery in Colleville-sur-Mer with very nice Museum, Overlord Museum with big collections of WW2 artifacts.</t>
         </is>
       </c>
       <c r="B1073" t="inlineStr"/>
@@ -16597,7 +16597,7 @@
     <row r="1074">
       <c r="A1074" t="inlineStr">
         <is>
-          <t>Title: Normandy D-Day Landing Beaches Omaha &amp; Pointe du Hoc</t>
+          <t>Title: Normandy D-Day Small-group 2 to 7 people to Top Sights from Paris</t>
         </is>
       </c>
       <c r="B1074" t="inlineStr"/>
@@ -16612,7 +16612,7 @@
     <row r="1075">
       <c r="A1075" t="inlineStr">
         <is>
-          <t>TotalReviews: 7</t>
+          <t>TotalReviews: 10</t>
         </is>
       </c>
       <c r="B1075" t="inlineStr"/>
@@ -16627,7 +16627,7 @@
     <row r="1076">
       <c r="A1076" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1076" t="inlineStr"/>
@@ -16642,7 +16642,7 @@
     <row r="1077">
       <c r="A1077" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7245P7</t>
+          <t>PRODUCTCODE: 9511P33</t>
         </is>
       </c>
       <c r="B1077" t="inlineStr"/>
@@ -16657,7 +16657,7 @@
     <row r="1078">
       <c r="A1078" t="inlineStr">
         <is>
-          <t>Summarized description: Discover Normandy D-DAY sites, known for landing operations from Allied to rescue Europe from Nazi invasion during World War II in 1944. Choose a private or small group tour from your hotel in Paris.</t>
+          <t>Summarized description: A guided tour with only 8 participants (max) especially designed to discover, in one day, landing beaches and sites of legend. Air conditioned and comfortable minivan for a reduced transfer time.</t>
         </is>
       </c>
       <c r="B1078" t="inlineStr"/>
@@ -16672,7 +16672,7 @@
     <row r="1079">
       <c r="A1079" t="inlineStr">
         <is>
-          <t>Title: D-Day Normandy Landing Beaches full day small group tour</t>
+          <t>Title: Normandy D-Day Landing Beaches Small Group Guided Tour from Paris by minivan</t>
         </is>
       </c>
       <c r="B1079" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
     <row r="1080">
       <c r="A1080" t="inlineStr">
         <is>
-          <t>TotalReviews: 6</t>
+          <t>TotalReviews: 7</t>
         </is>
       </c>
       <c r="B1080" t="inlineStr"/>
@@ -16702,7 +16702,7 @@
     <row r="1081">
       <c r="A1081" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1081" t="inlineStr"/>
@@ -16717,7 +16717,7 @@
     <row r="1082">
       <c r="A1082" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 382111P7</t>
+          <t>PRODUCTCODE: 66049P35</t>
         </is>
       </c>
       <c r="B1082" t="inlineStr"/>
@@ -16732,7 +16732,7 @@
     <row r="1083">
       <c r="A1083" t="inlineStr">
         <is>
-          <t>Summarized description: Immerse yourself in World War II history for a day and feel the suffering and sorrow of the most devastating war in human history. Gain fascinating insights from your guide into the sacrifices of Allied soldiers.</t>
+          <t>Summarized description: Visit Omaha Beach, American Cemetery, the visitor center and learn stories about the World War II. Pay your respects at the American Cemetery. Find out the history of the WWII. Listen to tales at the Omaha Beach Visitor Centre.</t>
         </is>
       </c>
       <c r="B1083" t="inlineStr"/>
@@ -16747,7 +16747,7 @@
     <row r="1084">
       <c r="A1084" t="inlineStr">
         <is>
-          <t>Title: D-day beaches Private Guided Tour Omaha, Utah P. du Hoc, Caen</t>
+          <t>Title: Normandy D-Day Landing Beaches Omaha &amp; Pointe du Hoc</t>
         </is>
       </c>
       <c r="B1084" t="inlineStr"/>
@@ -16762,7 +16762,7 @@
     <row r="1085">
       <c r="A1085" t="inlineStr">
         <is>
-          <t>TotalReviews: 6</t>
+          <t>TotalReviews: 7</t>
         </is>
       </c>
       <c r="B1085" t="inlineStr"/>
@@ -16777,7 +16777,7 @@
     <row r="1086">
       <c r="A1086" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1086" t="inlineStr"/>
@@ -16792,7 +16792,7 @@
     <row r="1087">
       <c r="A1087" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 66049P43</t>
+          <t>PRODUCTCODE: 7245P7</t>
         </is>
       </c>
       <c r="B1087" t="inlineStr"/>
@@ -16807,7 +16807,7 @@
     <row r="1088">
       <c r="A1088" t="inlineStr">
         <is>
-          <t>Summarized description: D-Day landing beaches of World War II, Pointe Du Hoc, Omaha Beach, American Cemetery, Visitor Center,  and learn stories. Tour includes round-trip transport by car or minivan included.</t>
+          <t>Summarized description: Discover Normandy D-DAY sites, known for landing operations from Allied to rescue Europe from Nazi invasion during World War II in 1944. Choose a private or small group tour from your hotel in Paris.</t>
         </is>
       </c>
       <c r="B1088" t="inlineStr"/>
@@ -16822,7 +16822,7 @@
     <row r="1089">
       <c r="A1089" t="inlineStr">
         <is>
-          <t>Title: Normandy D-Day Beaches Omaha, Pointe du Hoc &amp; American Cemetery</t>
+          <t>Title: D-Day Normandy Landing Beaches full day small group tour</t>
         </is>
       </c>
       <c r="B1089" t="inlineStr"/>
@@ -16837,7 +16837,7 @@
     <row r="1090">
       <c r="A1090" t="inlineStr">
         <is>
-          <t>TotalReviews: 5</t>
+          <t>TotalReviews: 6</t>
         </is>
       </c>
       <c r="B1090" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
     <row r="1091">
       <c r="A1091" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1091" t="inlineStr"/>
@@ -16867,7 +16867,7 @@
     <row r="1092">
       <c r="A1092" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 114983P3</t>
+          <t>PRODUCTCODE: 142334P4</t>
         </is>
       </c>
       <c r="B1092" t="inlineStr"/>
@@ -16882,7 +16882,7 @@
     <row r="1093">
       <c r="A1093" t="inlineStr">
         <is>
-          <t>Summarized description:  Normandy Dday &amp; Terroir Tour from Paris 100% all inclusive. Walk in the footsteps of the Heroes who changed the World. Learn more about WWII and the strategic region of Normandy.</t>
+          <t>Summarized description: Visit to Normandy D-Day battle sites and Omaha beach from Paris. Walk along the « bloody beach » and pay your respect to the fallen US soldiers.</t>
         </is>
       </c>
       <c r="B1093" t="inlineStr"/>
@@ -16897,7 +16897,7 @@
     <row r="1094">
       <c r="A1094" t="inlineStr">
         <is>
-          <t>Title: Exclusive day trip to Normandy from Paris incl. Dday &amp; terroir</t>
+          <t>Title: OMAHA Beach - Day trip from Paris to Normandy in a small group (3/7 pax)</t>
         </is>
       </c>
       <c r="B1094" t="inlineStr"/>
@@ -16912,7 +16912,7 @@
     <row r="1095">
       <c r="A1095" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 6</t>
         </is>
       </c>
       <c r="B1095" t="inlineStr"/>
@@ -16927,7 +16927,7 @@
     <row r="1096">
       <c r="A1096" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours', 'Eco-Tours']</t>
+          <t>Category: ['Scenic Tours', 'Transportation &amp; Travel Services', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1096" t="inlineStr"/>
@@ -16942,7 +16942,7 @@
     <row r="1097">
       <c r="A1097" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6235NORMANDY</t>
+          <t>PRODUCTCODE: 24124P5</t>
         </is>
       </c>
       <c r="B1097" t="inlineStr"/>
@@ -16957,7 +16957,7 @@
     <row r="1098">
       <c r="A1098" t="inlineStr">
         <is>
-          <t>Summarized description: Discover Normandy's most notable beaches, battlegrounds and museums related to WWII and the D-Day operation. Hear tales about the Normandy Invasion and learn the story behind each site you visit.</t>
+          <t>Summarized description: Dive into the WWII History with your English-speaking expert guide and driver. Enjoy a Full -Day tour to the Landing Beaches of Normandy from your hotel or apartment in Paris.</t>
         </is>
       </c>
       <c r="B1098" t="inlineStr"/>
@@ -16972,7 +16972,7 @@
     <row r="1099">
       <c r="A1099" t="inlineStr">
         <is>
-          <t>Title: Normandy Landing Beaches 2-Day Trip with Utah &amp; Omaha from Paris</t>
+          <t>Title: A Day in Normandy Landing Beaches of WWII with Private Guide</t>
         </is>
       </c>
       <c r="B1099" t="inlineStr"/>
@@ -16987,7 +16987,7 @@
     <row r="1100">
       <c r="A1100" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 5</t>
         </is>
       </c>
       <c r="B1100" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
     <row r="1102">
       <c r="A1102" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 66049P42</t>
+          <t>PRODUCTCODE: 145891P2</t>
         </is>
       </c>
       <c r="B1102" t="inlineStr"/>
@@ -17032,7 +17032,7 @@
     <row r="1103">
       <c r="A1103" t="inlineStr">
         <is>
-          <t>Summarized description: Lunch is not included in the price but we have time to take it at the restaurants on Omaha Beach. Explore Normandy coast, the D-Day landing beaches of World War II and visit Pointe du Hoc, Omaha Beach, American Cemetery.</t>
+          <t>Summarized description:  Normandy is a breathtaking region of France that is steeped in an incredibly rich history. On June 6th, 1944, which we call D-Day, the beaches of Normandy played host to a pivotal moment in the Second World War. Around 132,000 soldiers, 11,590 planes, and 6,539 ships launched a comprehensive attack.</t>
         </is>
       </c>
       <c r="B1103" t="inlineStr"/>
@@ -17047,7 +17047,7 @@
     <row r="1104">
       <c r="A1104" t="inlineStr">
         <is>
-          <t>Title: Normandy D-Day Landing Beaches Day Trip from Paris</t>
+          <t>Title: Private Normandy DDay Tour - All inclusive full day</t>
         </is>
       </c>
       <c r="B1104" t="inlineStr"/>
@@ -17062,7 +17062,7 @@
     <row r="1105">
       <c r="A1105" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 5</t>
         </is>
       </c>
       <c r="B1105" t="inlineStr"/>
@@ -17077,7 +17077,7 @@
     <row r="1106">
       <c r="A1106" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1106" t="inlineStr"/>
@@ -17092,7 +17092,7 @@
     <row r="1107">
       <c r="A1107" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5045P57</t>
+          <t>PRODUCTCODE: 116778P5</t>
         </is>
       </c>
       <c r="B1107" t="inlineStr"/>
@@ -17107,7 +17107,7 @@
     <row r="1108">
       <c r="A1108" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the Normandy D-Day sites on a private day-trip, leaving right from the doorstep of your Paris Accomodation. Your will travel in the comfort of a private vehicle with your personal driver/guide.</t>
+          <t>Summarized description: Walk in the footsteps of allied soldiers, visit original German bunkers, and travel back in time at the Sainte-Mère-Église Museum. Gaze down from the Pointe-Du-Hoc memorial more than 100m above sea level.</t>
         </is>
       </c>
       <c r="B1108" t="inlineStr"/>
@@ -17122,7 +17122,7 @@
     <row r="1109">
       <c r="A1109" t="inlineStr">
         <is>
-          <t>Title: Normandy D-Day Beaches Private Day Trip with American Cemetery &amp; Omaha Beach</t>
+          <t>Title: From Paris - WWII American Landing Beaches Discovery Private Tour</t>
         </is>
       </c>
       <c r="B1109" t="inlineStr"/>
@@ -17137,7 +17137,7 @@
     <row r="1110">
       <c r="A1110" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 5</t>
         </is>
       </c>
       <c r="B1110" t="inlineStr"/>
@@ -17152,7 +17152,7 @@
     <row r="1111">
       <c r="A1111" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1111" t="inlineStr"/>
@@ -17167,7 +17167,7 @@
     <row r="1112">
       <c r="A1112" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 66049P57</t>
+          <t>PRODUCTCODE: 66049P43</t>
         </is>
       </c>
       <c r="B1112" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
     <row r="1113">
       <c r="A1113" t="inlineStr">
         <is>
-          <t>Summarized description: D-Day landing beaches of World War II, Pointe Du Hoc, Omaha Beach, American Cemetery, Omaha Beach Visitor Center. Learn stories about the World War Two and visit Overlord Museum.</t>
+          <t>Summarized description: D-Day landing beaches of World War II, Pointe Du Hoc, Omaha Beach, American Cemetery, Visitor Center,  and learn stories. Tour includes round-trip transport by car or minivan included.</t>
         </is>
       </c>
       <c r="B1113" t="inlineStr"/>
@@ -17197,7 +17197,7 @@
     <row r="1114">
       <c r="A1114" t="inlineStr">
         <is>
-          <t>Title: Private Trip to Omaha Beach Pointe du Hoc American Cemetery</t>
+          <t>Title: Normandy D-Day Beaches Omaha, Pointe du Hoc &amp; American Cemetery</t>
         </is>
       </c>
       <c r="B1114" t="inlineStr"/>
@@ -17212,7 +17212,7 @@
     <row r="1115">
       <c r="A1115" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 5</t>
         </is>
       </c>
       <c r="B1115" t="inlineStr"/>
@@ -17242,7 +17242,7 @@
     <row r="1117">
       <c r="A1117" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 140538P2</t>
+          <t>PRODUCTCODE: 17417P16</t>
         </is>
       </c>
       <c r="B1117" t="inlineStr"/>
@@ -17257,7 +17257,7 @@
     <row r="1118">
       <c r="A1118" t="inlineStr">
         <is>
-          <t>Summarized description: Day trip from Paris covers Normandy’s top WWII-related sites. Visit the landing beaches of Ponte du Hoc and Omaha. Get a first-hand look at military gear and vehicles at the Overlord Museum.</t>
+          <t>Summarized description: D-Day beaches include Mulberry Harbour, Longues sur Mer, Omaha Beach and of course the American Cemetery in Colleville sur Mer. Explore on a day tour of the D-Day Beaches.</t>
         </is>
       </c>
       <c r="B1118" t="inlineStr"/>
@@ -17272,7 +17272,7 @@
     <row r="1119">
       <c r="A1119" t="inlineStr">
         <is>
-          <t>Title: Normandy D-Day Beaches Omaha, Pointe du Hoc Day Trip from Paris</t>
+          <t>Title: Private Tour: D-Day Beaches from Paris</t>
         </is>
       </c>
       <c r="B1119" t="inlineStr"/>
@@ -17287,7 +17287,7 @@
     <row r="1120">
       <c r="A1120" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 5</t>
         </is>
       </c>
       <c r="B1120" t="inlineStr"/>
@@ -17302,7 +17302,7 @@
     <row r="1121">
       <c r="A1121" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1121" t="inlineStr"/>
@@ -17317,7 +17317,7 @@
     <row r="1122">
       <c r="A1122" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 268293P5</t>
+          <t>PRODUCTCODE: 114983P3</t>
         </is>
       </c>
       <c r="B1122" t="inlineStr"/>
@@ -17332,7 +17332,7 @@
     <row r="1123">
       <c r="A1123" t="inlineStr">
         <is>
-          <t>Summarized description: 2-day Private Live-guided trip from Paris to 7 Sights of Normandy, Brittany and Mont Saint-Michel. Calvados &amp; Oysters tastings.</t>
+          <t>Summarized description:  Normandy Dday &amp; Terroir Tour from Paris 100% all inclusive. Walk in the footsteps of the Heroes who changed the World. Learn more about WWII and the strategic region of Normandy.</t>
         </is>
       </c>
       <c r="B1123" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
     <row r="1124">
       <c r="A1124" t="inlineStr">
         <is>
-          <t>Title: 2-day Mont Saint-Michel Normandy Brittany Private Trip from Paris</t>
+          <t>Title: Exclusive day trip to Normandy from Paris incl. Dday &amp; terroir</t>
         </is>
       </c>
       <c r="B1124" t="inlineStr"/>
@@ -17362,7 +17362,7 @@
     <row r="1125">
       <c r="A1125" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B1125" t="inlineStr"/>
@@ -17377,7 +17377,7 @@
     <row r="1126">
       <c r="A1126" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Eco-Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1126" t="inlineStr"/>
@@ -17392,7 +17392,7 @@
     <row r="1127">
       <c r="A1127" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 268293P70</t>
+          <t>PRODUCTCODE: 69834P5</t>
         </is>
       </c>
       <c r="B1127" t="inlineStr"/>
@@ -17407,7 +17407,7 @@
     <row r="1128">
       <c r="A1128" t="inlineStr">
         <is>
-          <t>Summarized description: 2-day Private Live-guided trip from Paris to Mont Saint-Michel, Normandy’s capital Rouen, Medieval harbour-city Honfleur, Etretat Chalk Cliffs. Top D-Day Sights including: Normandy American Cemetery, Overlord Museum, Omaha Beach Memorial, Caen Memorial and Museum.</t>
+          <t>Summarized description: A guided tour to the largest sites of the Normandy landings in June 1944. Stop at Pointe du Hoc with its bunkers and bombs craters, where the famous scene of cliff climbing of "The longest day" was shot. Then visit Omaha Beach, with bunkers fitted with anti tank guns, the "Overlord Museum" with a lot of tanks.</t>
         </is>
       </c>
       <c r="B1128" t="inlineStr"/>
@@ -17422,7 +17422,7 @@
     <row r="1129">
       <c r="A1129" t="inlineStr">
         <is>
-          <t>Title: 2-day Mont Saint-Michel, Full D-Day, Normandy Private from Paris</t>
+          <t>Title: Guided Private Tour of Normandy D-Day Beaches and Battlefields from Paris</t>
         </is>
       </c>
       <c r="B1129" t="inlineStr"/>
@@ -17437,7 +17437,7 @@
     <row r="1130">
       <c r="A1130" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B1130" t="inlineStr"/>
@@ -17452,7 +17452,7 @@
     <row r="1131">
       <c r="A1131" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Museums', 'Historical Tours']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1131" t="inlineStr"/>
@@ -17467,7 +17467,7 @@
     <row r="1132">
       <c r="A1132" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5045P54</t>
+          <t>PRODUCTCODE: 66049P42</t>
         </is>
       </c>
       <c r="B1132" t="inlineStr"/>
@@ -17482,7 +17482,7 @@
     <row r="1133">
       <c r="A1133" t="inlineStr">
         <is>
-          <t>Summarized description: D-Day was the largest amphibious military operation in history. Around 156,000 allies troops landed on the beaches of Normandy. Approximately 14,000 Canadians landed in Normandy on D-Day, assaulting a beachfront.</t>
+          <t>Summarized description: Lunch is not included in the price but we have time to take it at the restaurants on Omaha Beach. Explore Normandy coast, the D-Day landing beaches of World War II and visit Pointe du Hoc, Omaha Beach, American Cemetery.</t>
         </is>
       </c>
       <c r="B1133" t="inlineStr"/>
@@ -17497,7 +17497,7 @@
     <row r="1134">
       <c r="A1134" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Normandy Canadians Sites Day Trip with Juno Beach &amp; Pegasus Bridge from Paris </t>
+          <t>Title: Normandy D-Day Landing Beaches Day Trip from Paris</t>
         </is>
       </c>
       <c r="B1134" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
     <row r="1135">
       <c r="A1135" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B1135" t="inlineStr"/>
@@ -17527,7 +17527,7 @@
     <row r="1136">
       <c r="A1136" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1136" t="inlineStr"/>
@@ -17542,7 +17542,7 @@
     <row r="1137">
       <c r="A1137" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 13437P41</t>
+          <t>PRODUCTCODE: 5045P57</t>
         </is>
       </c>
       <c r="B1137" t="inlineStr"/>
@@ -17557,7 +17557,7 @@
     <row r="1138">
       <c r="A1138" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the beaches of Normandy in France. Discover the history of the landings. Discover some of the most famous sites. Discover how to get to the beaches.</t>
+          <t>Summarized description: Discover the Normandy D-Day sites on a private day-trip, leaving right from the doorstep of your Paris Accomodation. Your will travel in the comfort of a private vehicle with your personal driver/guide.</t>
         </is>
       </c>
       <c r="B1138" t="inlineStr"/>
@@ -17572,7 +17572,7 @@
     <row r="1139">
       <c r="A1139" t="inlineStr">
         <is>
-          <t>Title: Normandy D Day Landing Customized Private Tour from Paris</t>
+          <t>Title: Normandy D-Day Beaches Private Day Trip with American Cemetery &amp; Omaha Beach</t>
         </is>
       </c>
       <c r="B1139" t="inlineStr"/>
@@ -17587,7 +17587,7 @@
     <row r="1140">
       <c r="A1140" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B1140" t="inlineStr"/>
@@ -17602,7 +17602,7 @@
     <row r="1141">
       <c r="A1141" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1141" t="inlineStr"/>
@@ -17617,7 +17617,7 @@
     <row r="1142">
       <c r="A1142" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 216622P12</t>
+          <t>PRODUCTCODE: 66049P57</t>
         </is>
       </c>
       <c r="B1142" t="inlineStr"/>
@@ -17632,7 +17632,7 @@
     <row r="1143">
       <c r="A1143" t="inlineStr">
         <is>
-          <t>Summarized description: The driver will pick you up from your hotel to bring you to the D-Day landing beaches and the return to your hotel is included. You can move anywhere from the local point (Restaurant, etc ...), the driver will take you there.</t>
+          <t>Summarized description: D-Day landing beaches of World War II, Pointe Du Hoc, Omaha Beach, American Cemetery, Omaha Beach Visitor Center. Learn stories about the World War Two and visit Overlord Museum.</t>
         </is>
       </c>
       <c r="B1143" t="inlineStr"/>
@@ -17647,7 +17647,7 @@
     <row r="1144">
       <c r="A1144" t="inlineStr">
         <is>
-          <t>Title: Private tour of the D-Day landing beaches from Paris</t>
+          <t>Title: Private Trip to Omaha Beach Pointe du Hoc American Cemetery</t>
         </is>
       </c>
       <c r="B1144" t="inlineStr"/>
@@ -17662,7 +17662,7 @@
     <row r="1145">
       <c r="A1145" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1145" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
     <row r="1146">
       <c r="A1146" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1146" t="inlineStr"/>
@@ -17692,7 +17692,7 @@
     <row r="1147">
       <c r="A1147" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 31997P5</t>
+          <t>PRODUCTCODE: 268293P133</t>
         </is>
       </c>
       <c r="B1147" t="inlineStr"/>
@@ -17707,7 +17707,7 @@
     <row r="1148">
       <c r="A1148" t="inlineStr">
         <is>
-          <t>Summarized description: Bayeux Sightseeing Tours can show you the ‘highlights’ of D-Day, or whatever you want to see, and all possible in one day. This is a tour for people who do not want to share the vehicle with others or have specific interests and sites they want to visit.</t>
+          <t>Summarized description: Small group full-day trip for 2 to 7 people to the top sites of Omaha and Utah Normandy D-Day Beaches by Mercedes. Live-guided from 4 people. Hotel pick-up and drop-off are included.</t>
         </is>
       </c>
       <c r="B1148" t="inlineStr"/>
@@ -17722,7 +17722,7 @@
     <row r="1149">
       <c r="A1149" t="inlineStr">
         <is>
-          <t>Title: Paris - Normandy D-Day landing beaches - Full day American sector private tour</t>
+          <t>Title: Normandy Omaha, Utah Landing Beaches Small-group Trip from Paris</t>
         </is>
       </c>
       <c r="B1149" t="inlineStr"/>
@@ -17737,7 +17737,7 @@
     <row r="1150">
       <c r="A1150" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1150" t="inlineStr"/>
@@ -17752,7 +17752,7 @@
     <row r="1151">
       <c r="A1151" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1151" t="inlineStr"/>
@@ -17767,7 +17767,7 @@
     <row r="1152">
       <c r="A1152" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 142334P34</t>
+          <t>PRODUCTCODE: 140538P2</t>
         </is>
       </c>
       <c r="B1152" t="inlineStr"/>
@@ -17782,7 +17782,7 @@
     <row r="1153">
       <c r="A1153" t="inlineStr">
         <is>
-          <t>Summarized description: Your guide will tell you the highlights and events of the "Operation Overlord" and the landing in Normandy on June 06, 1944. Travel with your own group of passengers aboard a comfortable and air-conditioning minivan in a friendly atmosphere.</t>
+          <t>Summarized description: Day trip from Paris covers Normandy’s top WWII-related sites. Visit the landing beaches of Ponte du Hoc and Omaha. Get a first-hand look at military gear and vehicles at the Overlord Museum.</t>
         </is>
       </c>
       <c r="B1153" t="inlineStr"/>
@@ -17797,7 +17797,7 @@
     <row r="1154">
       <c r="A1154" t="inlineStr">
         <is>
-          <t>Title: Pointe du Hoc, Omaha beach from Paris aboard a van (Private Tour)</t>
+          <t>Title: Normandy D-Day Beaches Omaha, Pointe du Hoc Day Trip from Paris</t>
         </is>
       </c>
       <c r="B1154" t="inlineStr"/>
@@ -17812,7 +17812,7 @@
     <row r="1155">
       <c r="A1155" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1155" t="inlineStr"/>
@@ -17827,7 +17827,7 @@
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Transportation &amp; Travel Services', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1156" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
     <row r="1157">
       <c r="A1157" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 85439P1492</t>
+          <t>PRODUCTCODE: 19551P60</t>
         </is>
       </c>
       <c r="B1157" t="inlineStr"/>
@@ -17857,7 +17857,7 @@
     <row r="1158">
       <c r="A1158" t="inlineStr">
         <is>
-          <t>Summarized description: Discover Normandy's D-Day sites from Paris in just one day. Explore Omaha Beach, the American Cemetery, and Arromanches' artificial harbor.</t>
+          <t>Summarized description: Visit the very sites of the landing of June 6th 1944. Walk on the sand of Omaha beach and by the cliffs and craters of Pointe du Hoc. Pay hommage to the fallen heroes at the American Cemetery and museum.</t>
         </is>
       </c>
       <c r="B1158" t="inlineStr"/>
@@ -17872,7 +17872,7 @@
     <row r="1159">
       <c r="A1159" t="inlineStr">
         <is>
-          <t>Title: Day Trip: Paris to American Cemetery, Omaha Beach, Pointe du Hoc</t>
+          <t>Title: Normandy Day Trip from Paris with Private Local Guide &amp; Private Transportation</t>
         </is>
       </c>
       <c r="B1159" t="inlineStr"/>
@@ -17887,7 +17887,7 @@
     <row r="1160">
       <c r="A1160" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1160" t="inlineStr"/>
@@ -17902,7 +17902,7 @@
     <row r="1161">
       <c r="A1161" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1161" t="inlineStr"/>
@@ -17917,7 +17917,7 @@
     <row r="1162">
       <c r="A1162" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 239576P34</t>
+          <t>PRODUCTCODE: 5045P54</t>
         </is>
       </c>
       <c r="B1162" t="inlineStr"/>
@@ -17932,7 +17932,7 @@
     <row r="1163">
       <c r="A1163" t="inlineStr">
         <is>
-          <t>Summarized description: Visit the Canadian Memorial at Juno Beach or Arromanches. Explore the landing beaches, memorials, cemeteries, and museums of this event.</t>
+          <t>Summarized description: D-Day was the largest amphibious military operation in history. Around 156,000 allies troops landed on the beaches of Normandy. Approximately 14,000 Canadians landed in Normandy on D-Day, assaulting a beachfront.</t>
         </is>
       </c>
       <c r="B1163" t="inlineStr"/>
@@ -17947,7 +17947,7 @@
     <row r="1164">
       <c r="A1164" t="inlineStr">
         <is>
-          <t>Title: Normandy D-Day Beaches : A Historical Day Trip From Paris</t>
+          <t xml:space="preserve">Title: Normandy Canadians Sites Day Trip with Juno Beach &amp; Pegasus Bridge from Paris </t>
         </is>
       </c>
       <c r="B1164" t="inlineStr"/>
@@ -17962,7 +17962,7 @@
     <row r="1165">
       <c r="A1165" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1165" t="inlineStr"/>
@@ -17977,7 +17977,7 @@
     <row r="1166">
       <c r="A1166" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1166" t="inlineStr"/>
@@ -17992,7 +17992,7 @@
     <row r="1167">
       <c r="A1167" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 116778P7</t>
+          <t>PRODUCTCODE: 13437P41</t>
         </is>
       </c>
       <c r="B1167" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
     <row r="1168">
       <c r="A1168" t="inlineStr">
         <is>
-          <t>Summarized description: Walk in the footsteps of allied soldiers, visit original German bunkers, and travel back in time at the Sainte-Mère-Église Museum. Gaze down from the Pointe-Du-Hoc memorial more than 100m above sea level.</t>
+          <t>Summarized description: Discover the beaches of Normandy in France. Discover the history of the landings. Discover some of the most famous sites. Discover how to get to the beaches.</t>
         </is>
       </c>
       <c r="B1168" t="inlineStr"/>
@@ -18022,7 +18022,7 @@
     <row r="1169">
       <c r="A1169" t="inlineStr">
         <is>
-          <t>Title: From Rouen - WWII - American Landing Beaches Discovery Private Tour</t>
+          <t>Title: Normandy D Day Landing Customized Private Tour from Paris</t>
         </is>
       </c>
       <c r="B1169" t="inlineStr"/>
@@ -18067,7 +18067,7 @@
     <row r="1172">
       <c r="A1172" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 29942P12</t>
+          <t>PRODUCTCODE: 216622P12</t>
         </is>
       </c>
       <c r="B1172" t="inlineStr"/>
@@ -18082,7 +18082,7 @@
     <row r="1173">
       <c r="A1173" t="inlineStr">
         <is>
-          <t>Summarized description: Travel with a private guide to key WWII battle sites including Omaha Beach and Pointe du Hoc. Then, visit the American Cemetery — where a great many soldiers are laid to rest.</t>
+          <t>Summarized description: The driver will pick you up from your hotel to bring you to the D-Day landing beaches and the return to your hotel is included. You can move anywhere from the local point (Restaurant, etc ...), the driver will take you there.</t>
         </is>
       </c>
       <c r="B1173" t="inlineStr"/>
@@ -18097,7 +18097,7 @@
     <row r="1174">
       <c r="A1174" t="inlineStr">
         <is>
-          <t>Title: 2 Days Normandy D-Day Landing Beaches Private Day Trip from Paris</t>
+          <t>Title: Private tour of the D-Day landing beaches from Paris</t>
         </is>
       </c>
       <c r="B1174" t="inlineStr"/>
@@ -18127,7 +18127,7 @@
     <row r="1176">
       <c r="A1176" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1176" t="inlineStr"/>
@@ -18142,7 +18142,7 @@
     <row r="1177">
       <c r="A1177" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 239343P16</t>
+          <t>PRODUCTCODE: 31997P5</t>
         </is>
       </c>
       <c r="B1177" t="inlineStr"/>
@@ -18157,7 +18157,7 @@
     <row r="1178">
       <c r="A1178" t="inlineStr">
         <is>
-          <t>Summarized description: Travel to Normandy to see and experience some of the most famous sites from the Second World War. Enjoy a tour of the French Riviera as well as a visit to the famous Ponte du Hoc.</t>
+          <t>Summarized description: Bayeux Sightseeing Tours can show you the ‘highlights’ of D-Day, or whatever you want to see, and all possible in one day. This is a tour for people who do not want to share the vehicle with others or have specific interests and sites they want to visit.</t>
         </is>
       </c>
       <c r="B1178" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
     <row r="1179">
       <c r="A1179" t="inlineStr">
         <is>
-          <t>Title: From Paris Full Day Trip To The Normandy D-Day Beaches With Lunch</t>
+          <t>Title: Paris - Normandy D-Day landing beaches - Full day American sector private tour</t>
         </is>
       </c>
       <c r="B1179" t="inlineStr"/>
@@ -18217,7 +18217,7 @@
     <row r="1182">
       <c r="A1182" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 192144P3</t>
+          <t>PRODUCTCODE: 142334P34</t>
         </is>
       </c>
       <c r="B1182" t="inlineStr"/>
@@ -18232,7 +18232,7 @@
     <row r="1183">
       <c r="A1183" t="inlineStr">
         <is>
-          <t>Summarized description: Full-day tour will explore the emblematic sites and the landing beaches of D-Day. We will visit the battlefield at La Point du Hoc, where numerous bombs craters still scatter the landscape.</t>
+          <t>Summarized description: Your guide will tell you the highlights and events of the "Operation Overlord" and the landing in Normandy on June 06, 1944. Travel with your own group of passengers aboard a comfortable and air-conditioning minivan in a friendly atmosphere.</t>
         </is>
       </c>
       <c r="B1183" t="inlineStr"/>
@@ -18247,7 +18247,7 @@
     <row r="1184">
       <c r="A1184" t="inlineStr">
         <is>
-          <t>Title: Normandy, Omaha Beach &amp; American Cemetery Full-Day Private Tour</t>
+          <t>Title: Pointe du Hoc, Omaha beach from Paris aboard a van (Private Tour)</t>
         </is>
       </c>
       <c r="B1184" t="inlineStr"/>
@@ -18277,7 +18277,7 @@
     <row r="1186">
       <c r="A1186" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Transportation &amp; Travel Services', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1186" t="inlineStr"/>
@@ -18292,7 +18292,7 @@
     <row r="1187">
       <c r="A1187" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 66049P48</t>
+          <t>PRODUCTCODE: 85439P1492</t>
         </is>
       </c>
       <c r="B1187" t="inlineStr"/>
@@ -18307,7 +18307,7 @@
     <row r="1188">
       <c r="A1188" t="inlineStr">
         <is>
-          <t>Summarized description: The first Allied Forces landed in Normandy on June 6, 1944. Take this tour and jump into history of the WWII and explore the places where the first Allied forces landed.</t>
+          <t>Summarized description: Discover Normandy's D-Day sites from Paris in just one day. Explore Omaha Beach, the American Cemetery, and Arromanches' artificial harbor.</t>
         </is>
       </c>
       <c r="B1188" t="inlineStr"/>
@@ -18322,7 +18322,7 @@
     <row r="1189">
       <c r="A1189" t="inlineStr">
         <is>
-          <t>Title: D-Day American Beaches Omaha, Pointe du Hoc &amp; American Cemetery</t>
+          <t>Title: Day Trip: Paris to American Cemetery, Omaha Beach, Pointe du Hoc</t>
         </is>
       </c>
       <c r="B1189" t="inlineStr"/>
@@ -18352,7 +18352,7 @@
     <row r="1191">
       <c r="A1191" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1191" t="inlineStr"/>
@@ -18367,7 +18367,7 @@
     <row r="1192">
       <c r="A1192" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 8647P375</t>
+          <t>PRODUCTCODE: 239576P34</t>
         </is>
       </c>
       <c r="B1192" t="inlineStr"/>
@@ -18382,7 +18382,7 @@
     <row r="1193">
       <c r="A1193" t="inlineStr">
         <is>
-          <t>Summarized description: This is a completely personalized tour just for your family or group. Enjoy this private tour with tour official your guide and discover Normandy on this day tour from Paris.</t>
+          <t>Summarized description: Visit the Canadian Memorial at Juno Beach or Arromanches. Explore the landing beaches, memorials, cemeteries, and museums of this event.</t>
         </is>
       </c>
       <c r="B1193" t="inlineStr"/>
@@ -18397,7 +18397,7 @@
     <row r="1194">
       <c r="A1194" t="inlineStr">
         <is>
-          <t>Title: Normandy Beaches Private Tour from Paris with Hotel Pick Up</t>
+          <t>Title: Normandy D-Day Beaches : A Historical Day Trip From Paris</t>
         </is>
       </c>
       <c r="B1194" t="inlineStr"/>
@@ -18427,7 +18427,7 @@
     <row r="1196">
       <c r="A1196" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1196" t="inlineStr"/>
@@ -18442,7 +18442,7 @@
     <row r="1197">
       <c r="A1197" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 171266P6</t>
+          <t>PRODUCTCODE: 192144P3</t>
         </is>
       </c>
       <c r="B1197" t="inlineStr"/>
@@ -18457,7 +18457,7 @@
     <row r="1198">
       <c r="A1198" t="inlineStr">
         <is>
-          <t>Summarized description: Private chauffeur will take you to the Pointe du Hoc, Utah Beach, Omaha Beach, and the American Cemetery. We can also do a tour for the D-Day British / Canadian Landing in Normandy.</t>
+          <t>Summarized description: Full-day tour will explore the emblematic sites and the landing beaches of D-Day. We will visit the battlefield at La Point du Hoc, where numerous bombs craters still scatter the landscape.</t>
         </is>
       </c>
       <c r="B1198" t="inlineStr"/>
@@ -18472,7 +18472,7 @@
     <row r="1199">
       <c r="A1199" t="inlineStr">
         <is>
-          <t>Title: D-Day Normandy Landing Beach WWII Private Tour from Paris</t>
+          <t>Title: Normandy, Omaha Beach &amp; American Cemetery Full-Day Private Tour</t>
         </is>
       </c>
       <c r="B1199" t="inlineStr"/>
@@ -18502,7 +18502,7 @@
     <row r="1201">
       <c r="A1201" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1201" t="inlineStr"/>
@@ -18517,7 +18517,7 @@
     <row r="1202">
       <c r="A1202" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6839P87</t>
+          <t>PRODUCTCODE: 66049P48</t>
         </is>
       </c>
       <c r="B1202" t="inlineStr"/>
@@ -18532,7 +18532,7 @@
     <row r="1203">
       <c r="A1203" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the landing beaches in the Calvados region of Normandy. Travel from Paris to Bayeux, Normandy by train and then board a bus that will be waiting for you on your arrival.</t>
+          <t>Summarized description: The first Allied Forces landed in Normandy on June 6, 1944. Take this tour and jump into history of the WWII and explore the places where the first Allied forces landed.</t>
         </is>
       </c>
       <c r="B1203" t="inlineStr"/>
@@ -18547,7 +18547,7 @@
     <row r="1204">
       <c r="A1204" t="inlineStr">
         <is>
-          <t>Title: Normandy DDay Trip from Paris by train</t>
+          <t>Title: D-Day American Beaches Omaha, Pointe du Hoc &amp; American Cemetery</t>
         </is>
       </c>
       <c r="B1204" t="inlineStr"/>
@@ -18577,7 +18577,7 @@
     <row r="1206">
       <c r="A1206" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1206" t="inlineStr"/>
@@ -18592,7 +18592,7 @@
     <row r="1207">
       <c r="A1207" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 107859P699</t>
+          <t>PRODUCTCODE: 171266P6</t>
         </is>
       </c>
       <c r="B1207" t="inlineStr"/>
@@ -18607,7 +18607,7 @@
     <row r="1208">
       <c r="A1208" t="inlineStr">
         <is>
-          <t>Summarized description: Omaha Beach and remnants of the Arromanches artificial harbor left by allied forces. Relive the drama and heartache of WW2 at the unmissable Caen Memorial Museum.</t>
+          <t>Summarized description: Private chauffeur will take you to the Pointe du Hoc, Utah Beach, Omaha Beach, and the American Cemetery. We can also do a tour for the D-Day British / Canadian Landing in Normandy.</t>
         </is>
       </c>
       <c r="B1208" t="inlineStr"/>
@@ -18622,7 +18622,7 @@
     <row r="1209">
       <c r="A1209" t="inlineStr">
         <is>
-          <t>Title: France Paris Day Trip of Normandy D-Day Beaches and American Cemetery</t>
+          <t>Title: D-Day Normandy Landing Beach WWII Private Tour from Paris</t>
         </is>
       </c>
       <c r="B1209" t="inlineStr"/>
@@ -18652,7 +18652,7 @@
     <row r="1211">
       <c r="A1211" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1211" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
     <row r="1212">
       <c r="A1212" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 116778P1</t>
+          <t>PRODUCTCODE: 107859P699</t>
         </is>
       </c>
       <c r="B1212" t="inlineStr"/>
@@ -18682,7 +18682,7 @@
     <row r="1213">
       <c r="A1213" t="inlineStr">
         <is>
-          <t>Summarized description:  Normandy’s Exclusive Highlights adventure will take you on a whistlestop tour of Normandy's top towns, sights, and historic locations. Step back in time as you explore the Medieval Old Town of Rouen. Discover the stunning chalk cliff formations of Etretat, take in the sea views, and sample French cider at an iconic local orchard.</t>
+          <t>Summarized description: Omaha Beach and remnants of the Arromanches artificial harbor left by allied forces. Relive the drama and heartache of WW2 at the unmissable Caen Memorial Museum.</t>
         </is>
       </c>
       <c r="B1213" t="inlineStr"/>
@@ -18697,7 +18697,7 @@
     <row r="1214">
       <c r="A1214" t="inlineStr">
         <is>
-          <t>Title: From Paris - Normandy's Regional Highlights Private Tour</t>
+          <t>Title: France Paris Day Trip of Normandy D-Day Beaches and American Cemetery</t>
         </is>
       </c>
       <c r="B1214" t="inlineStr"/>
@@ -18727,7 +18727,7 @@
     <row r="1216">
       <c r="A1216" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1216" t="inlineStr"/>
@@ -18742,7 +18742,7 @@
     <row r="1217">
       <c r="A1217" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 19014P19</t>
+          <t>PRODUCTCODE: 157851P29</t>
         </is>
       </c>
       <c r="B1217" t="inlineStr"/>
@@ -18757,7 +18757,7 @@
     <row r="1218">
       <c r="A1218" t="inlineStr">
         <is>
-          <t>Summarized description: The day visit to Normandy gives you emotions which will stay unforgettable. You will dive in a sea of traditions and take a spirit of Middle Ages. Lead by knowledgeable guide you will get informed about the main historical events happened there.</t>
+          <t>Summarized description: Discover many of Normandy’s key D-Day landmarks, all in one day. Private tour gives you the freedom to customize your sightseeing (upgrade to explore with a guide)</t>
         </is>
       </c>
       <c r="B1218" t="inlineStr"/>
@@ -18772,7 +18772,7 @@
     <row r="1219">
       <c r="A1219" t="inlineStr">
         <is>
-          <t>Title: Normandy Small Group Trip with Lunch plus Liqueur &amp; Calvados Tastings from Paris</t>
+          <t>Title: Normandy D-Day Beaches Private Tour from your hotel in Paris</t>
         </is>
       </c>
       <c r="B1219" t="inlineStr"/>
@@ -18802,7 +18802,7 @@
     <row r="1221">
       <c r="A1221" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1221" t="inlineStr"/>
@@ -18817,7 +18817,7 @@
     <row r="1222">
       <c r="A1222" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 157851P29</t>
+          <t>PRODUCTCODE: 7245P55</t>
         </is>
       </c>
       <c r="B1222" t="inlineStr"/>
@@ -18832,7 +18832,7 @@
     <row r="1223">
       <c r="A1223" t="inlineStr">
         <is>
-          <t>Summarized description: Discover many of Normandy’s key D-Day landmarks, all in one day. Private tour gives you the freedom to customize your sightseeing (upgrade to explore with a guide)</t>
+          <t>Summarized description: Be immersed in the event of D-day of 1944 with our audio-guide. Let it guide you through the Sainte Mère Eglise, Pointe Du Hoc. You will then discover Omaha beach, where the American soldiers landed on June, 6th of 1944. Nearby, visit the American cemetery and Memorial of Colleville-sur-Mer.</t>
         </is>
       </c>
       <c r="B1223" t="inlineStr"/>
@@ -18847,7 +18847,7 @@
     <row r="1224">
       <c r="A1224" t="inlineStr">
         <is>
-          <t>Title: Normandy D-Day Beaches Private Tour from your hotel in Paris</t>
+          <t>Title: D day Normandy Tour with Audio guide hotel pick up Small group</t>
         </is>
       </c>
       <c r="B1224" t="inlineStr"/>
@@ -18892,7 +18892,7 @@
     <row r="1227">
       <c r="A1227" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7245P55</t>
+          <t>PRODUCTCODE: 66049P47</t>
         </is>
       </c>
       <c r="B1227" t="inlineStr"/>
@@ -18907,7 +18907,7 @@
     <row r="1228">
       <c r="A1228" t="inlineStr">
         <is>
-          <t>Summarized description: Be immersed in the event of D-day of 1944 with our audio-guide. Let it guide you through the Sainte Mère Eglise, Pointe Du Hoc. You will then discover Omaha beach, where the American soldiers landed on June, 6th of 1944. Nearby, visit the American cemetery and Memorial of Colleville-sur-Mer.</t>
+          <t>Summarized description: D-Day landing beaches of World War II. We will go straight to Pointe du Hoc, where the United States Army Ranger Assault Group assaulted and captured it after scaling the cliffs. Then, we’ll take a break at Omaha Beach, the famous beach where the american army landed on 6th of June 1944. Half of the day we'll stay and this area to explore all the places and on our way back we will stop for a lunch in a fancy restaurant.</t>
         </is>
       </c>
       <c r="B1228" t="inlineStr"/>
@@ -18922,7 +18922,7 @@
     <row r="1229">
       <c r="A1229" t="inlineStr">
         <is>
-          <t>Title: D day Normandy Tour with Audio guide hotel pick up Small group</t>
+          <t>Title: D-Day Beaches Pointe du Hoc, Omaha Beach &amp; Normandy Cemetery</t>
         </is>
       </c>
       <c r="B1229" t="inlineStr"/>
@@ -18952,7 +18952,7 @@
     <row r="1231">
       <c r="A1231" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1231" t="inlineStr"/>
@@ -18967,7 +18967,7 @@
     <row r="1232">
       <c r="A1232" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 66049P47</t>
+          <t>PRODUCTCODE: 208552P2</t>
         </is>
       </c>
       <c r="B1232" t="inlineStr"/>
@@ -18982,7 +18982,7 @@
     <row r="1233">
       <c r="A1233" t="inlineStr">
         <is>
-          <t>Summarized description: D-Day landing beaches of World War II. We will go straight to Pointe du Hoc, where the United States Army Ranger Assault Group assaulted and captured it after scaling the cliffs. Then, we’ll take a break at Omaha Beach, the famous beach where the american army landed on 6th of June 1944. Half of the day we'll stay and this area to explore all the places and on our way back we will stop for a lunch in a fancy restaurant.</t>
+          <t>Summarized description: First stop in Rouen - the capital of the former county of Normandy. Walking tour of the historic city center with its many medieval half-timbered houses. Deauville - the most famous resort town on the English Channel with a giant sandy beach.</t>
         </is>
       </c>
       <c r="B1233" t="inlineStr"/>
@@ -18997,7 +18997,7 @@
     <row r="1234">
       <c r="A1234" t="inlineStr">
         <is>
-          <t>Title: D-Day Beaches Pointe du Hoc, Omaha Beach &amp; Normandy Cemetery</t>
+          <t>Title:  ALL INCLUSIVE for a full day group visit to Normandy from Paris</t>
         </is>
       </c>
       <c r="B1234" t="inlineStr"/>
@@ -19012,7 +19012,7 @@
     <row r="1235">
       <c r="A1235" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1235" t="inlineStr"/>
@@ -19027,7 +19027,7 @@
     <row r="1236">
       <c r="A1236" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1236" t="inlineStr"/>
@@ -19042,7 +19042,7 @@
     <row r="1237">
       <c r="A1237" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 235760P37</t>
+          <t>PRODUCTCODE: 142334P11</t>
         </is>
       </c>
       <c r="B1237" t="inlineStr"/>
@@ -19057,7 +19057,7 @@
     <row r="1238">
       <c r="A1238" t="inlineStr">
         <is>
-          <t>Summarized description: Normandy is divided into five administrative departments: Calvados, Eure, Manche, Orne, and Seine-Maritime. Its population of 3.37 million accounts for around 5% of the population of France. Trace history and visit significant landmarks &amp; landing beaches where the action takes place.</t>
+          <t>Summarized description: Learn about the events of June 6, 1944 at the Canadian War Cemetery in Beny-sur-Mer. Visit the famous “Canada House’ on Juno Beach, said to be the first house liberated in Normandy.</t>
         </is>
       </c>
       <c r="B1238" t="inlineStr"/>
@@ -19072,7 +19072,7 @@
     <row r="1239">
       <c r="A1239" t="inlineStr">
         <is>
-          <t>Title: Paris Essential : Normandy &amp; Amazing Beaches Private Day Trip</t>
+          <t>Title: Day trip from Paris to Juno Beach, Normandy - Private Tour (2 pax)</t>
         </is>
       </c>
       <c r="B1239" t="inlineStr"/>
@@ -19102,7 +19102,7 @@
     <row r="1241">
       <c r="A1241" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1241" t="inlineStr"/>
@@ -19117,7 +19117,7 @@
     <row r="1242">
       <c r="A1242" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 208552P2</t>
+          <t>PRODUCTCODE: 409970P6</t>
         </is>
       </c>
       <c r="B1242" t="inlineStr"/>
@@ -19132,7 +19132,7 @@
     <row r="1243">
       <c r="A1243" t="inlineStr">
         <is>
-          <t>Summarized description: First stop in Rouen - the capital of the former county of Normandy. Walking tour of the historic city center with its many medieval half-timbered houses. Deauville - the most famous resort town on the English Channel with a giant sandy beach.</t>
+          <t>Summarized description:  Normandy Premium Tour offers a personalized travel experience for two or in a small group (8 People Max) with or without a guide. You will visit Pointe du Hoc, the Normandy American Cemetery, Omaha Beach, etc.</t>
         </is>
       </c>
       <c r="B1243" t="inlineStr"/>
@@ -19147,7 +19147,7 @@
     <row r="1244">
       <c r="A1244" t="inlineStr">
         <is>
-          <t>Title:  ALL INCLUSIVE for a full day group visit to Normandy from Paris</t>
+          <t>Title: Private DDAY tour with pickup in Paris Full day</t>
         </is>
       </c>
       <c r="B1244" t="inlineStr"/>
@@ -19177,7 +19177,7 @@
     <row r="1246">
       <c r="A1246" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1246" t="inlineStr"/>
@@ -19192,7 +19192,7 @@
     <row r="1247">
       <c r="A1247" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 66049P55</t>
+          <t>PRODUCTCODE: 320547P719</t>
         </is>
       </c>
       <c r="B1247" t="inlineStr"/>
@@ -19207,7 +19207,7 @@
     <row r="1248">
       <c r="A1248" t="inlineStr">
         <is>
-          <t>Summarized description: Rouen is one of the capitals of the Anglo-Norman dynasties, which ruled both England and large parts of modern France from the 11th to the 15th centuries. Explore Normandy coast, the capital Rouen where the viking Rollo established his residence. Also, we will enjoy the famous port Honfleur where the Impressionist movement appeared.</t>
+          <t>Summarized description: Normandy is a charming region just north of Paris. It's both a rural and seaside area famous for producing excellent cheeses, apple cider, and seafood, such as sea-scallop and herring.</t>
         </is>
       </c>
       <c r="B1248" t="inlineStr"/>
@@ -19222,7 +19222,7 @@
     <row r="1249">
       <c r="A1249" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Normandy - Honfleur Port &amp; Rouen Medieval City - One Day Trip from Paris </t>
+          <t xml:space="preserve">Title: Paris to D-Day Beach Private Guided Tour with Airport Transfer </t>
         </is>
       </c>
       <c r="B1249" t="inlineStr"/>
@@ -19252,7 +19252,7 @@
     <row r="1251">
       <c r="A1251" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Culinary Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B1251" t="inlineStr"/>
@@ -19267,7 +19267,7 @@
     <row r="1252">
       <c r="A1252" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 142334P11</t>
+          <t>PRODUCTCODE: 9511P50</t>
         </is>
       </c>
       <c r="B1252" t="inlineStr"/>
@@ -19282,7 +19282,7 @@
     <row r="1253">
       <c r="A1253" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about the events of June 6, 1944 at the Canadian War Cemetery in Beny-sur-Mer. Visit the famous “Canada House’ on Juno Beach, said to be the first house liberated in Normandy.</t>
+          <t>Summarized description: A guided tour with only 8 participants (max) especially designed to discover, in one day, landing beaches and sites of legend. Air conditioned and comfortable minivan for a reduced transfer time.</t>
         </is>
       </c>
       <c r="B1253" t="inlineStr"/>
@@ -19297,7 +19297,7 @@
     <row r="1254">
       <c r="A1254" t="inlineStr">
         <is>
-          <t>Title: Day trip from Paris to Juno Beach, Normandy - Private Tour (2 pax)</t>
+          <t>Title: Private tour Normandy D-Day Landing Beaches Guided from Paris</t>
         </is>
       </c>
       <c r="B1254" t="inlineStr"/>
@@ -19327,7 +19327,7 @@
     <row r="1256">
       <c r="A1256" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1256" t="inlineStr"/>
@@ -19342,7 +19342,7 @@
     <row r="1257">
       <c r="A1257" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 11690P13</t>
+          <t>PRODUCTCODE: 110148P48</t>
         </is>
       </c>
       <c r="B1257" t="inlineStr"/>
@@ -19357,7 +19357,7 @@
     <row r="1258">
       <c r="A1258" t="inlineStr">
         <is>
-          <t>Summarized description: Jozef Prihoda is an expert on the battles of Normandy and other interresting sites. The tour can be customized depending on everyones personal interest. Once booked, you will not share it with any second party.</t>
+          <t>Summarized description: Take your private car from Paris and travel to the city of Bayeux. Admire the 70 meters long middle age Tapestry, Listed “World Heritage” by UNESCO. Continue to the Landing Beaches of Normandy and the American Cemetery.</t>
         </is>
       </c>
       <c r="B1258" t="inlineStr"/>
@@ -19372,7 +19372,7 @@
     <row r="1259">
       <c r="A1259" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Two days ultimate Normandy D-day tour - from the first to the last battle </t>
+          <t>Title: D-Day Beaches, Mt. St. Michel &amp; St. Malo, 2-Day tour in PRIVATE CAR from Paris</t>
         </is>
       </c>
       <c r="B1259" t="inlineStr"/>
@@ -19402,7 +19402,7 @@
     <row r="1261">
       <c r="A1261" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1261" t="inlineStr"/>
@@ -19417,7 +19417,7 @@
     <row r="1262">
       <c r="A1262" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 248951P3</t>
+          <t>PRODUCTCODE: 113047P12</t>
         </is>
       </c>
       <c r="B1262" t="inlineStr"/>
@@ -19432,7 +19432,7 @@
     <row r="1263">
       <c r="A1263" t="inlineStr">
         <is>
-          <t>Summarized description: Discover in the morning ancient Rouen at the river the Seine. In the afternoon the world famous Cote Fleurie, between medieval seaport Honfleur and Art Deco beach resort Deauville. Let's perhaps, enjoy a beautiful "fruits de mer" lunch in the old sea port of honfleur.</t>
+          <t>Summarized description: Tour with a Licensed Guide, driver and Sommelier. Drink old vintages of Loire wines and eat in breathtaking places. Taste Normandy cheeses and pair them with ciders and sparkling wines.</t>
         </is>
       </c>
       <c r="B1263" t="inlineStr"/>
@@ -19447,7 +19447,7 @@
     <row r="1264">
       <c r="A1264" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Normandy, medieval Rouen, Calvados, Honfleur. Private tour 8 p .= 225 e. each </t>
+          <t>Title: 4-Day Private Tour Normandy - Mont Saint Michel, WW2 beaches...</t>
         </is>
       </c>
       <c r="B1264" t="inlineStr"/>
@@ -19477,7 +19477,7 @@
     <row r="1266">
       <c r="A1266" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1266" t="inlineStr"/>
@@ -19492,7 +19492,7 @@
     <row r="1267">
       <c r="A1267" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 409970P6</t>
+          <t>PRODUCTCODE: 320547P130</t>
         </is>
       </c>
       <c r="B1267" t="inlineStr"/>
@@ -19507,7 +19507,7 @@
     <row r="1268">
       <c r="A1268" t="inlineStr">
         <is>
-          <t>Summarized description:  Normandy Premium Tour offers a personalized travel experience for two or in a small group (8 People Max) with or without a guide. You will visit Pointe du Hoc, the Normandy American Cemetery, Omaha Beach, etc.</t>
+          <t>Summarized description:  Normandy is a charming region just north of Paris. It's both a rural and seaside area famous for producing excellent cheeses. The quality of the cuisine of Normandy makes it a must-visit area.</t>
         </is>
       </c>
       <c r="B1268" t="inlineStr"/>
@@ -19522,7 +19522,7 @@
     <row r="1269">
       <c r="A1269" t="inlineStr">
         <is>
-          <t>Title: Private DDAY tour with pickup in Paris Full day</t>
+          <t>Title: Paris to D-Day Beaches Full Day Private Tour with Guide</t>
         </is>
       </c>
       <c r="B1269" t="inlineStr"/>
@@ -19552,7 +19552,7 @@
     <row r="1271">
       <c r="A1271" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1271" t="inlineStr"/>
@@ -19567,7 +19567,7 @@
     <row r="1272">
       <c r="A1272" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 17417P13</t>
+          <t>PRODUCTCODE: 2050P362</t>
         </is>
       </c>
       <c r="B1272" t="inlineStr"/>
@@ -19582,7 +19582,7 @@
     <row r="1273">
       <c r="A1273" t="inlineStr">
         <is>
-          <t>Summarized description: Stroll along the medieval streets of Rouen with a private guide. In Caen, discover the Abbaye aux Dames and Caen Cathedral. Then, admire the UNESCO–listed Bayeux Tapestry in Bayeaux.</t>
+          <t>Summarized description:  Normandy battlefields and landing beaches of World War II. Your guide will take you to famous wartime sites and also to the American cemetery. You will gain insight into the sacrifices of Allied soldiers and French citizens they liberated.</t>
         </is>
       </c>
       <c r="B1273" t="inlineStr"/>
@@ -19597,7 +19597,7 @@
     <row r="1274">
       <c r="A1274" t="inlineStr">
         <is>
-          <t>Title: Private Tour: Rouen, Bayeux, and Falaise Day Trip from Paris</t>
+          <t>Title: From Paris Landing Beaches with Guide &amp; Hotel Pick Up</t>
         </is>
       </c>
       <c r="B1274" t="inlineStr"/>
@@ -19627,7 +19627,7 @@
     <row r="1276">
       <c r="A1276" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1276" t="inlineStr"/>
@@ -19642,7 +19642,7 @@
     <row r="1277">
       <c r="A1277" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 320547P719</t>
+          <t>PRODUCTCODE: 118583P5</t>
         </is>
       </c>
       <c r="B1277" t="inlineStr"/>
@@ -19657,7 +19657,7 @@
     <row r="1278">
       <c r="A1278" t="inlineStr">
         <is>
-          <t>Summarized description: Normandy is a charming region just north of Paris. It's both a rural and seaside area famous for producing excellent cheeses, apple cider, and seafood, such as sea-scallop and herring.</t>
+          <t>Summarized description: Guided Tour to Normandy D-Day Beaches from Paris, Lunch included. Immerse yourself in the Second World War liberation of Europe. Visit Arromanches or Juno Beach.</t>
         </is>
       </c>
       <c r="B1278" t="inlineStr"/>
@@ -19672,7 +19672,7 @@
     <row r="1279">
       <c r="A1279" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Paris to D-Day Beach Private Guided Tour with Airport Transfer </t>
+          <t>Title: Guided Tour to Normandy D-Day Beaches from Paris, Lunch included</t>
         </is>
       </c>
       <c r="B1279" t="inlineStr"/>
@@ -19702,7 +19702,7 @@
     <row r="1281">
       <c r="A1281" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Culinary Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1281" t="inlineStr"/>
@@ -19717,7 +19717,7 @@
     <row r="1282">
       <c r="A1282" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 9511P50</t>
+          <t>PRODUCTCODE: 115705P11</t>
         </is>
       </c>
       <c r="B1282" t="inlineStr"/>
@@ -19732,7 +19732,7 @@
     <row r="1283">
       <c r="A1283" t="inlineStr">
         <is>
-          <t>Summarized description: A guided tour with only 8 participants (max) especially designed to discover, in one day, landing beaches and sites of legend. Air conditioned and comfortable minivan for a reduced transfer time.</t>
+          <t>Summarized description: Discover the most important D-Day beaches, the landing of the allies on the beaches of Normandy will have no secrets. Live a strong and moving moment at the American cemetery and dive into the Liberation of the Second World War.</t>
         </is>
       </c>
       <c r="B1283" t="inlineStr"/>
@@ -19747,7 +19747,7 @@
     <row r="1284">
       <c r="A1284" t="inlineStr">
         <is>
-          <t>Title: Private tour Normandy D-Day Landing Beaches Guided from Paris</t>
+          <t>Title: Normandy Landing Beaches Guided Tour Departing From Paris</t>
         </is>
       </c>
       <c r="B1284" t="inlineStr"/>
@@ -19777,7 +19777,7 @@
     <row r="1286">
       <c r="A1286" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1286" t="inlineStr"/>
@@ -19792,7 +19792,7 @@
     <row r="1287">
       <c r="A1287" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15619P9</t>
+          <t>PRODUCTCODE: 24380P1465</t>
         </is>
       </c>
       <c r="B1287" t="inlineStr"/>
@@ -19807,7 +19807,7 @@
     <row r="1288">
       <c r="A1288" t="inlineStr">
         <is>
-          <t>Summarized description: Day trip to Pays d'Auge, Deauville, Honfleur with private driver and guide. Visit a local cheese producer and taste Camembert and Pont-L'Evèque.</t>
+          <t>Summarized description: The Normandy landings are considered the largest seaborne invasion in history. Explore the landing beaches, memorials, cemeteries and museums related to this event.</t>
         </is>
       </c>
       <c r="B1288" t="inlineStr"/>
@@ -19822,7 +19822,7 @@
     <row r="1289">
       <c r="A1289" t="inlineStr">
         <is>
-          <t>Title: Normandy food tour with private driver and guide</t>
+          <t>Title: D-Day Beaches and Normandy Private Day Trip</t>
         </is>
       </c>
       <c r="B1289" t="inlineStr"/>
@@ -19852,7 +19852,7 @@
     <row r="1291">
       <c r="A1291" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['Scenic Tours', 'Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1291" t="inlineStr"/>
@@ -19867,7 +19867,7 @@
     <row r="1292">
       <c r="A1292" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 118583P5</t>
+          <t>PRODUCTCODE: 332536P588</t>
         </is>
       </c>
       <c r="B1292" t="inlineStr"/>
@@ -19882,7 +19882,7 @@
     <row r="1293">
       <c r="A1293" t="inlineStr">
         <is>
-          <t>Summarized description: Guided Tour to Normandy D-Day Beaches from Paris, Lunch included. Immerse yourself in the Second World War liberation of Europe. Visit Arromanches or Juno Beach.</t>
+          <t>Summarized description: Explore the historic sites and memorials of the D-Day landings. Discover the details of the successful Allied invasions on Nazi German-occupied Western Europe during World War II.</t>
         </is>
       </c>
       <c r="B1293" t="inlineStr"/>
@@ -19897,7 +19897,7 @@
     <row r="1294">
       <c r="A1294" t="inlineStr">
         <is>
-          <t>Title: Guided Tour to Normandy D-Day Beaches from Paris, Lunch included</t>
+          <t xml:space="preserve">Title: D-Day Normandy Beaches Guided Trip by Car from Paris </t>
         </is>
       </c>
       <c r="B1294" t="inlineStr"/>
@@ -19927,7 +19927,7 @@
     <row r="1296">
       <c r="A1296" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1296" t="inlineStr"/>
@@ -19942,7 +19942,7 @@
     <row r="1297">
       <c r="A1297" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 115705P11</t>
+          <t>PRODUCTCODE: 118524P22</t>
         </is>
       </c>
       <c r="B1297" t="inlineStr"/>
@@ -19957,7 +19957,7 @@
     <row r="1298">
       <c r="A1298" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the most important D-Day beaches, the landing of the allies on the beaches of Normandy will have no secrets. Live a strong and moving moment at the American cemetery and dive into the Liberation of the Second World War.</t>
+          <t>Summarized description: Small group tour on the DDay beaches from the center of Paris with a knowledgeable bilingual guide. You will see along the way war machines like Sherman tank, cannons, and you will visit a genuine Bunker from WWII.</t>
         </is>
       </c>
       <c r="B1298" t="inlineStr"/>
@@ -19972,7 +19972,7 @@
     <row r="1299">
       <c r="A1299" t="inlineStr">
         <is>
-          <t>Title: Normandy Landing Beaches Guided Tour Departing From Paris</t>
+          <t>Title: DDay Beaches small group tour in Normandy from Paris</t>
         </is>
       </c>
       <c r="B1299" t="inlineStr"/>
@@ -20017,7 +20017,7 @@
     <row r="1302">
       <c r="A1302" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 35428P3</t>
+          <t>PRODUCTCODE: 336757P1</t>
         </is>
       </c>
       <c r="B1302" t="inlineStr"/>
@@ -20032,7 +20032,7 @@
     <row r="1303">
       <c r="A1303" t="inlineStr">
         <is>
-          <t>Summarized description: Group tour from Paris will let you discover the best of Normandy during a whole day. Enjoy delicious local cheeses (Camembert, Livarot, Coulommiers, Pont-L’Eveque) during a visit at a cheese factory, as well as apple cider &amp; Calvados during your lunch at a traditionnal distillery.</t>
+          <t>Summarized description: D-Day landing beaches of World War II, Pointe Du Hoc, Omaha Beach, American Cemetery, the Visitor Center and learn stories. Booking this spectacular tour from Paris will give you the chance to explore Normandy coast.</t>
         </is>
       </c>
       <c r="B1303" t="inlineStr"/>
@@ -20047,7 +20047,7 @@
     <row r="1304">
       <c r="A1304" t="inlineStr">
         <is>
-          <t>Title: Normandy Small Group Food Tour from Paris</t>
+          <t>Title: Normandy D Day World War II Tour from Paris</t>
         </is>
       </c>
       <c r="B1304" t="inlineStr"/>
@@ -20077,7 +20077,7 @@
     <row r="1306">
       <c r="A1306" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1306" t="inlineStr"/>
@@ -20092,7 +20092,7 @@
     <row r="1307">
       <c r="A1307" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 118524P22</t>
+          <t>PRODUCTCODE: 8474P47</t>
         </is>
       </c>
       <c r="B1307" t="inlineStr"/>
@@ -20107,7 +20107,7 @@
     <row r="1308">
       <c r="A1308" t="inlineStr">
         <is>
-          <t>Summarized description: Small group tour on the DDay beaches from the center of Paris with a knowledgeable bilingual guide. You will see along the way war machines like Sherman tank, cannons, and you will visit a genuine Bunker from WWII.</t>
+          <t>Summarized description: Live a memorable and moving experience with your guide driver, passionate about WWII. Your guide will take you to the D-Day key sites. You will learn a lot about Normandy region, people, landscapes and patrimony.</t>
         </is>
       </c>
       <c r="B1308" t="inlineStr"/>
@@ -20122,7 +20122,7 @@
     <row r="1309">
       <c r="A1309" t="inlineStr">
         <is>
-          <t>Title: DDay Beaches small group tour in Normandy from Paris</t>
+          <t>Title: Private Tour to Normandy D Day Beaches and American Cemetery</t>
         </is>
       </c>
       <c r="B1309" t="inlineStr"/>
@@ -20152,7 +20152,7 @@
     <row r="1311">
       <c r="A1311" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1311" t="inlineStr"/>
@@ -20167,7 +20167,7 @@
     <row r="1312">
       <c r="A1312" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 336757P1</t>
+          <t>PRODUCTCODE: 268293P134</t>
         </is>
       </c>
       <c r="B1312" t="inlineStr"/>
@@ -20182,7 +20182,7 @@
     <row r="1313">
       <c r="A1313" t="inlineStr">
         <is>
-          <t>Summarized description: D-Day landing beaches of World War II, Pointe Du Hoc, Omaha Beach, American Cemetery, the Visitor Center and learn stories. Booking this spectacular tour from Paris will give you the chance to explore Normandy coast.</t>
+          <t>Summarized description:  Normandy American Cemetery in Colleville-sur-Mer with very nice Museum, Omaha Beaches with Signal Monument. Stop at Church Saint-Come-et-Saint-Damien in Angoville-au-Plain, Stop at Sainte-Mère-Église town. Utah Beach Landing Museum with a big collection of historical artifacts, military vehicles and the original B26 bomber. Airborne Museum visit including unique D-Day Night Jumps embarkation of a C-47 aircraft.</t>
         </is>
       </c>
       <c r="B1313" t="inlineStr"/>
@@ -20197,7 +20197,7 @@
     <row r="1314">
       <c r="A1314" t="inlineStr">
         <is>
-          <t>Title: Normandy D Day World War II Tour from Paris</t>
+          <t>Title: Private D-Day Omaha Utah Beach Guided Trip from Paris by Mercedes</t>
         </is>
       </c>
       <c r="B1314" t="inlineStr"/>
@@ -20227,7 +20227,7 @@
     <row r="1316">
       <c r="A1316" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1316" t="inlineStr"/>
@@ -20242,7 +20242,7 @@
     <row r="1317">
       <c r="A1317" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 118583P16</t>
+          <t>PRODUCTCODE: 88115P307</t>
         </is>
       </c>
       <c r="B1317" t="inlineStr"/>
@@ -20257,7 +20257,7 @@
     <row r="1318">
       <c r="A1318" t="inlineStr">
         <is>
-          <t>Summarized description: Guided Tour to Normandy D-Day Beaches from Paris, Lunch included. Immerse yourself in the Second World War liberation of Europe. Follow in the footsteps of those who experienced the war.</t>
+          <t>Summarized description: The trip includes a delicious lunch, and comfortable, air conditioned roundtrip transfers by bus. Enjoy a full day excursion from Paris to the D-Day Beaches in Normandy.</t>
         </is>
       </c>
       <c r="B1318" t="inlineStr"/>
@@ -20272,7 +20272,7 @@
     <row r="1319">
       <c r="A1319" t="inlineStr">
         <is>
-          <t>Title: Guided Tour to Normandy D-Day Beaches from Paris, Lunch included</t>
+          <t>Title: Guided Tour of the D-Day Beaches</t>
         </is>
       </c>
       <c r="B1319" t="inlineStr"/>
@@ -20302,7 +20302,7 @@
     <row r="1321">
       <c r="A1321" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Dining Experiences', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1321" t="inlineStr"/>
@@ -20317,7 +20317,7 @@
     <row r="1322">
       <c r="A1322" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 117374P12</t>
+          <t>PRODUCTCODE: 118583P16</t>
         </is>
       </c>
       <c r="B1322" t="inlineStr"/>
@@ -20332,7 +20332,7 @@
     <row r="1323">
       <c r="A1323" t="inlineStr">
         <is>
-          <t>Summarized description: Learn all about the Allied landings on the beaches of Normandy. With an expert professional guide, follow in the footsteps of those who lived through the war.Enjoy a full-day tour from Paris to the D-Day beaches.</t>
+          <t>Summarized description: Guided Tour to Normandy D-Day Beaches from Paris, Lunch included. Immerse yourself in the Second World War liberation of Europe. Follow in the footsteps of those who experienced the war.</t>
         </is>
       </c>
       <c r="B1323" t="inlineStr"/>
@@ -20347,7 +20347,7 @@
     <row r="1324">
       <c r="A1324" t="inlineStr">
         <is>
-          <t>Title: Guided Tour of Normandy D-Day Beaches from Paris, with transport</t>
+          <t>Title: Guided Tour to Normandy D-Day Beaches from Paris, Lunch included</t>
         </is>
       </c>
       <c r="B1324" t="inlineStr"/>
@@ -20392,7 +20392,7 @@
     <row r="1327">
       <c r="A1327" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7245P56</t>
+          <t>PRODUCTCODE: 117374P12</t>
         </is>
       </c>
       <c r="B1327" t="inlineStr"/>
@@ -20407,7 +20407,7 @@
     <row r="1328">
       <c r="A1328" t="inlineStr">
         <is>
-          <t>Summarized description: Discover Normandy through the eyes of a professional touristic local guide. Enjoy a pickup from your Paris hotel and let our chauffeur drive you to Bayeux. The D-day tour will get started.</t>
+          <t>Summarized description: Learn all about the Allied landings on the beaches of Normandy. With an expert professional guide, follow in the footsteps of those who lived through the war.Enjoy a full-day tour from Paris to the D-Day beaches.</t>
         </is>
       </c>
       <c r="B1328" t="inlineStr"/>
@@ -20422,7 +20422,7 @@
     <row r="1329">
       <c r="A1329" t="inlineStr">
         <is>
-          <t>Title: Normandy D-Day beaches Day trip with hotel pickup</t>
+          <t>Title: Guided Tour of Normandy D-Day Beaches from Paris, with transport</t>
         </is>
       </c>
       <c r="B1329" t="inlineStr"/>
@@ -20467,7 +20467,7 @@
     <row r="1332">
       <c r="A1332" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 175581P41</t>
+          <t>PRODUCTCODE: 7245P56</t>
         </is>
       </c>
       <c r="B1332" t="inlineStr"/>
@@ -20482,7 +20482,7 @@
     <row r="1333">
       <c r="A1333" t="inlineStr">
         <is>
-          <t>Summarized description: Travel from Paris to the beaches of Normandy in order to honor the sacrifices made there on June 6th, 1944. The Utah Beach Museum, housed in an original German bunker, will be your first stop. After a tasting of the local cider our next stop is an authentic Norman-style lunch.</t>
+          <t>Summarized description: Discover Normandy through the eyes of a professional touristic local guide. Enjoy a pickup from your Paris hotel and let our chauffeur drive you to Bayeux. The D-day tour will get started.</t>
         </is>
       </c>
       <c r="B1333" t="inlineStr"/>
@@ -20497,7 +20497,7 @@
     <row r="1334">
       <c r="A1334" t="inlineStr">
         <is>
-          <t>Title: Normandy Day Trip from Paris with D-Day Beaches &amp; Authentic Lunch</t>
+          <t>Title: Normandy D-Day beaches Day trip with hotel pickup</t>
         </is>
       </c>
       <c r="B1334" t="inlineStr"/>
@@ -20527,7 +20527,7 @@
     <row r="1336">
       <c r="A1336" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1336" t="inlineStr"/>
@@ -20542,7 +20542,7 @@
     <row r="1337">
       <c r="A1337" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 67584P4</t>
+          <t>PRODUCTCODE: 175581P41</t>
         </is>
       </c>
       <c r="B1337" t="inlineStr"/>
@@ -20557,7 +20557,7 @@
     <row r="1338">
       <c r="A1338" t="inlineStr">
         <is>
-          <t>Summarized description: D-Day marked an important turning point in World War II. Normandy is home to multiple sites where battles raged on D-Day. See Omaha Beach, Pont du Hoc, the American Cemetary and more.</t>
+          <t>Summarized description: Travel from Paris to the beaches of Normandy in order to honor the sacrifices made there on June 6th, 1944. The Utah Beach Museum, housed in an original German bunker, will be your first stop. After a tasting of the local cider our next stop is an authentic Norman-style lunch.</t>
         </is>
       </c>
       <c r="B1338" t="inlineStr"/>
@@ -20572,7 +20572,7 @@
     <row r="1339">
       <c r="A1339" t="inlineStr">
         <is>
-          <t>Title: Day Trip to Normandy Beaches and WWII Memorials from Paris</t>
+          <t>Title: Normandy Day Trip from Paris with D-Day Beaches &amp; Authentic Lunch</t>
         </is>
       </c>
       <c r="B1339" t="inlineStr"/>
@@ -20602,7 +20602,7 @@
     <row r="1341">
       <c r="A1341" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1341" t="inlineStr"/>
@@ -20617,7 +20617,7 @@
     <row r="1342">
       <c r="A1342" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 140538P1</t>
+          <t>PRODUCTCODE: 67584P4</t>
         </is>
       </c>
       <c r="B1342" t="inlineStr"/>
@@ -20632,7 +20632,7 @@
     <row r="1343">
       <c r="A1343" t="inlineStr">
         <is>
-          <t>Summarized description: Stand on Normandy Beach and visit historical sites of World War II during this full-day, guided tour from Paris. Visit important sites like Omaha Beach, Saint Laurent-sur-Mer, the Normandy American Cemetery, and Memorial.</t>
+          <t>Summarized description: D-Day marked an important turning point in World War II. Normandy is home to multiple sites where battles raged on D-Day. See Omaha Beach, Pont du Hoc, the American Cemetary and more.</t>
         </is>
       </c>
       <c r="B1343" t="inlineStr"/>
@@ -20647,7 +20647,7 @@
     <row r="1344">
       <c r="A1344" t="inlineStr">
         <is>
-          <t>Title: Normandy D Day US Beaches &amp; Honfleur City - Daytrip from Paris</t>
+          <t>Title: Day Trip to Normandy Beaches and WWII Memorials from Paris</t>
         </is>
       </c>
       <c r="B1344" t="inlineStr"/>
@@ -20767,7 +20767,7 @@
     <row r="1352">
       <c r="A1352" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 243313P43</t>
+          <t>PRODUCTCODE: 140538P22</t>
         </is>
       </c>
       <c r="B1352" t="inlineStr"/>
@@ -20782,7 +20782,7 @@
     <row r="1353">
       <c r="A1353" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy a full-day trip from Paris to the D-Day Shorelines in Normandy with expert guide who will bring these noteworthy destinations to life.</t>
+          <t>Summarized description: Day trip from Paris covers Normandy’s top WWII-related sites. Visit the landing beaches of Ponte du Hoc and Omaha, pay your respects at the American Cemetery. Get a first-hand look at military gear and vehicles at the Overlord Museum.</t>
         </is>
       </c>
       <c r="B1353" t="inlineStr"/>
@@ -20797,7 +20797,7 @@
     <row r="1354">
       <c r="A1354" t="inlineStr">
         <is>
-          <t>Title: D-Day Beaches and Battlefields Tours in Normandy : Private Guided Tour</t>
+          <t>Title: Normandy Omaha Beach, Pointe Du Hoc, American Cemetery Daytrip from Paris</t>
         </is>
       </c>
       <c r="B1354" t="inlineStr"/>
@@ -20827,7 +20827,7 @@
     <row r="1356">
       <c r="A1356" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1356" t="inlineStr"/>
@@ -20842,7 +20842,7 @@
     <row r="1357">
       <c r="A1357" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2714LILNOR</t>
+          <t>PRODUCTCODE: 142334P1</t>
         </is>
       </c>
       <c r="B1357" t="inlineStr"/>
@@ -20857,7 +20857,7 @@
     <row r="1358">
       <c r="A1358" t="inlineStr">
         <is>
-          <t>Summarized description: D-Day Landing Beaches and other World War II sites on this 4-day, small-group tour from Paris. A 3-night stay in Bricquebec, Normandy, is included, as are daily breakfasts and dinners.</t>
+          <t>Summarized description: Visit to Normandy D-Day battle sites and U.S landing beaches from Paris. Walk along the Bloody Beach (Omaha) and visit the American War Cemetery.</t>
         </is>
       </c>
       <c r="B1358" t="inlineStr"/>
@@ -20872,7 +20872,7 @@
     <row r="1359">
       <c r="A1359" t="inlineStr">
         <is>
-          <t>Title: 4-Day Normandy D-Day Landing Beaches Small-Group Tour from Paris</t>
+          <t>Title: Pointe du Hoc,Omaha Beach, American Cemetery - Day trip from Paris to Normandy</t>
         </is>
       </c>
       <c r="B1359" t="inlineStr"/>
@@ -20917,7 +20917,7 @@
     <row r="1362">
       <c r="A1362" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 140538P22</t>
+          <t>PRODUCTCODE: 6839P95</t>
         </is>
       </c>
       <c r="B1362" t="inlineStr"/>
@@ -20932,7 +20932,7 @@
     <row r="1363">
       <c r="A1363" t="inlineStr">
         <is>
-          <t>Summarized description: Day trip from Paris covers Normandy’s top WWII-related sites. Visit the landing beaches of Ponte du Hoc and Omaha, pay your respects at the American Cemetery. Get a first-hand look at military gear and vehicles at the Overlord Museum.</t>
+          <t>Summarized description: During your stay in Paris, relive the Allied landings of 6 June 1944 by visiting the beaches in Normandy. You will be aboard an air-conditioned car or bus, accompanied by a guide who is an expert in WW2.</t>
         </is>
       </c>
       <c r="B1363" t="inlineStr"/>
@@ -20947,7 +20947,7 @@
     <row r="1364">
       <c r="A1364" t="inlineStr">
         <is>
-          <t>Title: Normandy Omaha Beach, Pointe Du Hoc, American Cemetery Daytrip from Paris</t>
+          <t>Title: Normandy Beaches Experience by coach from Paris</t>
         </is>
       </c>
       <c r="B1364" t="inlineStr"/>
@@ -20977,7 +20977,7 @@
     <row r="1366">
       <c r="A1366" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1366" t="inlineStr"/>
@@ -20992,7 +20992,7 @@
     <row r="1367">
       <c r="A1367" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 142334P1</t>
+          <t>PRODUCTCODE: 105237P2</t>
         </is>
       </c>
       <c r="B1367" t="inlineStr"/>
@@ -21007,7 +21007,7 @@
     <row r="1368">
       <c r="A1368" t="inlineStr">
         <is>
-          <t>Summarized description: Visit to Normandy D-Day battle sites and U.S landing beaches from Paris. Walk along the Bloody Beach (Omaha) and visit the American War Cemetery.</t>
+          <t>Summarized description: Immerse yourself in the Second World War liberation of Europe. Find out all about the Allied landings on the beaches of Normandy. Follow in the footsteps of those who experienced the war.</t>
         </is>
       </c>
       <c r="B1368" t="inlineStr"/>
@@ -21022,7 +21022,7 @@
     <row r="1369">
       <c r="A1369" t="inlineStr">
         <is>
-          <t>Title: Pointe du Hoc,Omaha Beach, American Cemetery - Day trip from Paris to Normandy</t>
+          <t>Title: Guided Tour to Normandy D Day Beaches from Paris</t>
         </is>
       </c>
       <c r="B1369" t="inlineStr"/>
@@ -21067,7 +21067,7 @@
     <row r="1372">
       <c r="A1372" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 110148P26</t>
+          <t>PRODUCTCODE: 105237P1</t>
         </is>
       </c>
       <c r="B1372" t="inlineStr"/>
@@ -21082,7 +21082,7 @@
     <row r="1373">
       <c r="A1373" t="inlineStr">
         <is>
-          <t>Summarized description:  Normandy is home to some of the most historical, memorial and heritage places. Take your train to the city of Bayeux and admire the 70 meters long middle age Tapestry, Listed “World Heritage” by UNESCO.</t>
+          <t>Summarized description: Immerse yourself in the Second World War liberation of Europe. Find out all about the Allied landings on the beaches of Normandy. Follow in the footsteps of those who experienced the war.</t>
         </is>
       </c>
       <c r="B1373" t="inlineStr"/>
@@ -21097,7 +21097,7 @@
     <row r="1374">
       <c r="A1374" t="inlineStr">
         <is>
-          <t>Title: D-Day Landing Beaches, Mont St. Michel &amp; St. Malo, 2-Day Private Tour from Paris</t>
+          <t>Title: Guided Tour to Normandy D Day Beaches from Paris</t>
         </is>
       </c>
       <c r="B1374" t="inlineStr"/>
@@ -21127,7 +21127,7 @@
     <row r="1376">
       <c r="A1376" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1376" t="inlineStr"/>
@@ -21142,7 +21142,7 @@
     <row r="1377">
       <c r="A1377" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6839P95</t>
+          <t>PRODUCTCODE: 253419P3</t>
         </is>
       </c>
       <c r="B1377" t="inlineStr"/>
@@ -21157,7 +21157,7 @@
     <row r="1378">
       <c r="A1378" t="inlineStr">
         <is>
-          <t>Summarized description: During your stay in Paris, relive the Allied landings of 6 June 1944 by visiting the beaches in Normandy. You will be aboard an air-conditioned car or bus, accompanied by a guide who is an expert in WW2.</t>
+          <t>Summarized description: Unique tour of the DDAY sites in Normandy, from Paris. Normandy born licensed tour guide, specialized in Norman history. Carefully chosenDDAY sites for a comprehensive overview of Operation Overlord.</t>
         </is>
       </c>
       <c r="B1378" t="inlineStr"/>
@@ -21172,7 +21172,7 @@
     <row r="1379">
       <c r="A1379" t="inlineStr">
         <is>
-          <t>Title: Normandy Beaches Experience by coach from Paris</t>
+          <t>Title: Private Normandy Tour DDAY Beaches from Paris</t>
         </is>
       </c>
       <c r="B1379" t="inlineStr"/>
@@ -21202,7 +21202,7 @@
     <row r="1381">
       <c r="A1381" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1381" t="inlineStr"/>
@@ -21217,7 +21217,7 @@
     <row r="1382">
       <c r="A1382" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 105237P2</t>
+          <t>PRODUCTCODE: 108258P5</t>
         </is>
       </c>
       <c r="B1382" t="inlineStr"/>
@@ -21232,7 +21232,7 @@
     <row r="1383">
       <c r="A1383" t="inlineStr">
         <is>
-          <t>Summarized description: Immerse yourself in the Second World War liberation of Europe. Find out all about the Allied landings on the beaches of Normandy. Follow in the footsteps of those who experienced the war.</t>
+          <t>Summarized description: The driver will pick you from your place to bring you to the Landing beaches and the returning to your place is included. Hot Spots : American Cemetery, Memorial Museum of Omaha Beach, Overlord Musem, beaches, etc...</t>
         </is>
       </c>
       <c r="B1383" t="inlineStr"/>
@@ -21247,7 +21247,7 @@
     <row r="1384">
       <c r="A1384" t="inlineStr">
         <is>
-          <t>Title: Guided Tour to Normandy D Day Beaches from Paris</t>
+          <t>Title: Normandy Landing Beaches - Private Trip</t>
         </is>
       </c>
       <c r="B1384" t="inlineStr"/>
@@ -21277,7 +21277,7 @@
     <row r="1386">
       <c r="A1386" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1386" t="inlineStr"/>
@@ -21292,7 +21292,7 @@
     <row r="1387">
       <c r="A1387" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 105237P1</t>
+          <t>PRODUCTCODE: 248877P32</t>
         </is>
       </c>
       <c r="B1387" t="inlineStr"/>
@@ -21307,7 +21307,7 @@
     <row r="1388">
       <c r="A1388" t="inlineStr">
         <is>
-          <t>Summarized description: Immerse yourself in the Second World War liberation of Europe. Find out all about the Allied landings on the beaches of Normandy. Follow in the footsteps of those who experienced the war.</t>
+          <t>Summarized description: The Normandy landings were the landing operations on Tuesday, 6 June 1944 of the Allied invasion of Normandy in Operation Overlord during World War II. Enjoy a guided tour of the Caen Memorial Museum, visit the American Cemetery in Saint Laurent, and see other important sites.</t>
         </is>
       </c>
       <c r="B1388" t="inlineStr"/>
@@ -21322,7 +21322,7 @@
     <row r="1389">
       <c r="A1389" t="inlineStr">
         <is>
-          <t>Title: Guided Tour to Normandy D Day Beaches from Paris</t>
+          <t>Title: From Paris : Exclusive Normandy D-Day Beaches Day Trip (with Live Guide)</t>
         </is>
       </c>
       <c r="B1389" t="inlineStr"/>
@@ -21352,7 +21352,7 @@
     <row r="1391">
       <c r="A1391" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1391" t="inlineStr"/>
@@ -21367,7 +21367,7 @@
     <row r="1392">
       <c r="A1392" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 108258P5</t>
+          <t>PRODUCTCODE: 142334P12</t>
         </is>
       </c>
       <c r="B1392" t="inlineStr"/>
@@ -21382,7 +21382,7 @@
     <row r="1393">
       <c r="A1393" t="inlineStr">
         <is>
-          <t>Summarized description: The driver will pick you from your place to bring you to the Landing beaches and the returning to your place is included. Hot Spots : American Cemetery, Memorial Museum of Omaha Beach, Overlord Musem, beaches, etc...</t>
+          <t>Summarized description: Omaha Beach is a popular tourist destination in the United States. Travel with your own group of passengers (7 travellers) aboard a Private Air conditioned Minivan.</t>
         </is>
       </c>
       <c r="B1393" t="inlineStr"/>
@@ -21397,7 +21397,7 @@
     <row r="1394">
       <c r="A1394" t="inlineStr">
         <is>
-          <t>Title: Normandy Landing Beaches - Private Trip</t>
+          <t xml:space="preserve">Title: Day trip from Paris to Omaha Beach, American Cemetery - Private Tour (7 pax) </t>
         </is>
       </c>
       <c r="B1394" t="inlineStr"/>
@@ -21427,7 +21427,7 @@
     <row r="1396">
       <c r="A1396" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Transportation &amp; Travel Services', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1396" t="inlineStr"/>
@@ -21442,7 +21442,7 @@
     <row r="1397">
       <c r="A1397" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 142334P26</t>
+          <t>PRODUCTCODE: 22311P6</t>
         </is>
       </c>
       <c r="B1397" t="inlineStr"/>
@@ -21457,7 +21457,7 @@
     <row r="1398">
       <c r="A1398" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about the events of June 6, 1944. Visit to Normandy D-Day battle sites and paratroopers drop zones from Paris. Pay tribute to the fallen americans soldiers while visiting the Normandy American Military Cemetery which overlooks Omaha Beach.</t>
+          <t>Summarized description: Dive into the heartrending history of WWII with a private guide. About 2h30 after your pick-up, you will be at the American cemetery of Normandy. Facing the graves of thousands of soldiers.</t>
         </is>
       </c>
       <c r="B1398" t="inlineStr"/>
@@ -21472,7 +21472,7 @@
     <row r="1399">
       <c r="A1399" t="inlineStr">
         <is>
-          <t>Title: Day trip from Paris to Sainte Mère Eglise aboard a Van - Private Tour (7 pax)</t>
+          <t xml:space="preserve">Title: Normandy D day beaches day tour from Paris hotel- Private tour </t>
         </is>
       </c>
       <c r="B1399" t="inlineStr"/>
@@ -21502,7 +21502,7 @@
     <row r="1401">
       <c r="A1401" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Transportation &amp; Travel Services', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1401" t="inlineStr"/>
@@ -21517,7 +21517,7 @@
     <row r="1402">
       <c r="A1402" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 248877P32</t>
+          <t>PRODUCTCODE: 218758P5</t>
         </is>
       </c>
       <c r="B1402" t="inlineStr"/>
@@ -21532,7 +21532,7 @@
     <row r="1403">
       <c r="A1403" t="inlineStr">
         <is>
-          <t>Summarized description: The Normandy landings were the landing operations on Tuesday, 6 June 1944 of the Allied invasion of Normandy in Operation Overlord during World War II. Enjoy a guided tour of the Caen Memorial Museum, visit the American Cemetery in Saint Laurent, and see other important sites.</t>
+          <t>Summarized description: The Normandy region is famous for producing cider, calvados liquor, Camembert cheese and medieval cities. A full day dedicated to memory of the heroes of the last world war.</t>
         </is>
       </c>
       <c r="B1403" t="inlineStr"/>
@@ -21547,7 +21547,7 @@
     <row r="1404">
       <c r="A1404" t="inlineStr">
         <is>
-          <t>Title: From Paris : Exclusive Normandy D-Day Beaches Day Trip (with Live Guide)</t>
+          <t>Title: Normandy / D-Day Landing Beaches with Minivan</t>
         </is>
       </c>
       <c r="B1404" t="inlineStr"/>
@@ -21577,7 +21577,7 @@
     <row r="1406">
       <c r="A1406" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B1406" t="inlineStr"/>
@@ -21592,7 +21592,7 @@
     <row r="1407">
       <c r="A1407" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 142334P12</t>
+          <t>PRODUCTCODE: 268293P132</t>
         </is>
       </c>
       <c r="B1407" t="inlineStr"/>
@@ -21607,7 +21607,7 @@
     <row r="1408">
       <c r="A1408" t="inlineStr">
         <is>
-          <t>Summarized description: Omaha Beach is a popular tourist destination in the United States. Travel with your own group of passengers (7 travellers) aboard a Private Air conditioned Minivan.</t>
+          <t>Summarized description: Mercedes E220 business-class car for 2-3 people or Mercedes minivan for 3-7 people. Tiered pricing. Hotel Pick up and Drop off included. Live-guided from 4 people. Best anti-war Caen Memorial and Museum. 360 Circular Cinema with very impressive documentary. Arromanches-les-Bains Viewpoint over artificial D-Day harbour. Omaha Beaches with Signal Monument. Normandy American Cemetery in Colleville-sur-Mer. Pointe du Hoc Rangers Monument with fortifications. Overlord Museum with big collections of WW2 artifacts.</t>
         </is>
       </c>
       <c r="B1408" t="inlineStr"/>
@@ -21622,7 +21622,7 @@
     <row r="1409">
       <c r="A1409" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Day trip from Paris to Omaha Beach, American Cemetery - Private Tour (7 pax) </t>
+          <t>Title: Private Normandy D-Day Omaha Beaches Top 6 Sights trip from Paris</t>
         </is>
       </c>
       <c r="B1409" t="inlineStr"/>
@@ -21652,7 +21652,7 @@
     <row r="1411">
       <c r="A1411" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Transportation &amp; Travel Services', 'Historical Tours']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1411" t="inlineStr"/>
@@ -21667,7 +21667,7 @@
     <row r="1412">
       <c r="A1412" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 22311P6</t>
+          <t>PRODUCTCODE: 2050P342</t>
         </is>
       </c>
       <c r="B1412" t="inlineStr"/>
@@ -21682,7 +21682,7 @@
     <row r="1413">
       <c r="A1413" t="inlineStr">
         <is>
-          <t>Summarized description: Dive into the heartrending history of WWII with a private guide. About 2h30 after your pick-up, you will be at the American cemetery of Normandy. Facing the graves of thousands of soldiers.</t>
+          <t>Summarized description: The Omaha Beach and its visitor center to learn stories and historical facts about the events in Normandy. A walk through the American Cemetery dedicated to honor the fallen heroes of the U.S.</t>
         </is>
       </c>
       <c r="B1413" t="inlineStr"/>
@@ -21697,7 +21697,7 @@
     <row r="1414">
       <c r="A1414" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Normandy D day beaches day tour from Paris hotel- Private tour </t>
+          <t>Title: Intimate Guided Normandy Tour from Paris with Hotel Transfers - GROUP OPTION</t>
         </is>
       </c>
       <c r="B1414" t="inlineStr"/>
@@ -21742,7 +21742,7 @@
     <row r="1417">
       <c r="A1417" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 218758P5</t>
+          <t>PRODUCTCODE: 13437P56</t>
         </is>
       </c>
       <c r="B1417" t="inlineStr"/>
@@ -21757,7 +21757,7 @@
     <row r="1418">
       <c r="A1418" t="inlineStr">
         <is>
-          <t>Summarized description: The Normandy region is famous for producing cider, calvados liquor, Camembert cheese and medieval cities. A full day dedicated to memory of the heroes of the last world war.</t>
+          <t>Summarized description: Discover the beaches of Normandy in France. Discover the history of the landings. Discover some of the most famous sites. Discover how to get to the beaches.</t>
         </is>
       </c>
       <c r="B1418" t="inlineStr"/>
@@ -21772,7 +21772,7 @@
     <row r="1419">
       <c r="A1419" t="inlineStr">
         <is>
-          <t>Title: Normandy / D-Day Landing Beaches with Minivan</t>
+          <t>Title: Customized Private D Day Normandy Landing Tour from Paris - Group Option</t>
         </is>
       </c>
       <c r="B1419" t="inlineStr"/>
@@ -21802,7 +21802,7 @@
     <row r="1421">
       <c r="A1421" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1421" t="inlineStr"/>
@@ -21817,7 +21817,7 @@
     <row r="1422">
       <c r="A1422" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 320547P494</t>
+          <t>PRODUCTCODE: 15619P8</t>
         </is>
       </c>
       <c r="B1422" t="inlineStr"/>
@@ -21832,7 +21832,7 @@
     <row r="1423">
       <c r="A1423" t="inlineStr">
         <is>
-          <t>Summarized description: The Mont-Saint-Michel and its Bay count among France’s most stunning sights. Omaha Beach is a landing area in Normandy, northern France, used by Allied forces in WWII D-Day invasion.</t>
+          <t>Summarized description: Discover the French region of Normandy on a day trip from Paris with services of private driver AND guide. Immerse yourself in one of the major historical events of our time.</t>
         </is>
       </c>
       <c r="B1423" t="inlineStr"/>
@@ -21847,7 +21847,7 @@
     <row r="1424">
       <c r="A1424" t="inlineStr">
         <is>
-          <t>Title: Mont Saint Michel D Day Omaha Beach Private VIP Tour with Champagne from Paris</t>
+          <t>Title: D-Day landing beaches from Paris with private driver and guide</t>
         </is>
       </c>
       <c r="B1424" t="inlineStr"/>
@@ -21892,7 +21892,7 @@
     <row r="1427">
       <c r="A1427" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 268293P132</t>
+          <t>*****</t>
         </is>
       </c>
       <c r="B1427" t="inlineStr"/>
@@ -21904,306 +21904,6 @@
       <c r="H1427" t="inlineStr"/>
       <c r="I1427" t="inlineStr"/>
     </row>
-    <row r="1428">
-      <c r="A1428" t="inlineStr">
-        <is>
-          <t>Summarized description: Mercedes E220 business-class car for 2-3 people or Mercedes minivan for 3-7 people. Tiered pricing. Hotel Pick up and Drop off included. Live-guided from 4 people. Best anti-war Caen Memorial and Museum. 360 Circular Cinema with very impressive documentary. Arromanches-les-Bains Viewpoint over artificial D-Day harbour. Omaha Beaches with Signal Monument. Normandy American Cemetery in Colleville-sur-Mer. Pointe du Hoc Rangers Monument with fortifications. Overlord Museum with big collections of WW2 artifacts.</t>
-        </is>
-      </c>
-      <c r="B1428" t="inlineStr"/>
-      <c r="C1428" t="inlineStr"/>
-      <c r="D1428" t="inlineStr"/>
-      <c r="E1428" t="inlineStr"/>
-      <c r="F1428" t="inlineStr"/>
-      <c r="G1428" t="inlineStr"/>
-      <c r="H1428" t="inlineStr"/>
-      <c r="I1428" t="inlineStr"/>
-    </row>
-    <row r="1429">
-      <c r="A1429" t="inlineStr">
-        <is>
-          <t>Title: Private Normandy D-Day Omaha Beaches Top 6 Sights trip from Paris</t>
-        </is>
-      </c>
-      <c r="B1429" t="inlineStr"/>
-      <c r="C1429" t="inlineStr"/>
-      <c r="D1429" t="inlineStr"/>
-      <c r="E1429" t="inlineStr"/>
-      <c r="F1429" t="inlineStr"/>
-      <c r="G1429" t="inlineStr"/>
-      <c r="H1429" t="inlineStr"/>
-      <c r="I1429" t="inlineStr"/>
-    </row>
-    <row r="1430">
-      <c r="A1430" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1430" t="inlineStr"/>
-      <c r="C1430" t="inlineStr"/>
-      <c r="D1430" t="inlineStr"/>
-      <c r="E1430" t="inlineStr"/>
-      <c r="F1430" t="inlineStr"/>
-      <c r="G1430" t="inlineStr"/>
-      <c r="H1430" t="inlineStr"/>
-      <c r="I1430" t="inlineStr"/>
-    </row>
-    <row r="1431">
-      <c r="A1431" t="inlineStr">
-        <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1431" t="inlineStr"/>
-      <c r="C1431" t="inlineStr"/>
-      <c r="D1431" t="inlineStr"/>
-      <c r="E1431" t="inlineStr"/>
-      <c r="F1431" t="inlineStr"/>
-      <c r="G1431" t="inlineStr"/>
-      <c r="H1431" t="inlineStr"/>
-      <c r="I1431" t="inlineStr"/>
-    </row>
-    <row r="1432">
-      <c r="A1432" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 2050P342</t>
-        </is>
-      </c>
-      <c r="B1432" t="inlineStr"/>
-      <c r="C1432" t="inlineStr"/>
-      <c r="D1432" t="inlineStr"/>
-      <c r="E1432" t="inlineStr"/>
-      <c r="F1432" t="inlineStr"/>
-      <c r="G1432" t="inlineStr"/>
-      <c r="H1432" t="inlineStr"/>
-      <c r="I1432" t="inlineStr"/>
-    </row>
-    <row r="1433">
-      <c r="A1433" t="inlineStr">
-        <is>
-          <t>Summarized description: The Omaha Beach and its visitor center to learn stories and historical facts about the events in Normandy. A walk through the American Cemetery dedicated to honor the fallen heroes of the U.S.</t>
-        </is>
-      </c>
-      <c r="B1433" t="inlineStr"/>
-      <c r="C1433" t="inlineStr"/>
-      <c r="D1433" t="inlineStr"/>
-      <c r="E1433" t="inlineStr"/>
-      <c r="F1433" t="inlineStr"/>
-      <c r="G1433" t="inlineStr"/>
-      <c r="H1433" t="inlineStr"/>
-      <c r="I1433" t="inlineStr"/>
-    </row>
-    <row r="1434">
-      <c r="A1434" t="inlineStr">
-        <is>
-          <t>Title: Intimate Guided Normandy Tour from Paris with Hotel Transfers - GROUP OPTION</t>
-        </is>
-      </c>
-      <c r="B1434" t="inlineStr"/>
-      <c r="C1434" t="inlineStr"/>
-      <c r="D1434" t="inlineStr"/>
-      <c r="E1434" t="inlineStr"/>
-      <c r="F1434" t="inlineStr"/>
-      <c r="G1434" t="inlineStr"/>
-      <c r="H1434" t="inlineStr"/>
-      <c r="I1434" t="inlineStr"/>
-    </row>
-    <row r="1435">
-      <c r="A1435" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1435" t="inlineStr"/>
-      <c r="C1435" t="inlineStr"/>
-      <c r="D1435" t="inlineStr"/>
-      <c r="E1435" t="inlineStr"/>
-      <c r="F1435" t="inlineStr"/>
-      <c r="G1435" t="inlineStr"/>
-      <c r="H1435" t="inlineStr"/>
-      <c r="I1435" t="inlineStr"/>
-    </row>
-    <row r="1436">
-      <c r="A1436" t="inlineStr">
-        <is>
-          <t>Category: ['Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1436" t="inlineStr"/>
-      <c r="C1436" t="inlineStr"/>
-      <c r="D1436" t="inlineStr"/>
-      <c r="E1436" t="inlineStr"/>
-      <c r="F1436" t="inlineStr"/>
-      <c r="G1436" t="inlineStr"/>
-      <c r="H1436" t="inlineStr"/>
-      <c r="I1436" t="inlineStr"/>
-    </row>
-    <row r="1437">
-      <c r="A1437" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 13437P56</t>
-        </is>
-      </c>
-      <c r="B1437" t="inlineStr"/>
-      <c r="C1437" t="inlineStr"/>
-      <c r="D1437" t="inlineStr"/>
-      <c r="E1437" t="inlineStr"/>
-      <c r="F1437" t="inlineStr"/>
-      <c r="G1437" t="inlineStr"/>
-      <c r="H1437" t="inlineStr"/>
-      <c r="I1437" t="inlineStr"/>
-    </row>
-    <row r="1438">
-      <c r="A1438" t="inlineStr">
-        <is>
-          <t>Summarized description: Discover the beaches of Normandy in France. Discover the history of the landings. Discover some of the most famous sites. Discover how to get to the beaches.</t>
-        </is>
-      </c>
-      <c r="B1438" t="inlineStr"/>
-      <c r="C1438" t="inlineStr"/>
-      <c r="D1438" t="inlineStr"/>
-      <c r="E1438" t="inlineStr"/>
-      <c r="F1438" t="inlineStr"/>
-      <c r="G1438" t="inlineStr"/>
-      <c r="H1438" t="inlineStr"/>
-      <c r="I1438" t="inlineStr"/>
-    </row>
-    <row r="1439">
-      <c r="A1439" t="inlineStr">
-        <is>
-          <t>Title: Customized Private D Day Normandy Landing Tour from Paris - Group Option</t>
-        </is>
-      </c>
-      <c r="B1439" t="inlineStr"/>
-      <c r="C1439" t="inlineStr"/>
-      <c r="D1439" t="inlineStr"/>
-      <c r="E1439" t="inlineStr"/>
-      <c r="F1439" t="inlineStr"/>
-      <c r="G1439" t="inlineStr"/>
-      <c r="H1439" t="inlineStr"/>
-      <c r="I1439" t="inlineStr"/>
-    </row>
-    <row r="1440">
-      <c r="A1440" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1440" t="inlineStr"/>
-      <c r="C1440" t="inlineStr"/>
-      <c r="D1440" t="inlineStr"/>
-      <c r="E1440" t="inlineStr"/>
-      <c r="F1440" t="inlineStr"/>
-      <c r="G1440" t="inlineStr"/>
-      <c r="H1440" t="inlineStr"/>
-      <c r="I1440" t="inlineStr"/>
-    </row>
-    <row r="1441">
-      <c r="A1441" t="inlineStr">
-        <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1441" t="inlineStr"/>
-      <c r="C1441" t="inlineStr"/>
-      <c r="D1441" t="inlineStr"/>
-      <c r="E1441" t="inlineStr"/>
-      <c r="F1441" t="inlineStr"/>
-      <c r="G1441" t="inlineStr"/>
-      <c r="H1441" t="inlineStr"/>
-      <c r="I1441" t="inlineStr"/>
-    </row>
-    <row r="1442">
-      <c r="A1442" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 15619P8</t>
-        </is>
-      </c>
-      <c r="B1442" t="inlineStr"/>
-      <c r="C1442" t="inlineStr"/>
-      <c r="D1442" t="inlineStr"/>
-      <c r="E1442" t="inlineStr"/>
-      <c r="F1442" t="inlineStr"/>
-      <c r="G1442" t="inlineStr"/>
-      <c r="H1442" t="inlineStr"/>
-      <c r="I1442" t="inlineStr"/>
-    </row>
-    <row r="1443">
-      <c r="A1443" t="inlineStr">
-        <is>
-          <t>Summarized description: Discover the French region of Normandy on a day trip from Paris with services of private driver AND guide. Immerse yourself in one of the major historical events of our time.</t>
-        </is>
-      </c>
-      <c r="B1443" t="inlineStr"/>
-      <c r="C1443" t="inlineStr"/>
-      <c r="D1443" t="inlineStr"/>
-      <c r="E1443" t="inlineStr"/>
-      <c r="F1443" t="inlineStr"/>
-      <c r="G1443" t="inlineStr"/>
-      <c r="H1443" t="inlineStr"/>
-      <c r="I1443" t="inlineStr"/>
-    </row>
-    <row r="1444">
-      <c r="A1444" t="inlineStr">
-        <is>
-          <t>Title: D-Day landing beaches from Paris with private driver and guide</t>
-        </is>
-      </c>
-      <c r="B1444" t="inlineStr"/>
-      <c r="C1444" t="inlineStr"/>
-      <c r="D1444" t="inlineStr"/>
-      <c r="E1444" t="inlineStr"/>
-      <c r="F1444" t="inlineStr"/>
-      <c r="G1444" t="inlineStr"/>
-      <c r="H1444" t="inlineStr"/>
-      <c r="I1444" t="inlineStr"/>
-    </row>
-    <row r="1445">
-      <c r="A1445" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1445" t="inlineStr"/>
-      <c r="C1445" t="inlineStr"/>
-      <c r="D1445" t="inlineStr"/>
-      <c r="E1445" t="inlineStr"/>
-      <c r="F1445" t="inlineStr"/>
-      <c r="G1445" t="inlineStr"/>
-      <c r="H1445" t="inlineStr"/>
-      <c r="I1445" t="inlineStr"/>
-    </row>
-    <row r="1446">
-      <c r="A1446" t="inlineStr">
-        <is>
-          <t>Category: ['Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1446" t="inlineStr"/>
-      <c r="C1446" t="inlineStr"/>
-      <c r="D1446" t="inlineStr"/>
-      <c r="E1446" t="inlineStr"/>
-      <c r="F1446" t="inlineStr"/>
-      <c r="G1446" t="inlineStr"/>
-      <c r="H1446" t="inlineStr"/>
-      <c r="I1446" t="inlineStr"/>
-    </row>
-    <row r="1447">
-      <c r="A1447" t="inlineStr">
-        <is>
-          <t>*****</t>
-        </is>
-      </c>
-      <c r="B1447" t="inlineStr"/>
-      <c r="C1447" t="inlineStr"/>
-      <c r="D1447" t="inlineStr"/>
-      <c r="E1447" t="inlineStr"/>
-      <c r="F1447" t="inlineStr"/>
-      <c r="G1447" t="inlineStr"/>
-      <c r="H1447" t="inlineStr"/>
-      <c r="I1447" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/experiment_results/7249P9.xlsx
+++ b/experiment_results/7249P9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1427"/>
+  <dimension ref="A1:I1422"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -696,7 +696,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Culinary Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -846,7 +846,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -921,7 +921,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -996,7 +996,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -1071,7 +1071,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -1296,7 +1296,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
@@ -1446,7 +1446,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Transportation &amp; Travel Services', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'Transportation &amp; Travel Services']</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
@@ -1521,7 +1521,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
@@ -1596,7 +1596,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
@@ -1671,7 +1671,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
@@ -1896,7 +1896,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
@@ -2046,7 +2046,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
@@ -2346,7 +2346,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B124" t="inlineStr"/>
@@ -2496,7 +2496,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B134" t="inlineStr"/>
@@ -2646,7 +2646,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B144" t="inlineStr"/>
@@ -2796,7 +2796,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B154" t="inlineStr"/>
@@ -2871,7 +2871,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B159" t="inlineStr"/>
@@ -3021,7 +3021,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B169" t="inlineStr"/>
@@ -3096,7 +3096,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B174" t="inlineStr"/>
@@ -3171,7 +3171,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B179" t="inlineStr"/>
@@ -3246,7 +3246,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B184" t="inlineStr"/>
@@ -3471,7 +3471,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B199" t="inlineStr"/>
@@ -3621,7 +3621,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B209" t="inlineStr"/>
@@ -3846,7 +3846,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B224" t="inlineStr"/>
@@ -3921,7 +3921,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Transportation &amp; Travel Services', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'Transportation &amp; Travel Services']</t>
         </is>
       </c>
       <c r="B229" t="inlineStr"/>
@@ -4296,7 +4296,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B254" t="inlineStr"/>
@@ -4371,7 +4371,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B259" t="inlineStr"/>
@@ -4521,7 +4521,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B269" t="inlineStr"/>
@@ -4596,7 +4596,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B274" t="inlineStr"/>
@@ -4896,7 +4896,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Category: ['Eco-Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours', 'Eco-Tours']</t>
         </is>
       </c>
       <c r="B294" t="inlineStr"/>
@@ -5046,7 +5046,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B304" t="inlineStr"/>
@@ -5196,7 +5196,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B314" t="inlineStr"/>
@@ -5271,7 +5271,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B319" t="inlineStr"/>
@@ -5346,7 +5346,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B324" t="inlineStr"/>
@@ -5421,7 +5421,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B329" t="inlineStr"/>
@@ -5571,7 +5571,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B339" t="inlineStr"/>
@@ -5721,7 +5721,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B349" t="inlineStr"/>
@@ -5871,7 +5871,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B359" t="inlineStr"/>
@@ -6096,7 +6096,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B374" t="inlineStr"/>
@@ -6171,7 +6171,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B379" t="inlineStr"/>
@@ -6246,7 +6246,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B384" t="inlineStr"/>
@@ -6321,7 +6321,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B389" t="inlineStr"/>
@@ -6471,7 +6471,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B399" t="inlineStr"/>
@@ -6696,7 +6696,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B414" t="inlineStr"/>
@@ -6771,7 +6771,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Transportation &amp; Travel Services', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'Transportation &amp; Travel Services']</t>
         </is>
       </c>
       <c r="B419" t="inlineStr"/>
@@ -6921,7 +6921,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B429" t="inlineStr"/>
@@ -7146,7 +7146,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B444" t="inlineStr"/>
@@ -7221,7 +7221,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B449" t="inlineStr"/>
@@ -7371,7 +7371,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B459" t="inlineStr"/>
@@ -7446,7 +7446,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B464" t="inlineStr"/>
@@ -7521,7 +7521,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B469" t="inlineStr"/>
@@ -7671,7 +7671,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Transportation &amp; Travel Services', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'Transportation &amp; Travel Services']</t>
         </is>
       </c>
       <c r="B479" t="inlineStr"/>
@@ -7821,7 +7821,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B489" t="inlineStr"/>
@@ -7896,7 +7896,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B494" t="inlineStr"/>
@@ -8196,7 +8196,7 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B514" t="inlineStr"/>
@@ -8271,7 +8271,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B519" t="inlineStr"/>
@@ -8496,7 +8496,7 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B534" t="inlineStr"/>
@@ -8871,7 +8871,7 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B559" t="inlineStr"/>
@@ -8946,7 +8946,7 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B564" t="inlineStr"/>
@@ -9021,7 +9021,7 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B569" t="inlineStr"/>
@@ -9096,7 +9096,7 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B574" t="inlineStr"/>
@@ -9246,7 +9246,7 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B584" t="inlineStr"/>
@@ -9396,7 +9396,7 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B594" t="inlineStr"/>
@@ -9471,7 +9471,7 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B599" t="inlineStr"/>
@@ -9546,7 +9546,7 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B604" t="inlineStr"/>
@@ -9621,7 +9621,7 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B609" t="inlineStr"/>
@@ -9696,7 +9696,7 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B614" t="inlineStr"/>
@@ -9771,7 +9771,7 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B619" t="inlineStr"/>
@@ -9921,7 +9921,7 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B629" t="inlineStr"/>
@@ -9996,7 +9996,7 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B634" t="inlineStr"/>
@@ -10296,7 +10296,7 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B654" t="inlineStr"/>
@@ -10371,7 +10371,7 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Culinary Tours', 'Cultural Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B659" t="inlineStr"/>
@@ -10446,7 +10446,7 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B664" t="inlineStr"/>
@@ -10521,7 +10521,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B669" t="inlineStr"/>
@@ -10596,7 +10596,7 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B674" t="inlineStr"/>
@@ -10671,7 +10671,7 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B679" t="inlineStr"/>
@@ -10896,7 +10896,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B694" t="inlineStr"/>
@@ -10971,7 +10971,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B699" t="inlineStr"/>
@@ -11196,7 +11196,7 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B714" t="inlineStr"/>
@@ -11271,7 +11271,7 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Museums', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B719" t="inlineStr"/>
@@ -11421,7 +11421,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B729" t="inlineStr"/>
@@ -11571,7 +11571,7 @@
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B739" t="inlineStr"/>
@@ -11646,7 +11646,7 @@
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B744" t="inlineStr"/>
@@ -11721,7 +11721,7 @@
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B749" t="inlineStr"/>
@@ -11871,7 +11871,7 @@
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B759" t="inlineStr"/>
@@ -12246,7 +12246,7 @@
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B784" t="inlineStr"/>
@@ -12321,7 +12321,7 @@
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B789" t="inlineStr"/>
@@ -12396,7 +12396,7 @@
     <row r="794">
       <c r="A794" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B794" t="inlineStr"/>
@@ -12546,7 +12546,7 @@
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B804" t="inlineStr"/>
@@ -12696,7 +12696,7 @@
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B814" t="inlineStr"/>
@@ -12846,7 +12846,7 @@
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B824" t="inlineStr"/>
@@ -12921,7 +12921,7 @@
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B829" t="inlineStr"/>
@@ -12996,7 +12996,7 @@
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B834" t="inlineStr"/>
@@ -13071,7 +13071,7 @@
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B839" t="inlineStr"/>
@@ -13146,7 +13146,7 @@
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B844" t="inlineStr"/>
@@ -13371,7 +13371,7 @@
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B859" t="inlineStr"/>
@@ -13446,7 +13446,7 @@
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B864" t="inlineStr"/>
@@ -13521,7 +13521,7 @@
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Dining Experiences', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Culinary Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B869" t="inlineStr"/>
@@ -13671,7 +13671,7 @@
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B879" t="inlineStr"/>
@@ -13971,7 +13971,7 @@
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B899" t="inlineStr"/>
@@ -14046,7 +14046,7 @@
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B904" t="inlineStr"/>
@@ -14121,7 +14121,7 @@
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B909" t="inlineStr"/>
@@ -14196,7 +14196,7 @@
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B914" t="inlineStr"/>
@@ -14271,7 +14271,7 @@
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B919" t="inlineStr"/>
@@ -14346,7 +14346,7 @@
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Transportation &amp; Travel Services', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'Transportation &amp; Travel Services']</t>
         </is>
       </c>
       <c r="B924" t="inlineStr"/>
@@ -14421,7 +14421,7 @@
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B929" t="inlineStr"/>
@@ -14496,7 +14496,7 @@
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Transportation &amp; Travel Services', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'Transportation &amp; Travel Services']</t>
         </is>
       </c>
       <c r="B934" t="inlineStr"/>
@@ -14796,7 +14796,7 @@
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B954" t="inlineStr"/>
@@ -14946,7 +14946,7 @@
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B964" t="inlineStr"/>
@@ -15246,7 +15246,7 @@
     <row r="984">
       <c r="A984" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B984" t="inlineStr"/>
@@ -15352,7 +15352,7 @@
     <row r="991">
       <c r="A991" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Culinary Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B991" t="inlineStr"/>
@@ -15502,7 +15502,7 @@
     <row r="1001">
       <c r="A1001" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1001" t="inlineStr"/>
@@ -15727,7 +15727,7 @@
     <row r="1016">
       <c r="A1016" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Transportation &amp; Travel Services', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'Transportation &amp; Travel Services']</t>
         </is>
       </c>
       <c r="B1016" t="inlineStr"/>
@@ -15802,7 +15802,7 @@
     <row r="1021">
       <c r="A1021" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1021" t="inlineStr"/>
@@ -15877,7 +15877,7 @@
     <row r="1026">
       <c r="A1026" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1026" t="inlineStr"/>
@@ -16252,7 +16252,7 @@
     <row r="1051">
       <c r="A1051" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1051" t="inlineStr"/>
@@ -16402,7 +16402,7 @@
     <row r="1061">
       <c r="A1061" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1061" t="inlineStr"/>
@@ -16477,7 +16477,7 @@
     <row r="1066">
       <c r="A1066" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1066" t="inlineStr"/>
@@ -16552,7 +16552,7 @@
     <row r="1071">
       <c r="A1071" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1071" t="inlineStr"/>
@@ -16627,7 +16627,7 @@
     <row r="1076">
       <c r="A1076" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1076" t="inlineStr"/>
@@ -16702,7 +16702,7 @@
     <row r="1081">
       <c r="A1081" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1081" t="inlineStr"/>
@@ -16777,7 +16777,7 @@
     <row r="1086">
       <c r="A1086" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1086" t="inlineStr"/>
@@ -16927,7 +16927,7 @@
     <row r="1096">
       <c r="A1096" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Transportation &amp; Travel Services', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'Transportation &amp; Travel Services']</t>
         </is>
       </c>
       <c r="B1096" t="inlineStr"/>
@@ -17077,7 +17077,7 @@
     <row r="1106">
       <c r="A1106" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1106" t="inlineStr"/>
@@ -17227,7 +17227,7 @@
     <row r="1116">
       <c r="A1116" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1116" t="inlineStr"/>
@@ -17377,7 +17377,7 @@
     <row r="1126">
       <c r="A1126" t="inlineStr">
         <is>
-          <t>Category: ['Eco-Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours', 'Eco-Tours']</t>
         </is>
       </c>
       <c r="B1126" t="inlineStr"/>
@@ -17452,7 +17452,7 @@
     <row r="1131">
       <c r="A1131" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1131" t="inlineStr"/>
@@ -17527,7 +17527,7 @@
     <row r="1136">
       <c r="A1136" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1136" t="inlineStr"/>
@@ -17602,7 +17602,7 @@
     <row r="1141">
       <c r="A1141" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1141" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
     <row r="1146">
       <c r="A1146" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1146" t="inlineStr"/>
@@ -17827,7 +17827,7 @@
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1156" t="inlineStr"/>
@@ -17902,7 +17902,7 @@
     <row r="1161">
       <c r="A1161" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1161" t="inlineStr"/>
@@ -17977,7 +17977,7 @@
     <row r="1166">
       <c r="A1166" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1166" t="inlineStr"/>
@@ -18202,7 +18202,7 @@
     <row r="1181">
       <c r="A1181" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1181" t="inlineStr"/>
@@ -18277,7 +18277,7 @@
     <row r="1186">
       <c r="A1186" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Transportation &amp; Travel Services', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'Transportation &amp; Travel Services']</t>
         </is>
       </c>
       <c r="B1186" t="inlineStr"/>
@@ -18577,7 +18577,7 @@
     <row r="1206">
       <c r="A1206" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1206" t="inlineStr"/>
@@ -18652,7 +18652,7 @@
     <row r="1211">
       <c r="A1211" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1211" t="inlineStr"/>
@@ -18817,7 +18817,7 @@
     <row r="1222">
       <c r="A1222" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7245P55</t>
+          <t>PRODUCTCODE: 66049P47</t>
         </is>
       </c>
       <c r="B1222" t="inlineStr"/>
@@ -18832,7 +18832,7 @@
     <row r="1223">
       <c r="A1223" t="inlineStr">
         <is>
-          <t>Summarized description: Be immersed in the event of D-day of 1944 with our audio-guide. Let it guide you through the Sainte Mère Eglise, Pointe Du Hoc. You will then discover Omaha beach, where the American soldiers landed on June, 6th of 1944. Nearby, visit the American cemetery and Memorial of Colleville-sur-Mer.</t>
+          <t>Summarized description: D-Day landing beaches of World War II. We will go straight to Pointe du Hoc, where the United States Army Ranger Assault Group assaulted and captured it after scaling the cliffs. Then, we’ll take a break at Omaha Beach, the famous beach where the american army landed on 6th of June 1944. Half of the day we'll stay and this area to explore all the places and on our way back we will stop for a lunch in a fancy restaurant.</t>
         </is>
       </c>
       <c r="B1223" t="inlineStr"/>
@@ -18847,7 +18847,7 @@
     <row r="1224">
       <c r="A1224" t="inlineStr">
         <is>
-          <t>Title: D day Normandy Tour with Audio guide hotel pick up Small group</t>
+          <t>Title: D-Day Beaches Pointe du Hoc, Omaha Beach &amp; Normandy Cemetery</t>
         </is>
       </c>
       <c r="B1224" t="inlineStr"/>
@@ -18877,7 +18877,7 @@
     <row r="1226">
       <c r="A1226" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1226" t="inlineStr"/>
@@ -18892,7 +18892,7 @@
     <row r="1227">
       <c r="A1227" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 66049P47</t>
+          <t>PRODUCTCODE: 208552P2</t>
         </is>
       </c>
       <c r="B1227" t="inlineStr"/>
@@ -18907,7 +18907,7 @@
     <row r="1228">
       <c r="A1228" t="inlineStr">
         <is>
-          <t>Summarized description: D-Day landing beaches of World War II. We will go straight to Pointe du Hoc, where the United States Army Ranger Assault Group assaulted and captured it after scaling the cliffs. Then, we’ll take a break at Omaha Beach, the famous beach where the american army landed on 6th of June 1944. Half of the day we'll stay and this area to explore all the places and on our way back we will stop for a lunch in a fancy restaurant.</t>
+          <t>Summarized description: First stop in Rouen - the capital of the former county of Normandy. Walking tour of the historic city center with its many medieval half-timbered houses. Deauville - the most famous resort town on the English Channel with a giant sandy beach.</t>
         </is>
       </c>
       <c r="B1228" t="inlineStr"/>
@@ -18922,7 +18922,7 @@
     <row r="1229">
       <c r="A1229" t="inlineStr">
         <is>
-          <t>Title: D-Day Beaches Pointe du Hoc, Omaha Beach &amp; Normandy Cemetery</t>
+          <t>Title:  ALL INCLUSIVE for a full day group visit to Normandy from Paris</t>
         </is>
       </c>
       <c r="B1229" t="inlineStr"/>
@@ -18937,7 +18937,7 @@
     <row r="1230">
       <c r="A1230" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1230" t="inlineStr"/>
@@ -18952,7 +18952,7 @@
     <row r="1231">
       <c r="A1231" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1231" t="inlineStr"/>
@@ -18967,7 +18967,7 @@
     <row r="1232">
       <c r="A1232" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 208552P2</t>
+          <t>PRODUCTCODE: 142334P11</t>
         </is>
       </c>
       <c r="B1232" t="inlineStr"/>
@@ -18982,7 +18982,7 @@
     <row r="1233">
       <c r="A1233" t="inlineStr">
         <is>
-          <t>Summarized description: First stop in Rouen - the capital of the former county of Normandy. Walking tour of the historic city center with its many medieval half-timbered houses. Deauville - the most famous resort town on the English Channel with a giant sandy beach.</t>
+          <t>Summarized description: Learn about the events of June 6, 1944 at the Canadian War Cemetery in Beny-sur-Mer. Visit the famous “Canada House’ on Juno Beach, said to be the first house liberated in Normandy.</t>
         </is>
       </c>
       <c r="B1233" t="inlineStr"/>
@@ -18997,7 +18997,7 @@
     <row r="1234">
       <c r="A1234" t="inlineStr">
         <is>
-          <t>Title:  ALL INCLUSIVE for a full day group visit to Normandy from Paris</t>
+          <t>Title: Day trip from Paris to Juno Beach, Normandy - Private Tour (2 pax)</t>
         </is>
       </c>
       <c r="B1234" t="inlineStr"/>
@@ -19027,7 +19027,7 @@
     <row r="1236">
       <c r="A1236" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1236" t="inlineStr"/>
@@ -19042,7 +19042,7 @@
     <row r="1237">
       <c r="A1237" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 142334P11</t>
+          <t>PRODUCTCODE: 409970P6</t>
         </is>
       </c>
       <c r="B1237" t="inlineStr"/>
@@ -19057,7 +19057,7 @@
     <row r="1238">
       <c r="A1238" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about the events of June 6, 1944 at the Canadian War Cemetery in Beny-sur-Mer. Visit the famous “Canada House’ on Juno Beach, said to be the first house liberated in Normandy.</t>
+          <t>Summarized description:  Normandy Premium Tour offers a personalized travel experience for two or in a small group (8 People Max) with or without a guide. You will visit Pointe du Hoc, the Normandy American Cemetery, Omaha Beach, etc.</t>
         </is>
       </c>
       <c r="B1238" t="inlineStr"/>
@@ -19072,7 +19072,7 @@
     <row r="1239">
       <c r="A1239" t="inlineStr">
         <is>
-          <t>Title: Day trip from Paris to Juno Beach, Normandy - Private Tour (2 pax)</t>
+          <t>Title: Private DDAY tour with pickup in Paris Full day</t>
         </is>
       </c>
       <c r="B1239" t="inlineStr"/>
@@ -19102,7 +19102,7 @@
     <row r="1241">
       <c r="A1241" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1241" t="inlineStr"/>
@@ -19117,7 +19117,7 @@
     <row r="1242">
       <c r="A1242" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 409970P6</t>
+          <t>PRODUCTCODE: 320547P719</t>
         </is>
       </c>
       <c r="B1242" t="inlineStr"/>
@@ -19132,7 +19132,7 @@
     <row r="1243">
       <c r="A1243" t="inlineStr">
         <is>
-          <t>Summarized description:  Normandy Premium Tour offers a personalized travel experience for two or in a small group (8 People Max) with or without a guide. You will visit Pointe du Hoc, the Normandy American Cemetery, Omaha Beach, etc.</t>
+          <t>Summarized description: Normandy is a charming region just north of Paris. It's both a rural and seaside area famous for producing excellent cheeses, apple cider, and seafood, such as sea-scallop and herring.</t>
         </is>
       </c>
       <c r="B1243" t="inlineStr"/>
@@ -19147,7 +19147,7 @@
     <row r="1244">
       <c r="A1244" t="inlineStr">
         <is>
-          <t>Title: Private DDAY tour with pickup in Paris Full day</t>
+          <t xml:space="preserve">Title: Paris to D-Day Beach Private Guided Tour with Airport Transfer </t>
         </is>
       </c>
       <c r="B1244" t="inlineStr"/>
@@ -19177,7 +19177,7 @@
     <row r="1246">
       <c r="A1246" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1246" t="inlineStr"/>
@@ -19192,7 +19192,7 @@
     <row r="1247">
       <c r="A1247" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 320547P719</t>
+          <t>PRODUCTCODE: 9511P50</t>
         </is>
       </c>
       <c r="B1247" t="inlineStr"/>
@@ -19207,7 +19207,7 @@
     <row r="1248">
       <c r="A1248" t="inlineStr">
         <is>
-          <t>Summarized description: Normandy is a charming region just north of Paris. It's both a rural and seaside area famous for producing excellent cheeses, apple cider, and seafood, such as sea-scallop and herring.</t>
+          <t>Summarized description: A guided tour with only 8 participants (max) especially designed to discover, in one day, landing beaches and sites of legend. Air conditioned and comfortable minivan for a reduced transfer time.</t>
         </is>
       </c>
       <c r="B1248" t="inlineStr"/>
@@ -19222,7 +19222,7 @@
     <row r="1249">
       <c r="A1249" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Paris to D-Day Beach Private Guided Tour with Airport Transfer </t>
+          <t>Title: Private tour Normandy D-Day Landing Beaches Guided from Paris</t>
         </is>
       </c>
       <c r="B1249" t="inlineStr"/>
@@ -19252,7 +19252,7 @@
     <row r="1251">
       <c r="A1251" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1251" t="inlineStr"/>
@@ -19267,7 +19267,7 @@
     <row r="1252">
       <c r="A1252" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 9511P50</t>
+          <t>PRODUCTCODE: 110148P48</t>
         </is>
       </c>
       <c r="B1252" t="inlineStr"/>
@@ -19282,7 +19282,7 @@
     <row r="1253">
       <c r="A1253" t="inlineStr">
         <is>
-          <t>Summarized description: A guided tour with only 8 participants (max) especially designed to discover, in one day, landing beaches and sites of legend. Air conditioned and comfortable minivan for a reduced transfer time.</t>
+          <t>Summarized description: Take your private car from Paris and travel to the city of Bayeux. Admire the 70 meters long middle age Tapestry, Listed “World Heritage” by UNESCO. Continue to the Landing Beaches of Normandy and the American Cemetery.</t>
         </is>
       </c>
       <c r="B1253" t="inlineStr"/>
@@ -19297,7 +19297,7 @@
     <row r="1254">
       <c r="A1254" t="inlineStr">
         <is>
-          <t>Title: Private tour Normandy D-Day Landing Beaches Guided from Paris</t>
+          <t>Title: D-Day Beaches, Mt. St. Michel &amp; St. Malo, 2-Day tour in PRIVATE CAR from Paris</t>
         </is>
       </c>
       <c r="B1254" t="inlineStr"/>
@@ -19327,7 +19327,7 @@
     <row r="1256">
       <c r="A1256" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1256" t="inlineStr"/>
@@ -19342,7 +19342,7 @@
     <row r="1257">
       <c r="A1257" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 110148P48</t>
+          <t>PRODUCTCODE: 113047P12</t>
         </is>
       </c>
       <c r="B1257" t="inlineStr"/>
@@ -19357,7 +19357,7 @@
     <row r="1258">
       <c r="A1258" t="inlineStr">
         <is>
-          <t>Summarized description: Take your private car from Paris and travel to the city of Bayeux. Admire the 70 meters long middle age Tapestry, Listed “World Heritage” by UNESCO. Continue to the Landing Beaches of Normandy and the American Cemetery.</t>
+          <t>Summarized description: Tour with a Licensed Guide, driver and Sommelier. Drink old vintages of Loire wines and eat in breathtaking places. Taste Normandy cheeses and pair them with ciders and sparkling wines.</t>
         </is>
       </c>
       <c r="B1258" t="inlineStr"/>
@@ -19372,7 +19372,7 @@
     <row r="1259">
       <c r="A1259" t="inlineStr">
         <is>
-          <t>Title: D-Day Beaches, Mt. St. Michel &amp; St. Malo, 2-Day tour in PRIVATE CAR from Paris</t>
+          <t>Title: 4-Day Private Tour Normandy - Mont Saint Michel, WW2 beaches...</t>
         </is>
       </c>
       <c r="B1259" t="inlineStr"/>
@@ -19402,7 +19402,7 @@
     <row r="1261">
       <c r="A1261" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Culinary Tours', 'Cultural Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1261" t="inlineStr"/>
@@ -19417,7 +19417,7 @@
     <row r="1262">
       <c r="A1262" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 113047P12</t>
+          <t>PRODUCTCODE: 320547P130</t>
         </is>
       </c>
       <c r="B1262" t="inlineStr"/>
@@ -19432,7 +19432,7 @@
     <row r="1263">
       <c r="A1263" t="inlineStr">
         <is>
-          <t>Summarized description: Tour with a Licensed Guide, driver and Sommelier. Drink old vintages of Loire wines and eat in breathtaking places. Taste Normandy cheeses and pair them with ciders and sparkling wines.</t>
+          <t>Summarized description:  Normandy is a charming region just north of Paris. It's both a rural and seaside area famous for producing excellent cheeses. The quality of the cuisine of Normandy makes it a must-visit area.</t>
         </is>
       </c>
       <c r="B1263" t="inlineStr"/>
@@ -19447,7 +19447,7 @@
     <row r="1264">
       <c r="A1264" t="inlineStr">
         <is>
-          <t>Title: 4-Day Private Tour Normandy - Mont Saint Michel, WW2 beaches...</t>
+          <t>Title: Paris to D-Day Beaches Full Day Private Tour with Guide</t>
         </is>
       </c>
       <c r="B1264" t="inlineStr"/>
@@ -19477,7 +19477,7 @@
     <row r="1266">
       <c r="A1266" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1266" t="inlineStr"/>
@@ -19492,7 +19492,7 @@
     <row r="1267">
       <c r="A1267" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 320547P130</t>
+          <t>PRODUCTCODE: 2050P362</t>
         </is>
       </c>
       <c r="B1267" t="inlineStr"/>
@@ -19507,7 +19507,7 @@
     <row r="1268">
       <c r="A1268" t="inlineStr">
         <is>
-          <t>Summarized description:  Normandy is a charming region just north of Paris. It's both a rural and seaside area famous for producing excellent cheeses. The quality of the cuisine of Normandy makes it a must-visit area.</t>
+          <t>Summarized description:  Normandy battlefields and landing beaches of World War II. Your guide will take you to famous wartime sites and also to the American cemetery. You will gain insight into the sacrifices of Allied soldiers and French citizens they liberated.</t>
         </is>
       </c>
       <c r="B1268" t="inlineStr"/>
@@ -19522,7 +19522,7 @@
     <row r="1269">
       <c r="A1269" t="inlineStr">
         <is>
-          <t>Title: Paris to D-Day Beaches Full Day Private Tour with Guide</t>
+          <t>Title: From Paris Landing Beaches with Guide &amp; Hotel Pick Up</t>
         </is>
       </c>
       <c r="B1269" t="inlineStr"/>
@@ -19552,7 +19552,7 @@
     <row r="1271">
       <c r="A1271" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1271" t="inlineStr"/>
@@ -19567,7 +19567,7 @@
     <row r="1272">
       <c r="A1272" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2050P362</t>
+          <t>PRODUCTCODE: 118583P5</t>
         </is>
       </c>
       <c r="B1272" t="inlineStr"/>
@@ -19582,7 +19582,7 @@
     <row r="1273">
       <c r="A1273" t="inlineStr">
         <is>
-          <t>Summarized description:  Normandy battlefields and landing beaches of World War II. Your guide will take you to famous wartime sites and also to the American cemetery. You will gain insight into the sacrifices of Allied soldiers and French citizens they liberated.</t>
+          <t>Summarized description: Guided Tour to Normandy D-Day Beaches from Paris, Lunch included. Immerse yourself in the Second World War liberation of Europe. Visit Arromanches or Juno Beach.</t>
         </is>
       </c>
       <c r="B1273" t="inlineStr"/>
@@ -19597,7 +19597,7 @@
     <row r="1274">
       <c r="A1274" t="inlineStr">
         <is>
-          <t>Title: From Paris Landing Beaches with Guide &amp; Hotel Pick Up</t>
+          <t>Title: Guided Tour to Normandy D-Day Beaches from Paris, Lunch included</t>
         </is>
       </c>
       <c r="B1274" t="inlineStr"/>
@@ -19642,7 +19642,7 @@
     <row r="1277">
       <c r="A1277" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 118583P5</t>
+          <t>PRODUCTCODE: 115705P11</t>
         </is>
       </c>
       <c r="B1277" t="inlineStr"/>
@@ -19657,7 +19657,7 @@
     <row r="1278">
       <c r="A1278" t="inlineStr">
         <is>
-          <t>Summarized description: Guided Tour to Normandy D-Day Beaches from Paris, Lunch included. Immerse yourself in the Second World War liberation of Europe. Visit Arromanches or Juno Beach.</t>
+          <t>Summarized description: Discover the most important D-Day beaches, the landing of the allies on the beaches of Normandy will have no secrets. Live a strong and moving moment at the American cemetery and dive into the Liberation of the Second World War.</t>
         </is>
       </c>
       <c r="B1278" t="inlineStr"/>
@@ -19672,7 +19672,7 @@
     <row r="1279">
       <c r="A1279" t="inlineStr">
         <is>
-          <t>Title: Guided Tour to Normandy D-Day Beaches from Paris, Lunch included</t>
+          <t>Title: Normandy Landing Beaches Guided Tour Departing From Paris</t>
         </is>
       </c>
       <c r="B1279" t="inlineStr"/>
@@ -19717,7 +19717,7 @@
     <row r="1282">
       <c r="A1282" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 115705P11</t>
+          <t>PRODUCTCODE: 24380P1465</t>
         </is>
       </c>
       <c r="B1282" t="inlineStr"/>
@@ -19732,7 +19732,7 @@
     <row r="1283">
       <c r="A1283" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the most important D-Day beaches, the landing of the allies on the beaches of Normandy will have no secrets. Live a strong and moving moment at the American cemetery and dive into the Liberation of the Second World War.</t>
+          <t>Summarized description: The Normandy landings are considered the largest seaborne invasion in history. Explore the landing beaches, memorials, cemeteries and museums related to this event.</t>
         </is>
       </c>
       <c r="B1283" t="inlineStr"/>
@@ -19747,7 +19747,7 @@
     <row r="1284">
       <c r="A1284" t="inlineStr">
         <is>
-          <t>Title: Normandy Landing Beaches Guided Tour Departing From Paris</t>
+          <t>Title: D-Day Beaches and Normandy Private Day Trip</t>
         </is>
       </c>
       <c r="B1284" t="inlineStr"/>
@@ -19777,7 +19777,7 @@
     <row r="1286">
       <c r="A1286" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1286" t="inlineStr"/>
@@ -19792,7 +19792,7 @@
     <row r="1287">
       <c r="A1287" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 24380P1465</t>
+          <t>PRODUCTCODE: 332536P588</t>
         </is>
       </c>
       <c r="B1287" t="inlineStr"/>
@@ -19807,7 +19807,7 @@
     <row r="1288">
       <c r="A1288" t="inlineStr">
         <is>
-          <t>Summarized description: The Normandy landings are considered the largest seaborne invasion in history. Explore the landing beaches, memorials, cemeteries and museums related to this event.</t>
+          <t>Summarized description: Explore the historic sites and memorials of the D-Day landings. Discover the details of the successful Allied invasions on Nazi German-occupied Western Europe during World War II.</t>
         </is>
       </c>
       <c r="B1288" t="inlineStr"/>
@@ -19822,7 +19822,7 @@
     <row r="1289">
       <c r="A1289" t="inlineStr">
         <is>
-          <t>Title: D-Day Beaches and Normandy Private Day Trip</t>
+          <t xml:space="preserve">Title: D-Day Normandy Beaches Guided Trip by Car from Paris </t>
         </is>
       </c>
       <c r="B1289" t="inlineStr"/>
@@ -19852,7 +19852,7 @@
     <row r="1291">
       <c r="A1291" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1291" t="inlineStr"/>
@@ -19867,7 +19867,7 @@
     <row r="1292">
       <c r="A1292" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 332536P588</t>
+          <t>PRODUCTCODE: 118524P22</t>
         </is>
       </c>
       <c r="B1292" t="inlineStr"/>
@@ -19882,7 +19882,7 @@
     <row r="1293">
       <c r="A1293" t="inlineStr">
         <is>
-          <t>Summarized description: Explore the historic sites and memorials of the D-Day landings. Discover the details of the successful Allied invasions on Nazi German-occupied Western Europe during World War II.</t>
+          <t>Summarized description: Small group tour on the DDay beaches from the center of Paris with a knowledgeable bilingual guide. You will see along the way war machines like Sherman tank, cannons, and you will visit a genuine Bunker from WWII.</t>
         </is>
       </c>
       <c r="B1293" t="inlineStr"/>
@@ -19897,7 +19897,7 @@
     <row r="1294">
       <c r="A1294" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: D-Day Normandy Beaches Guided Trip by Car from Paris </t>
+          <t>Title: DDay Beaches small group tour in Normandy from Paris</t>
         </is>
       </c>
       <c r="B1294" t="inlineStr"/>
@@ -19927,7 +19927,7 @@
     <row r="1296">
       <c r="A1296" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1296" t="inlineStr"/>
@@ -19942,7 +19942,7 @@
     <row r="1297">
       <c r="A1297" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 118524P22</t>
+          <t>PRODUCTCODE: 336757P1</t>
         </is>
       </c>
       <c r="B1297" t="inlineStr"/>
@@ -19957,7 +19957,7 @@
     <row r="1298">
       <c r="A1298" t="inlineStr">
         <is>
-          <t>Summarized description: Small group tour on the DDay beaches from the center of Paris with a knowledgeable bilingual guide. You will see along the way war machines like Sherman tank, cannons, and you will visit a genuine Bunker from WWII.</t>
+          <t>Summarized description: D-Day landing beaches of World War II, Pointe Du Hoc, Omaha Beach, American Cemetery, the Visitor Center and learn stories. Booking this spectacular tour from Paris will give you the chance to explore Normandy coast.</t>
         </is>
       </c>
       <c r="B1298" t="inlineStr"/>
@@ -19972,7 +19972,7 @@
     <row r="1299">
       <c r="A1299" t="inlineStr">
         <is>
-          <t>Title: DDay Beaches small group tour in Normandy from Paris</t>
+          <t>Title: Normandy D Day World War II Tour from Paris</t>
         </is>
       </c>
       <c r="B1299" t="inlineStr"/>
@@ -20002,7 +20002,7 @@
     <row r="1301">
       <c r="A1301" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1301" t="inlineStr"/>
@@ -20017,7 +20017,7 @@
     <row r="1302">
       <c r="A1302" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 336757P1</t>
+          <t>PRODUCTCODE: 8474P47</t>
         </is>
       </c>
       <c r="B1302" t="inlineStr"/>
@@ -20032,7 +20032,7 @@
     <row r="1303">
       <c r="A1303" t="inlineStr">
         <is>
-          <t>Summarized description: D-Day landing beaches of World War II, Pointe Du Hoc, Omaha Beach, American Cemetery, the Visitor Center and learn stories. Booking this spectacular tour from Paris will give you the chance to explore Normandy coast.</t>
+          <t>Summarized description: Live a memorable and moving experience with your guide driver, passionate about WWII. Your guide will take you to the D-Day key sites. You will learn a lot about Normandy region, people, landscapes and patrimony.</t>
         </is>
       </c>
       <c r="B1303" t="inlineStr"/>
@@ -20047,7 +20047,7 @@
     <row r="1304">
       <c r="A1304" t="inlineStr">
         <is>
-          <t>Title: Normandy D Day World War II Tour from Paris</t>
+          <t>Title: Private Tour to Normandy D Day Beaches and American Cemetery</t>
         </is>
       </c>
       <c r="B1304" t="inlineStr"/>
@@ -20077,7 +20077,7 @@
     <row r="1306">
       <c r="A1306" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1306" t="inlineStr"/>
@@ -20092,7 +20092,7 @@
     <row r="1307">
       <c r="A1307" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 8474P47</t>
+          <t>PRODUCTCODE: 268293P134</t>
         </is>
       </c>
       <c r="B1307" t="inlineStr"/>
@@ -20107,7 +20107,7 @@
     <row r="1308">
       <c r="A1308" t="inlineStr">
         <is>
-          <t>Summarized description: Live a memorable and moving experience with your guide driver, passionate about WWII. Your guide will take you to the D-Day key sites. You will learn a lot about Normandy region, people, landscapes and patrimony.</t>
+          <t>Summarized description:  Normandy American Cemetery in Colleville-sur-Mer with very nice Museum, Omaha Beaches with Signal Monument. Stop at Church Saint-Come-et-Saint-Damien in Angoville-au-Plain, Stop at Sainte-Mère-Église town. Utah Beach Landing Museum with a big collection of historical artifacts, military vehicles and the original B26 bomber. Airborne Museum visit including unique D-Day Night Jumps embarkation of a C-47 aircraft.</t>
         </is>
       </c>
       <c r="B1308" t="inlineStr"/>
@@ -20122,7 +20122,7 @@
     <row r="1309">
       <c r="A1309" t="inlineStr">
         <is>
-          <t>Title: Private Tour to Normandy D Day Beaches and American Cemetery</t>
+          <t>Title: Private D-Day Omaha Utah Beach Guided Trip from Paris by Mercedes</t>
         </is>
       </c>
       <c r="B1309" t="inlineStr"/>
@@ -20152,7 +20152,7 @@
     <row r="1311">
       <c r="A1311" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1311" t="inlineStr"/>
@@ -20167,7 +20167,7 @@
     <row r="1312">
       <c r="A1312" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 268293P134</t>
+          <t>PRODUCTCODE: 88115P307</t>
         </is>
       </c>
       <c r="B1312" t="inlineStr"/>
@@ -20182,7 +20182,7 @@
     <row r="1313">
       <c r="A1313" t="inlineStr">
         <is>
-          <t>Summarized description:  Normandy American Cemetery in Colleville-sur-Mer with very nice Museum, Omaha Beaches with Signal Monument. Stop at Church Saint-Come-et-Saint-Damien in Angoville-au-Plain, Stop at Sainte-Mère-Église town. Utah Beach Landing Museum with a big collection of historical artifacts, military vehicles and the original B26 bomber. Airborne Museum visit including unique D-Day Night Jumps embarkation of a C-47 aircraft.</t>
+          <t>Summarized description: The trip includes a delicious lunch, and comfortable, air conditioned roundtrip transfers by bus. Enjoy a full day excursion from Paris to the D-Day Beaches in Normandy.</t>
         </is>
       </c>
       <c r="B1313" t="inlineStr"/>
@@ -20197,7 +20197,7 @@
     <row r="1314">
       <c r="A1314" t="inlineStr">
         <is>
-          <t>Title: Private D-Day Omaha Utah Beach Guided Trip from Paris by Mercedes</t>
+          <t>Title: Guided Tour of the D-Day Beaches</t>
         </is>
       </c>
       <c r="B1314" t="inlineStr"/>
@@ -20227,7 +20227,7 @@
     <row r="1316">
       <c r="A1316" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B1316" t="inlineStr"/>
@@ -20242,7 +20242,7 @@
     <row r="1317">
       <c r="A1317" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 88115P307</t>
+          <t>PRODUCTCODE: 118583P16</t>
         </is>
       </c>
       <c r="B1317" t="inlineStr"/>
@@ -20257,7 +20257,7 @@
     <row r="1318">
       <c r="A1318" t="inlineStr">
         <is>
-          <t>Summarized description: The trip includes a delicious lunch, and comfortable, air conditioned roundtrip transfers by bus. Enjoy a full day excursion from Paris to the D-Day Beaches in Normandy.</t>
+          <t>Summarized description: Guided Tour to Normandy D-Day Beaches from Paris, Lunch included. Immerse yourself in the Second World War liberation of Europe. Follow in the footsteps of those who experienced the war.</t>
         </is>
       </c>
       <c r="B1318" t="inlineStr"/>
@@ -20272,7 +20272,7 @@
     <row r="1319">
       <c r="A1319" t="inlineStr">
         <is>
-          <t>Title: Guided Tour of the D-Day Beaches</t>
+          <t>Title: Guided Tour to Normandy D-Day Beaches from Paris, Lunch included</t>
         </is>
       </c>
       <c r="B1319" t="inlineStr"/>
@@ -20302,7 +20302,7 @@
     <row r="1321">
       <c r="A1321" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1321" t="inlineStr"/>
@@ -20317,7 +20317,7 @@
     <row r="1322">
       <c r="A1322" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 118583P16</t>
+          <t>PRODUCTCODE: 117374P12</t>
         </is>
       </c>
       <c r="B1322" t="inlineStr"/>
@@ -20332,7 +20332,7 @@
     <row r="1323">
       <c r="A1323" t="inlineStr">
         <is>
-          <t>Summarized description: Guided Tour to Normandy D-Day Beaches from Paris, Lunch included. Immerse yourself in the Second World War liberation of Europe. Follow in the footsteps of those who experienced the war.</t>
+          <t>Summarized description: Learn all about the Allied landings on the beaches of Normandy. With an expert professional guide, follow in the footsteps of those who lived through the war.Enjoy a full-day tour from Paris to the D-Day beaches.</t>
         </is>
       </c>
       <c r="B1323" t="inlineStr"/>
@@ -20347,7 +20347,7 @@
     <row r="1324">
       <c r="A1324" t="inlineStr">
         <is>
-          <t>Title: Guided Tour to Normandy D-Day Beaches from Paris, Lunch included</t>
+          <t>Title: Guided Tour of Normandy D-Day Beaches from Paris, with transport</t>
         </is>
       </c>
       <c r="B1324" t="inlineStr"/>
@@ -20392,7 +20392,7 @@
     <row r="1327">
       <c r="A1327" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 117374P12</t>
+          <t>PRODUCTCODE: 7245P56</t>
         </is>
       </c>
       <c r="B1327" t="inlineStr"/>
@@ -20407,7 +20407,7 @@
     <row r="1328">
       <c r="A1328" t="inlineStr">
         <is>
-          <t>Summarized description: Learn all about the Allied landings on the beaches of Normandy. With an expert professional guide, follow in the footsteps of those who lived through the war.Enjoy a full-day tour from Paris to the D-Day beaches.</t>
+          <t>Summarized description: Discover Normandy through the eyes of a professional touristic local guide. Enjoy a pickup from your Paris hotel and let our chauffeur drive you to Bayeux. The D-day tour will get started.</t>
         </is>
       </c>
       <c r="B1328" t="inlineStr"/>
@@ -20422,7 +20422,7 @@
     <row r="1329">
       <c r="A1329" t="inlineStr">
         <is>
-          <t>Title: Guided Tour of Normandy D-Day Beaches from Paris, with transport</t>
+          <t>Title: Normandy D-Day beaches Day trip with hotel pickup</t>
         </is>
       </c>
       <c r="B1329" t="inlineStr"/>
@@ -20467,7 +20467,7 @@
     <row r="1332">
       <c r="A1332" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7245P56</t>
+          <t>PRODUCTCODE: 175581P41</t>
         </is>
       </c>
       <c r="B1332" t="inlineStr"/>
@@ -20482,7 +20482,7 @@
     <row r="1333">
       <c r="A1333" t="inlineStr">
         <is>
-          <t>Summarized description: Discover Normandy through the eyes of a professional touristic local guide. Enjoy a pickup from your Paris hotel and let our chauffeur drive you to Bayeux. The D-day tour will get started.</t>
+          <t>Summarized description: Travel from Paris to the beaches of Normandy in order to honor the sacrifices made there on June 6th, 1944. The Utah Beach Museum, housed in an original German bunker, will be your first stop. After a tasting of the local cider our next stop is an authentic Norman-style lunch.</t>
         </is>
       </c>
       <c r="B1333" t="inlineStr"/>
@@ -20497,7 +20497,7 @@
     <row r="1334">
       <c r="A1334" t="inlineStr">
         <is>
-          <t>Title: Normandy D-Day beaches Day trip with hotel pickup</t>
+          <t>Title: Normandy Day Trip from Paris with D-Day Beaches &amp; Authentic Lunch</t>
         </is>
       </c>
       <c r="B1334" t="inlineStr"/>
@@ -20527,7 +20527,7 @@
     <row r="1336">
       <c r="A1336" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1336" t="inlineStr"/>
@@ -20542,7 +20542,7 @@
     <row r="1337">
       <c r="A1337" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 175581P41</t>
+          <t>PRODUCTCODE: 67584P4</t>
         </is>
       </c>
       <c r="B1337" t="inlineStr"/>
@@ -20557,7 +20557,7 @@
     <row r="1338">
       <c r="A1338" t="inlineStr">
         <is>
-          <t>Summarized description: Travel from Paris to the beaches of Normandy in order to honor the sacrifices made there on June 6th, 1944. The Utah Beach Museum, housed in an original German bunker, will be your first stop. After a tasting of the local cider our next stop is an authentic Norman-style lunch.</t>
+          <t>Summarized description: D-Day marked an important turning point in World War II. Normandy is home to multiple sites where battles raged on D-Day. See Omaha Beach, Pont du Hoc, the American Cemetary and more.</t>
         </is>
       </c>
       <c r="B1338" t="inlineStr"/>
@@ -20572,7 +20572,7 @@
     <row r="1339">
       <c r="A1339" t="inlineStr">
         <is>
-          <t>Title: Normandy Day Trip from Paris with D-Day Beaches &amp; Authentic Lunch</t>
+          <t>Title: Day Trip to Normandy Beaches and WWII Memorials from Paris</t>
         </is>
       </c>
       <c r="B1339" t="inlineStr"/>
@@ -20602,7 +20602,7 @@
     <row r="1341">
       <c r="A1341" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1341" t="inlineStr"/>
@@ -20617,7 +20617,7 @@
     <row r="1342">
       <c r="A1342" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 67584P4</t>
+          <t>PRODUCTCODE: 140538P20</t>
         </is>
       </c>
       <c r="B1342" t="inlineStr"/>
@@ -20632,7 +20632,7 @@
     <row r="1343">
       <c r="A1343" t="inlineStr">
         <is>
-          <t>Summarized description: D-Day marked an important turning point in World War II. Normandy is home to multiple sites where battles raged on D-Day. See Omaha Beach, Pont du Hoc, the American Cemetary and more.</t>
+          <t>Summarized description: Day trip from Paris covers Normandy’s top WWII-related sites. Visit the landing beaches of Ponte du Hoc and Omaha. Get a first-hand look at military gear and vehicles at the Overlord Museum.</t>
         </is>
       </c>
       <c r="B1343" t="inlineStr"/>
@@ -20647,7 +20647,7 @@
     <row r="1344">
       <c r="A1344" t="inlineStr">
         <is>
-          <t>Title: Day Trip to Normandy Beaches and WWII Memorials from Paris</t>
+          <t>Title: American Sector - Omaha &amp; Pointe du Hoc WWII Day Trip from Paris</t>
         </is>
       </c>
       <c r="B1344" t="inlineStr"/>
@@ -20677,7 +20677,7 @@
     <row r="1346">
       <c r="A1346" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1346" t="inlineStr"/>
@@ -20692,7 +20692,7 @@
     <row r="1347">
       <c r="A1347" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 140538P20</t>
+          <t>PRODUCTCODE: 140538P22</t>
         </is>
       </c>
       <c r="B1347" t="inlineStr"/>
@@ -20707,7 +20707,7 @@
     <row r="1348">
       <c r="A1348" t="inlineStr">
         <is>
-          <t>Summarized description: Day trip from Paris covers Normandy’s top WWII-related sites. Visit the landing beaches of Ponte du Hoc and Omaha. Get a first-hand look at military gear and vehicles at the Overlord Museum.</t>
+          <t>Summarized description: Day trip from Paris covers Normandy’s top WWII-related sites. Visit the landing beaches of Ponte du Hoc and Omaha, pay your respects at the American Cemetery. Get a first-hand look at military gear and vehicles at the Overlord Museum.</t>
         </is>
       </c>
       <c r="B1348" t="inlineStr"/>
@@ -20722,7 +20722,7 @@
     <row r="1349">
       <c r="A1349" t="inlineStr">
         <is>
-          <t>Title: American Sector - Omaha &amp; Pointe du Hoc WWII Day Trip from Paris</t>
+          <t>Title: Normandy Omaha Beach, Pointe Du Hoc, American Cemetery Daytrip from Paris</t>
         </is>
       </c>
       <c r="B1349" t="inlineStr"/>
@@ -20752,7 +20752,7 @@
     <row r="1351">
       <c r="A1351" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1351" t="inlineStr"/>
@@ -20767,7 +20767,7 @@
     <row r="1352">
       <c r="A1352" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 140538P22</t>
+          <t>PRODUCTCODE: 142334P1</t>
         </is>
       </c>
       <c r="B1352" t="inlineStr"/>
@@ -20782,7 +20782,7 @@
     <row r="1353">
       <c r="A1353" t="inlineStr">
         <is>
-          <t>Summarized description: Day trip from Paris covers Normandy’s top WWII-related sites. Visit the landing beaches of Ponte du Hoc and Omaha, pay your respects at the American Cemetery. Get a first-hand look at military gear and vehicles at the Overlord Museum.</t>
+          <t>Summarized description: Visit to Normandy D-Day battle sites and U.S landing beaches from Paris. Walk along the Bloody Beach (Omaha) and visit the American War Cemetery.</t>
         </is>
       </c>
       <c r="B1353" t="inlineStr"/>
@@ -20797,7 +20797,7 @@
     <row r="1354">
       <c r="A1354" t="inlineStr">
         <is>
-          <t>Title: Normandy Omaha Beach, Pointe Du Hoc, American Cemetery Daytrip from Paris</t>
+          <t>Title: Pointe du Hoc,Omaha Beach, American Cemetery - Day trip from Paris to Normandy</t>
         </is>
       </c>
       <c r="B1354" t="inlineStr"/>
@@ -20827,7 +20827,7 @@
     <row r="1356">
       <c r="A1356" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1356" t="inlineStr"/>
@@ -20842,7 +20842,7 @@
     <row r="1357">
       <c r="A1357" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 142334P1</t>
+          <t>PRODUCTCODE: 105237P2</t>
         </is>
       </c>
       <c r="B1357" t="inlineStr"/>
@@ -20857,7 +20857,7 @@
     <row r="1358">
       <c r="A1358" t="inlineStr">
         <is>
-          <t>Summarized description: Visit to Normandy D-Day battle sites and U.S landing beaches from Paris. Walk along the Bloody Beach (Omaha) and visit the American War Cemetery.</t>
+          <t>Summarized description: Immerse yourself in the Second World War liberation of Europe. Find out all about the Allied landings on the beaches of Normandy. Follow in the footsteps of those who experienced the war.</t>
         </is>
       </c>
       <c r="B1358" t="inlineStr"/>
@@ -20872,7 +20872,7 @@
     <row r="1359">
       <c r="A1359" t="inlineStr">
         <is>
-          <t>Title: Pointe du Hoc,Omaha Beach, American Cemetery - Day trip from Paris to Normandy</t>
+          <t>Title: Guided Tour to Normandy D Day Beaches from Paris</t>
         </is>
       </c>
       <c r="B1359" t="inlineStr"/>
@@ -20902,7 +20902,7 @@
     <row r="1361">
       <c r="A1361" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1361" t="inlineStr"/>
@@ -20917,7 +20917,7 @@
     <row r="1362">
       <c r="A1362" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6839P95</t>
+          <t>PRODUCTCODE: 105237P1</t>
         </is>
       </c>
       <c r="B1362" t="inlineStr"/>
@@ -20932,7 +20932,7 @@
     <row r="1363">
       <c r="A1363" t="inlineStr">
         <is>
-          <t>Summarized description: During your stay in Paris, relive the Allied landings of 6 June 1944 by visiting the beaches in Normandy. You will be aboard an air-conditioned car or bus, accompanied by a guide who is an expert in WW2.</t>
+          <t>Summarized description: Immerse yourself in the Second World War liberation of Europe. Find out all about the Allied landings on the beaches of Normandy. Follow in the footsteps of those who experienced the war.</t>
         </is>
       </c>
       <c r="B1363" t="inlineStr"/>
@@ -20947,7 +20947,7 @@
     <row r="1364">
       <c r="A1364" t="inlineStr">
         <is>
-          <t>Title: Normandy Beaches Experience by coach from Paris</t>
+          <t>Title: Guided Tour to Normandy D Day Beaches from Paris</t>
         </is>
       </c>
       <c r="B1364" t="inlineStr"/>
@@ -20977,7 +20977,7 @@
     <row r="1366">
       <c r="A1366" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1366" t="inlineStr"/>
@@ -20992,7 +20992,7 @@
     <row r="1367">
       <c r="A1367" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 105237P2</t>
+          <t>PRODUCTCODE: 253419P3</t>
         </is>
       </c>
       <c r="B1367" t="inlineStr"/>
@@ -21007,7 +21007,7 @@
     <row r="1368">
       <c r="A1368" t="inlineStr">
         <is>
-          <t>Summarized description: Immerse yourself in the Second World War liberation of Europe. Find out all about the Allied landings on the beaches of Normandy. Follow in the footsteps of those who experienced the war.</t>
+          <t>Summarized description: Unique tour of the DDAY sites in Normandy, from Paris. Normandy born licensed tour guide, specialized in Norman history. Carefully chosenDDAY sites for a comprehensive overview of Operation Overlord.</t>
         </is>
       </c>
       <c r="B1368" t="inlineStr"/>
@@ -21022,7 +21022,7 @@
     <row r="1369">
       <c r="A1369" t="inlineStr">
         <is>
-          <t>Title: Guided Tour to Normandy D Day Beaches from Paris</t>
+          <t>Title: Private Normandy Tour DDAY Beaches from Paris</t>
         </is>
       </c>
       <c r="B1369" t="inlineStr"/>
@@ -21052,7 +21052,7 @@
     <row r="1371">
       <c r="A1371" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1371" t="inlineStr"/>
@@ -21067,7 +21067,7 @@
     <row r="1372">
       <c r="A1372" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 105237P1</t>
+          <t>PRODUCTCODE: 108258P5</t>
         </is>
       </c>
       <c r="B1372" t="inlineStr"/>
@@ -21082,7 +21082,7 @@
     <row r="1373">
       <c r="A1373" t="inlineStr">
         <is>
-          <t>Summarized description: Immerse yourself in the Second World War liberation of Europe. Find out all about the Allied landings on the beaches of Normandy. Follow in the footsteps of those who experienced the war.</t>
+          <t>Summarized description: The driver will pick you from your place to bring you to the Landing beaches and the returning to your place is included. Hot Spots : American Cemetery, Memorial Museum of Omaha Beach, Overlord Musem, beaches, etc...</t>
         </is>
       </c>
       <c r="B1373" t="inlineStr"/>
@@ -21097,7 +21097,7 @@
     <row r="1374">
       <c r="A1374" t="inlineStr">
         <is>
-          <t>Title: Guided Tour to Normandy D Day Beaches from Paris</t>
+          <t>Title: Normandy Landing Beaches - Private Trip</t>
         </is>
       </c>
       <c r="B1374" t="inlineStr"/>
@@ -21127,7 +21127,7 @@
     <row r="1376">
       <c r="A1376" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1376" t="inlineStr"/>
@@ -21142,7 +21142,7 @@
     <row r="1377">
       <c r="A1377" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 253419P3</t>
+          <t>PRODUCTCODE: 248877P32</t>
         </is>
       </c>
       <c r="B1377" t="inlineStr"/>
@@ -21157,7 +21157,7 @@
     <row r="1378">
       <c r="A1378" t="inlineStr">
         <is>
-          <t>Summarized description: Unique tour of the DDAY sites in Normandy, from Paris. Normandy born licensed tour guide, specialized in Norman history. Carefully chosenDDAY sites for a comprehensive overview of Operation Overlord.</t>
+          <t>Summarized description: The Normandy landings were the landing operations on Tuesday, 6 June 1944 of the Allied invasion of Normandy in Operation Overlord during World War II. Enjoy a guided tour of the Caen Memorial Museum, visit the American Cemetery in Saint Laurent, and see other important sites.</t>
         </is>
       </c>
       <c r="B1378" t="inlineStr"/>
@@ -21172,7 +21172,7 @@
     <row r="1379">
       <c r="A1379" t="inlineStr">
         <is>
-          <t>Title: Private Normandy Tour DDAY Beaches from Paris</t>
+          <t>Title: From Paris : Exclusive Normandy D-Day Beaches Day Trip (with Live Guide)</t>
         </is>
       </c>
       <c r="B1379" t="inlineStr"/>
@@ -21202,7 +21202,7 @@
     <row r="1381">
       <c r="A1381" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1381" t="inlineStr"/>
@@ -21217,7 +21217,7 @@
     <row r="1382">
       <c r="A1382" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 108258P5</t>
+          <t>PRODUCTCODE: 142334P12</t>
         </is>
       </c>
       <c r="B1382" t="inlineStr"/>
@@ -21232,7 +21232,7 @@
     <row r="1383">
       <c r="A1383" t="inlineStr">
         <is>
-          <t>Summarized description: The driver will pick you from your place to bring you to the Landing beaches and the returning to your place is included. Hot Spots : American Cemetery, Memorial Museum of Omaha Beach, Overlord Musem, beaches, etc...</t>
+          <t>Summarized description: Omaha Beach is a popular tourist destination in the United States. Travel with your own group of passengers (7 travellers) aboard a Private Air conditioned Minivan.</t>
         </is>
       </c>
       <c r="B1383" t="inlineStr"/>
@@ -21247,7 +21247,7 @@
     <row r="1384">
       <c r="A1384" t="inlineStr">
         <is>
-          <t>Title: Normandy Landing Beaches - Private Trip</t>
+          <t xml:space="preserve">Title: Day trip from Paris to Omaha Beach, American Cemetery - Private Tour (7 pax) </t>
         </is>
       </c>
       <c r="B1384" t="inlineStr"/>
@@ -21277,7 +21277,7 @@
     <row r="1386">
       <c r="A1386" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'Transportation &amp; Travel Services']</t>
         </is>
       </c>
       <c r="B1386" t="inlineStr"/>
@@ -21292,7 +21292,7 @@
     <row r="1387">
       <c r="A1387" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 248877P32</t>
+          <t>PRODUCTCODE: 22311P6</t>
         </is>
       </c>
       <c r="B1387" t="inlineStr"/>
@@ -21307,7 +21307,7 @@
     <row r="1388">
       <c r="A1388" t="inlineStr">
         <is>
-          <t>Summarized description: The Normandy landings were the landing operations on Tuesday, 6 June 1944 of the Allied invasion of Normandy in Operation Overlord during World War II. Enjoy a guided tour of the Caen Memorial Museum, visit the American Cemetery in Saint Laurent, and see other important sites.</t>
+          <t>Summarized description: Dive into the heartrending history of WWII with a private guide. About 2h30 after your pick-up, you will be at the American cemetery of Normandy. Facing the graves of thousands of soldiers.</t>
         </is>
       </c>
       <c r="B1388" t="inlineStr"/>
@@ -21322,7 +21322,7 @@
     <row r="1389">
       <c r="A1389" t="inlineStr">
         <is>
-          <t>Title: From Paris : Exclusive Normandy D-Day Beaches Day Trip (with Live Guide)</t>
+          <t xml:space="preserve">Title: Normandy D day beaches day tour from Paris hotel- Private tour </t>
         </is>
       </c>
       <c r="B1389" t="inlineStr"/>
@@ -21352,7 +21352,7 @@
     <row r="1391">
       <c r="A1391" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1391" t="inlineStr"/>
@@ -21367,7 +21367,7 @@
     <row r="1392">
       <c r="A1392" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 142334P12</t>
+          <t>PRODUCTCODE: 218758P5</t>
         </is>
       </c>
       <c r="B1392" t="inlineStr"/>
@@ -21382,7 +21382,7 @@
     <row r="1393">
       <c r="A1393" t="inlineStr">
         <is>
-          <t>Summarized description: Omaha Beach is a popular tourist destination in the United States. Travel with your own group of passengers (7 travellers) aboard a Private Air conditioned Minivan.</t>
+          <t>Summarized description: The Normandy region is famous for producing cider, calvados liquor, Camembert cheese and medieval cities. A full day dedicated to memory of the heroes of the last world war.</t>
         </is>
       </c>
       <c r="B1393" t="inlineStr"/>
@@ -21397,7 +21397,7 @@
     <row r="1394">
       <c r="A1394" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Day trip from Paris to Omaha Beach, American Cemetery - Private Tour (7 pax) </t>
+          <t>Title: Normandy / D-Day Landing Beaches with Minivan</t>
         </is>
       </c>
       <c r="B1394" t="inlineStr"/>
@@ -21427,7 +21427,7 @@
     <row r="1396">
       <c r="A1396" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Transportation &amp; Travel Services', 'Historical Tours']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B1396" t="inlineStr"/>
@@ -21442,7 +21442,7 @@
     <row r="1397">
       <c r="A1397" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 22311P6</t>
+          <t>PRODUCTCODE: 6839P93</t>
         </is>
       </c>
       <c r="B1397" t="inlineStr"/>
@@ -21457,7 +21457,7 @@
     <row r="1398">
       <c r="A1398" t="inlineStr">
         <is>
-          <t>Summarized description: Dive into the heartrending history of WWII with a private guide. About 2h30 after your pick-up, you will be at the American cemetery of Normandy. Facing the graves of thousands of soldiers.</t>
+          <t>Summarized description: D-Day landing beaches in Normandy are a must-see during your stay in Paris. Take a 2-hour train ride to visit the beaches and the American Cemetery.</t>
         </is>
       </c>
       <c r="B1398" t="inlineStr"/>
@@ -21472,7 +21472,7 @@
     <row r="1399">
       <c r="A1399" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Normandy D day beaches day tour from Paris hotel- Private tour </t>
+          <t>Title: Normandy DDay Tour from Paris by train</t>
         </is>
       </c>
       <c r="B1399" t="inlineStr"/>
@@ -21517,7 +21517,7 @@
     <row r="1402">
       <c r="A1402" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 218758P5</t>
+          <t>PRODUCTCODE: 268293P132</t>
         </is>
       </c>
       <c r="B1402" t="inlineStr"/>
@@ -21532,7 +21532,7 @@
     <row r="1403">
       <c r="A1403" t="inlineStr">
         <is>
-          <t>Summarized description: The Normandy region is famous for producing cider, calvados liquor, Camembert cheese and medieval cities. A full day dedicated to memory of the heroes of the last world war.</t>
+          <t>Summarized description: Mercedes E220 business-class car for 2-3 people or Mercedes minivan for 3-7 people. Tiered pricing. Hotel Pick up and Drop off included. Live-guided from 4 people. Best anti-war Caen Memorial and Museum. 360 Circular Cinema with very impressive documentary. Arromanches-les-Bains Viewpoint over artificial D-Day harbour. Omaha Beaches with Signal Monument. Normandy American Cemetery in Colleville-sur-Mer. Pointe du Hoc Rangers Monument with fortifications. Overlord Museum with big collections of WW2 artifacts.</t>
         </is>
       </c>
       <c r="B1403" t="inlineStr"/>
@@ -21547,7 +21547,7 @@
     <row r="1404">
       <c r="A1404" t="inlineStr">
         <is>
-          <t>Title: Normandy / D-Day Landing Beaches with Minivan</t>
+          <t>Title: Private Normandy D-Day Omaha Beaches Top 6 Sights trip from Paris</t>
         </is>
       </c>
       <c r="B1404" t="inlineStr"/>
@@ -21577,7 +21577,7 @@
     <row r="1406">
       <c r="A1406" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1406" t="inlineStr"/>
@@ -21592,7 +21592,7 @@
     <row r="1407">
       <c r="A1407" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 268293P132</t>
+          <t>PRODUCTCODE: 2050P342</t>
         </is>
       </c>
       <c r="B1407" t="inlineStr"/>
@@ -21607,7 +21607,7 @@
     <row r="1408">
       <c r="A1408" t="inlineStr">
         <is>
-          <t>Summarized description: Mercedes E220 business-class car for 2-3 people or Mercedes minivan for 3-7 people. Tiered pricing. Hotel Pick up and Drop off included. Live-guided from 4 people. Best anti-war Caen Memorial and Museum. 360 Circular Cinema with very impressive documentary. Arromanches-les-Bains Viewpoint over artificial D-Day harbour. Omaha Beaches with Signal Monument. Normandy American Cemetery in Colleville-sur-Mer. Pointe du Hoc Rangers Monument with fortifications. Overlord Museum with big collections of WW2 artifacts.</t>
+          <t>Summarized description: The Omaha Beach and its visitor center to learn stories and historical facts about the events in Normandy. A walk through the American Cemetery dedicated to honor the fallen heroes of the U.S.</t>
         </is>
       </c>
       <c r="B1408" t="inlineStr"/>
@@ -21622,7 +21622,7 @@
     <row r="1409">
       <c r="A1409" t="inlineStr">
         <is>
-          <t>Title: Private Normandy D-Day Omaha Beaches Top 6 Sights trip from Paris</t>
+          <t>Title: Intimate Guided Normandy Tour from Paris with Hotel Transfers - GROUP OPTION</t>
         </is>
       </c>
       <c r="B1409" t="inlineStr"/>
@@ -21652,7 +21652,7 @@
     <row r="1411">
       <c r="A1411" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1411" t="inlineStr"/>
@@ -21667,7 +21667,7 @@
     <row r="1412">
       <c r="A1412" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2050P342</t>
+          <t>PRODUCTCODE: 13437P56</t>
         </is>
       </c>
       <c r="B1412" t="inlineStr"/>
@@ -21682,7 +21682,7 @@
     <row r="1413">
       <c r="A1413" t="inlineStr">
         <is>
-          <t>Summarized description: The Omaha Beach and its visitor center to learn stories and historical facts about the events in Normandy. A walk through the American Cemetery dedicated to honor the fallen heroes of the U.S.</t>
+          <t>Summarized description: Discover the beaches of Normandy in France. Discover the history of the landings. Discover some of the most famous sites. Discover how to get to the beaches.</t>
         </is>
       </c>
       <c r="B1413" t="inlineStr"/>
@@ -21697,7 +21697,7 @@
     <row r="1414">
       <c r="A1414" t="inlineStr">
         <is>
-          <t>Title: Intimate Guided Normandy Tour from Paris with Hotel Transfers - GROUP OPTION</t>
+          <t>Title: Customized Private D Day Normandy Landing Tour from Paris - Group Option</t>
         </is>
       </c>
       <c r="B1414" t="inlineStr"/>
@@ -21727,7 +21727,7 @@
     <row r="1416">
       <c r="A1416" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1416" t="inlineStr"/>
@@ -21742,7 +21742,7 @@
     <row r="1417">
       <c r="A1417" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 13437P56</t>
+          <t>PRODUCTCODE: 15619P8</t>
         </is>
       </c>
       <c r="B1417" t="inlineStr"/>
@@ -21757,7 +21757,7 @@
     <row r="1418">
       <c r="A1418" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the beaches of Normandy in France. Discover the history of the landings. Discover some of the most famous sites. Discover how to get to the beaches.</t>
+          <t>Summarized description: Discover the French region of Normandy on a day trip from Paris with services of private driver AND guide. Immerse yourself in one of the major historical events of our time.</t>
         </is>
       </c>
       <c r="B1418" t="inlineStr"/>
@@ -21772,7 +21772,7 @@
     <row r="1419">
       <c r="A1419" t="inlineStr">
         <is>
-          <t>Title: Customized Private D Day Normandy Landing Tour from Paris - Group Option</t>
+          <t>Title: D-Day landing beaches from Paris with private driver and guide</t>
         </is>
       </c>
       <c r="B1419" t="inlineStr"/>
@@ -21802,7 +21802,7 @@
     <row r="1421">
       <c r="A1421" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1421" t="inlineStr"/>
@@ -21817,7 +21817,7 @@
     <row r="1422">
       <c r="A1422" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15619P8</t>
+          <t>*****</t>
         </is>
       </c>
       <c r="B1422" t="inlineStr"/>
@@ -21829,81 +21829,6 @@
       <c r="H1422" t="inlineStr"/>
       <c r="I1422" t="inlineStr"/>
     </row>
-    <row r="1423">
-      <c r="A1423" t="inlineStr">
-        <is>
-          <t>Summarized description: Discover the French region of Normandy on a day trip from Paris with services of private driver AND guide. Immerse yourself in one of the major historical events of our time.</t>
-        </is>
-      </c>
-      <c r="B1423" t="inlineStr"/>
-      <c r="C1423" t="inlineStr"/>
-      <c r="D1423" t="inlineStr"/>
-      <c r="E1423" t="inlineStr"/>
-      <c r="F1423" t="inlineStr"/>
-      <c r="G1423" t="inlineStr"/>
-      <c r="H1423" t="inlineStr"/>
-      <c r="I1423" t="inlineStr"/>
-    </row>
-    <row r="1424">
-      <c r="A1424" t="inlineStr">
-        <is>
-          <t>Title: D-Day landing beaches from Paris with private driver and guide</t>
-        </is>
-      </c>
-      <c r="B1424" t="inlineStr"/>
-      <c r="C1424" t="inlineStr"/>
-      <c r="D1424" t="inlineStr"/>
-      <c r="E1424" t="inlineStr"/>
-      <c r="F1424" t="inlineStr"/>
-      <c r="G1424" t="inlineStr"/>
-      <c r="H1424" t="inlineStr"/>
-      <c r="I1424" t="inlineStr"/>
-    </row>
-    <row r="1425">
-      <c r="A1425" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1425" t="inlineStr"/>
-      <c r="C1425" t="inlineStr"/>
-      <c r="D1425" t="inlineStr"/>
-      <c r="E1425" t="inlineStr"/>
-      <c r="F1425" t="inlineStr"/>
-      <c r="G1425" t="inlineStr"/>
-      <c r="H1425" t="inlineStr"/>
-      <c r="I1425" t="inlineStr"/>
-    </row>
-    <row r="1426">
-      <c r="A1426" t="inlineStr">
-        <is>
-          <t>Category: ['Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1426" t="inlineStr"/>
-      <c r="C1426" t="inlineStr"/>
-      <c r="D1426" t="inlineStr"/>
-      <c r="E1426" t="inlineStr"/>
-      <c r="F1426" t="inlineStr"/>
-      <c r="G1426" t="inlineStr"/>
-      <c r="H1426" t="inlineStr"/>
-      <c r="I1426" t="inlineStr"/>
-    </row>
-    <row r="1427">
-      <c r="A1427" t="inlineStr">
-        <is>
-          <t>*****</t>
-        </is>
-      </c>
-      <c r="B1427" t="inlineStr"/>
-      <c r="C1427" t="inlineStr"/>
-      <c r="D1427" t="inlineStr"/>
-      <c r="E1427" t="inlineStr"/>
-      <c r="F1427" t="inlineStr"/>
-      <c r="G1427" t="inlineStr"/>
-      <c r="H1427" t="inlineStr"/>
-      <c r="I1427" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/experiment_results/7249P9.xlsx
+++ b/experiment_results/7249P9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1422"/>
+  <dimension ref="A1:I1407"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -696,7 +696,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Culinary Tours', 'Museums']</t>
+          <t>Category: ['Culinary Tours', 'Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -1896,7 +1896,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Museums']</t>
+          <t>Category: ['Historical Tours', 'Museums', 'City Tours']</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
@@ -2796,7 +2796,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Museums']</t>
+          <t>Category: ['Historical Tours', 'Museums', 'City Tours']</t>
         </is>
       </c>
       <c r="B154" t="inlineStr"/>
@@ -3096,7 +3096,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Museums']</t>
+          <t>Category: ['Historical Tours', 'Museums', 'City Tours']</t>
         </is>
       </c>
       <c r="B174" t="inlineStr"/>
@@ -3246,7 +3246,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Museums']</t>
+          <t>Category: ['Historical Tours', 'Museums', 'City Tours']</t>
         </is>
       </c>
       <c r="B184" t="inlineStr"/>
@@ -4521,7 +4521,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B269" t="inlineStr"/>
@@ -4896,7 +4896,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours', 'Eco-Tours']</t>
+          <t>Category: ['Historical Tours', 'Eco-Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B294" t="inlineStr"/>
@@ -5421,7 +5421,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Museums']</t>
+          <t>Category: ['Historical Tours', 'Museums', 'City Tours']</t>
         </is>
       </c>
       <c r="B329" t="inlineStr"/>
@@ -5721,7 +5721,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'City Tours']</t>
         </is>
       </c>
       <c r="B349" t="inlineStr"/>
@@ -5946,7 +5946,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B364" t="inlineStr"/>
@@ -6096,7 +6096,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Museums']</t>
+          <t>Category: ['Historical Tours', 'Museums', 'City Tours']</t>
         </is>
       </c>
       <c r="B374" t="inlineStr"/>
@@ -7896,7 +7896,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B494" t="inlineStr"/>
@@ -8196,7 +8196,7 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B514" t="inlineStr"/>
@@ -8646,7 +8646,7 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises', 'Museums']</t>
+          <t>Category: ['Cultural Cruises', 'Museums', 'City Tours']</t>
         </is>
       </c>
       <c r="B544" t="inlineStr"/>
@@ -8796,7 +8796,7 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B554" t="inlineStr"/>
@@ -9246,7 +9246,7 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B584" t="inlineStr"/>
@@ -9921,7 +9921,7 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B629" t="inlineStr"/>
@@ -10221,7 +10221,7 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B649" t="inlineStr"/>
@@ -10521,7 +10521,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B669" t="inlineStr"/>
@@ -10596,7 +10596,7 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B674" t="inlineStr"/>
@@ -10671,7 +10671,7 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B679" t="inlineStr"/>
@@ -11196,7 +11196,7 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B714" t="inlineStr"/>
@@ -12321,7 +12321,7 @@
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B789" t="inlineStr"/>
@@ -15352,7 +15352,7 @@
     <row r="991">
       <c r="A991" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Culinary Tours', 'Museums']</t>
+          <t>Category: ['Culinary Tours', 'Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B991" t="inlineStr"/>
@@ -16402,7 +16402,7 @@
     <row r="1061">
       <c r="A1061" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Museums']</t>
+          <t>Category: ['Historical Tours', 'Museums', 'City Tours']</t>
         </is>
       </c>
       <c r="B1061" t="inlineStr"/>
@@ -16627,7 +16627,7 @@
     <row r="1076">
       <c r="A1076" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Museums']</t>
+          <t>Category: ['Historical Tours', 'Museums', 'City Tours']</t>
         </is>
       </c>
       <c r="B1076" t="inlineStr"/>
@@ -16942,7 +16942,7 @@
     <row r="1097">
       <c r="A1097" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 24124P5</t>
+          <t>PRODUCTCODE: 382111P7</t>
         </is>
       </c>
       <c r="B1097" t="inlineStr"/>
@@ -16957,7 +16957,7 @@
     <row r="1098">
       <c r="A1098" t="inlineStr">
         <is>
-          <t>Summarized description: Dive into the WWII History with your English-speaking expert guide and driver. Enjoy a Full -Day tour to the Landing Beaches of Normandy from your hotel or apartment in Paris.</t>
+          <t>Summarized description: Immerse yourself in World War II history for a day and feel the suffering and sorrow of the most devastating war in human history. Gain fascinating insights from your guide into the sacrifices of Allied soldiers.</t>
         </is>
       </c>
       <c r="B1098" t="inlineStr"/>
@@ -16972,7 +16972,7 @@
     <row r="1099">
       <c r="A1099" t="inlineStr">
         <is>
-          <t>Title: A Day in Normandy Landing Beaches of WWII with Private Guide</t>
+          <t>Title: D-day beaches Private Guided Tour Omaha, Utah P. du Hoc, Caen</t>
         </is>
       </c>
       <c r="B1099" t="inlineStr"/>
@@ -16987,7 +16987,7 @@
     <row r="1100">
       <c r="A1100" t="inlineStr">
         <is>
-          <t>TotalReviews: 5</t>
+          <t>TotalReviews: 6</t>
         </is>
       </c>
       <c r="B1100" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
     <row r="1102">
       <c r="A1102" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 145891P2</t>
+          <t>PRODUCTCODE: 24124P5</t>
         </is>
       </c>
       <c r="B1102" t="inlineStr"/>
@@ -17032,7 +17032,7 @@
     <row r="1103">
       <c r="A1103" t="inlineStr">
         <is>
-          <t>Summarized description:  Normandy is a breathtaking region of France that is steeped in an incredibly rich history. On June 6th, 1944, which we call D-Day, the beaches of Normandy played host to a pivotal moment in the Second World War. Around 132,000 soldiers, 11,590 planes, and 6,539 ships launched a comprehensive attack.</t>
+          <t>Summarized description: Dive into the WWII History with your English-speaking expert guide and driver. Enjoy a Full -Day tour to the Landing Beaches of Normandy from your hotel or apartment in Paris.</t>
         </is>
       </c>
       <c r="B1103" t="inlineStr"/>
@@ -17047,7 +17047,7 @@
     <row r="1104">
       <c r="A1104" t="inlineStr">
         <is>
-          <t>Title: Private Normandy DDay Tour - All inclusive full day</t>
+          <t>Title: A Day in Normandy Landing Beaches of WWII with Private Guide</t>
         </is>
       </c>
       <c r="B1104" t="inlineStr"/>
@@ -17077,7 +17077,7 @@
     <row r="1106">
       <c r="A1106" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1106" t="inlineStr"/>
@@ -17092,7 +17092,7 @@
     <row r="1107">
       <c r="A1107" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 116778P5</t>
+          <t>PRODUCTCODE: 145891P2</t>
         </is>
       </c>
       <c r="B1107" t="inlineStr"/>
@@ -17107,7 +17107,7 @@
     <row r="1108">
       <c r="A1108" t="inlineStr">
         <is>
-          <t>Summarized description: Walk in the footsteps of allied soldiers, visit original German bunkers, and travel back in time at the Sainte-Mère-Église Museum. Gaze down from the Pointe-Du-Hoc memorial more than 100m above sea level.</t>
+          <t>Summarized description:  Normandy is a breathtaking region of France that is steeped in an incredibly rich history. On June 6th, 1944, which we call D-Day, the beaches of Normandy played host to a pivotal moment in the Second World War. Around 132,000 soldiers, 11,590 planes, and 6,539 ships launched a comprehensive attack.</t>
         </is>
       </c>
       <c r="B1108" t="inlineStr"/>
@@ -17122,7 +17122,7 @@
     <row r="1109">
       <c r="A1109" t="inlineStr">
         <is>
-          <t>Title: From Paris - WWII American Landing Beaches Discovery Private Tour</t>
+          <t>Title: Private Normandy DDay Tour - All inclusive full day</t>
         </is>
       </c>
       <c r="B1109" t="inlineStr"/>
@@ -17152,7 +17152,7 @@
     <row r="1111">
       <c r="A1111" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1111" t="inlineStr"/>
@@ -17167,7 +17167,7 @@
     <row r="1112">
       <c r="A1112" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 66049P43</t>
+          <t>PRODUCTCODE: 116778P5</t>
         </is>
       </c>
       <c r="B1112" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
     <row r="1113">
       <c r="A1113" t="inlineStr">
         <is>
-          <t>Summarized description: D-Day landing beaches of World War II, Pointe Du Hoc, Omaha Beach, American Cemetery, Visitor Center,  and learn stories. Tour includes round-trip transport by car or minivan included.</t>
+          <t>Summarized description: Walk in the footsteps of allied soldiers, visit original German bunkers, and travel back in time at the Sainte-Mère-Église Museum. Gaze down from the Pointe-Du-Hoc memorial more than 100m above sea level.</t>
         </is>
       </c>
       <c r="B1113" t="inlineStr"/>
@@ -17197,7 +17197,7 @@
     <row r="1114">
       <c r="A1114" t="inlineStr">
         <is>
-          <t>Title: Normandy D-Day Beaches Omaha, Pointe du Hoc &amp; American Cemetery</t>
+          <t>Title: From Paris - WWII American Landing Beaches Discovery Private Tour</t>
         </is>
       </c>
       <c r="B1114" t="inlineStr"/>
@@ -17227,7 +17227,7 @@
     <row r="1116">
       <c r="A1116" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1116" t="inlineStr"/>
@@ -17242,7 +17242,7 @@
     <row r="1117">
       <c r="A1117" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 17417P16</t>
+          <t>PRODUCTCODE: 66049P43</t>
         </is>
       </c>
       <c r="B1117" t="inlineStr"/>
@@ -17257,7 +17257,7 @@
     <row r="1118">
       <c r="A1118" t="inlineStr">
         <is>
-          <t>Summarized description: D-Day beaches include Mulberry Harbour, Longues sur Mer, Omaha Beach and of course the American Cemetery in Colleville sur Mer. Explore on a day tour of the D-Day Beaches.</t>
+          <t>Summarized description: D-Day landing beaches of World War II, Pointe Du Hoc, Omaha Beach, American Cemetery, Visitor Center,  and learn stories. Tour includes round-trip transport by car or minivan included.</t>
         </is>
       </c>
       <c r="B1118" t="inlineStr"/>
@@ -17272,7 +17272,7 @@
     <row r="1119">
       <c r="A1119" t="inlineStr">
         <is>
-          <t>Title: Private Tour: D-Day Beaches from Paris</t>
+          <t>Title: Normandy D-Day Beaches Omaha, Pointe du Hoc &amp; American Cemetery</t>
         </is>
       </c>
       <c r="B1119" t="inlineStr"/>
@@ -17302,7 +17302,7 @@
     <row r="1121">
       <c r="A1121" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1121" t="inlineStr"/>
@@ -17317,7 +17317,7 @@
     <row r="1122">
       <c r="A1122" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 114983P3</t>
+          <t>PRODUCTCODE: 17417P16</t>
         </is>
       </c>
       <c r="B1122" t="inlineStr"/>
@@ -17332,7 +17332,7 @@
     <row r="1123">
       <c r="A1123" t="inlineStr">
         <is>
-          <t>Summarized description:  Normandy Dday &amp; Terroir Tour from Paris 100% all inclusive. Walk in the footsteps of the Heroes who changed the World. Learn more about WWII and the strategic region of Normandy.</t>
+          <t>Summarized description: D-Day beaches include Mulberry Harbour, Longues sur Mer, Omaha Beach and of course the American Cemetery in Colleville sur Mer. Explore on a day tour of the D-Day Beaches.</t>
         </is>
       </c>
       <c r="B1123" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
     <row r="1124">
       <c r="A1124" t="inlineStr">
         <is>
-          <t>Title: Exclusive day trip to Normandy from Paris incl. Dday &amp; terroir</t>
+          <t>Title: Private Tour: D-Day Beaches from Paris</t>
         </is>
       </c>
       <c r="B1124" t="inlineStr"/>
@@ -17362,7 +17362,7 @@
     <row r="1125">
       <c r="A1125" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 5</t>
         </is>
       </c>
       <c r="B1125" t="inlineStr"/>
@@ -17377,7 +17377,7 @@
     <row r="1126">
       <c r="A1126" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours', 'Eco-Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1126" t="inlineStr"/>
@@ -17392,7 +17392,7 @@
     <row r="1127">
       <c r="A1127" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 69834P5</t>
+          <t>PRODUCTCODE: 114983P3</t>
         </is>
       </c>
       <c r="B1127" t="inlineStr"/>
@@ -17407,7 +17407,7 @@
     <row r="1128">
       <c r="A1128" t="inlineStr">
         <is>
-          <t>Summarized description: A guided tour to the largest sites of the Normandy landings in June 1944. Stop at Pointe du Hoc with its bunkers and bombs craters, where the famous scene of cliff climbing of "The longest day" was shot. Then visit Omaha Beach, with bunkers fitted with anti tank guns, the "Overlord Museum" with a lot of tanks.</t>
+          <t>Summarized description:  Normandy Dday &amp; Terroir Tour from Paris 100% all inclusive. Walk in the footsteps of the Heroes who changed the World. Learn more about WWII and the strategic region of Normandy.</t>
         </is>
       </c>
       <c r="B1128" t="inlineStr"/>
@@ -17422,7 +17422,7 @@
     <row r="1129">
       <c r="A1129" t="inlineStr">
         <is>
-          <t>Title: Guided Private Tour of Normandy D-Day Beaches and Battlefields from Paris</t>
+          <t>Title: Exclusive day trip to Normandy from Paris incl. Dday &amp; terroir</t>
         </is>
       </c>
       <c r="B1129" t="inlineStr"/>
@@ -17452,7 +17452,7 @@
     <row r="1131">
       <c r="A1131" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Historical Tours', 'Eco-Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1131" t="inlineStr"/>
@@ -17467,7 +17467,7 @@
     <row r="1132">
       <c r="A1132" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 66049P42</t>
+          <t>PRODUCTCODE: 69834P5</t>
         </is>
       </c>
       <c r="B1132" t="inlineStr"/>
@@ -17482,7 +17482,7 @@
     <row r="1133">
       <c r="A1133" t="inlineStr">
         <is>
-          <t>Summarized description: Lunch is not included in the price but we have time to take it at the restaurants on Omaha Beach. Explore Normandy coast, the D-Day landing beaches of World War II and visit Pointe du Hoc, Omaha Beach, American Cemetery.</t>
+          <t>Summarized description: A guided tour to the largest sites of the Normandy landings in June 1944. Stop at Pointe du Hoc with its bunkers and bombs craters, where the famous scene of cliff climbing of "The longest day" was shot. Then visit Omaha Beach, with bunkers fitted with anti tank guns, the "Overlord Museum" with a lot of tanks.</t>
         </is>
       </c>
       <c r="B1133" t="inlineStr"/>
@@ -17497,7 +17497,7 @@
     <row r="1134">
       <c r="A1134" t="inlineStr">
         <is>
-          <t>Title: Normandy D-Day Landing Beaches Day Trip from Paris</t>
+          <t>Title: Guided Private Tour of Normandy D-Day Beaches and Battlefields from Paris</t>
         </is>
       </c>
       <c r="B1134" t="inlineStr"/>
@@ -17542,7 +17542,7 @@
     <row r="1137">
       <c r="A1137" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5045P57</t>
+          <t>PRODUCTCODE: 66049P42</t>
         </is>
       </c>
       <c r="B1137" t="inlineStr"/>
@@ -17557,7 +17557,7 @@
     <row r="1138">
       <c r="A1138" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the Normandy D-Day sites on a private day-trip, leaving right from the doorstep of your Paris Accomodation. Your will travel in the comfort of a private vehicle with your personal driver/guide.</t>
+          <t>Summarized description: Lunch is not included in the price but we have time to take it at the restaurants on Omaha Beach. Explore Normandy coast, the D-Day landing beaches of World War II and visit Pointe du Hoc, Omaha Beach, American Cemetery.</t>
         </is>
       </c>
       <c r="B1138" t="inlineStr"/>
@@ -17572,7 +17572,7 @@
     <row r="1139">
       <c r="A1139" t="inlineStr">
         <is>
-          <t>Title: Normandy D-Day Beaches Private Day Trip with American Cemetery &amp; Omaha Beach</t>
+          <t>Title: Normandy D-Day Landing Beaches Day Trip from Paris</t>
         </is>
       </c>
       <c r="B1139" t="inlineStr"/>
@@ -17602,7 +17602,7 @@
     <row r="1141">
       <c r="A1141" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1141" t="inlineStr"/>
@@ -17617,7 +17617,7 @@
     <row r="1142">
       <c r="A1142" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 66049P57</t>
+          <t>PRODUCTCODE: 5045P57</t>
         </is>
       </c>
       <c r="B1142" t="inlineStr"/>
@@ -17632,7 +17632,7 @@
     <row r="1143">
       <c r="A1143" t="inlineStr">
         <is>
-          <t>Summarized description: D-Day landing beaches of World War II, Pointe Du Hoc, Omaha Beach, American Cemetery, Omaha Beach Visitor Center. Learn stories about the World War Two and visit Overlord Museum.</t>
+          <t>Summarized description: Discover the Normandy D-Day sites on a private day-trip, leaving right from the doorstep of your Paris Accomodation. Your will travel in the comfort of a private vehicle with your personal driver/guide.</t>
         </is>
       </c>
       <c r="B1143" t="inlineStr"/>
@@ -17647,7 +17647,7 @@
     <row r="1144">
       <c r="A1144" t="inlineStr">
         <is>
-          <t>Title: Private Trip to Omaha Beach Pointe du Hoc American Cemetery</t>
+          <t>Title: Normandy D-Day Beaches Private Day Trip with American Cemetery &amp; Omaha Beach</t>
         </is>
       </c>
       <c r="B1144" t="inlineStr"/>
@@ -17662,7 +17662,7 @@
     <row r="1145">
       <c r="A1145" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B1145" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
     <row r="1146">
       <c r="A1146" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1146" t="inlineStr"/>
@@ -17692,7 +17692,7 @@
     <row r="1147">
       <c r="A1147" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 268293P133</t>
+          <t>PRODUCTCODE: 66049P57</t>
         </is>
       </c>
       <c r="B1147" t="inlineStr"/>
@@ -17707,7 +17707,7 @@
     <row r="1148">
       <c r="A1148" t="inlineStr">
         <is>
-          <t>Summarized description: Small group full-day trip for 2 to 7 people to the top sites of Omaha and Utah Normandy D-Day Beaches by Mercedes. Live-guided from 4 people. Hotel pick-up and drop-off are included.</t>
+          <t>Summarized description: D-Day landing beaches of World War II, Pointe Du Hoc, Omaha Beach, American Cemetery, Omaha Beach Visitor Center. Learn stories about the World War Two and visit Overlord Museum.</t>
         </is>
       </c>
       <c r="B1148" t="inlineStr"/>
@@ -17722,7 +17722,7 @@
     <row r="1149">
       <c r="A1149" t="inlineStr">
         <is>
-          <t>Title: Normandy Omaha, Utah Landing Beaches Small-group Trip from Paris</t>
+          <t>Title: Private Trip to Omaha Beach Pointe du Hoc American Cemetery</t>
         </is>
       </c>
       <c r="B1149" t="inlineStr"/>
@@ -17737,7 +17737,7 @@
     <row r="1150">
       <c r="A1150" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1150" t="inlineStr"/>
@@ -17752,7 +17752,7 @@
     <row r="1151">
       <c r="A1151" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1151" t="inlineStr"/>
@@ -17917,7 +17917,7 @@
     <row r="1162">
       <c r="A1162" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5045P54</t>
+          <t>PRODUCTCODE: 13437P41</t>
         </is>
       </c>
       <c r="B1162" t="inlineStr"/>
@@ -17932,7 +17932,7 @@
     <row r="1163">
       <c r="A1163" t="inlineStr">
         <is>
-          <t>Summarized description: D-Day was the largest amphibious military operation in history. Around 156,000 allies troops landed on the beaches of Normandy. Approximately 14,000 Canadians landed in Normandy on D-Day, assaulting a beachfront.</t>
+          <t>Summarized description: Discover the beaches of Normandy in France. Discover the history of the landings. Discover some of the most famous sites. Discover how to get to the beaches.</t>
         </is>
       </c>
       <c r="B1163" t="inlineStr"/>
@@ -17947,7 +17947,7 @@
     <row r="1164">
       <c r="A1164" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Normandy Canadians Sites Day Trip with Juno Beach &amp; Pegasus Bridge from Paris </t>
+          <t>Title: Normandy D Day Landing Customized Private Tour from Paris</t>
         </is>
       </c>
       <c r="B1164" t="inlineStr"/>
@@ -17962,7 +17962,7 @@
     <row r="1165">
       <c r="A1165" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1165" t="inlineStr"/>
@@ -17977,7 +17977,7 @@
     <row r="1166">
       <c r="A1166" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1166" t="inlineStr"/>
@@ -17992,7 +17992,7 @@
     <row r="1167">
       <c r="A1167" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 13437P41</t>
+          <t>PRODUCTCODE: 216622P12</t>
         </is>
       </c>
       <c r="B1167" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
     <row r="1168">
       <c r="A1168" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the beaches of Normandy in France. Discover the history of the landings. Discover some of the most famous sites. Discover how to get to the beaches.</t>
+          <t>Summarized description: The driver will pick you up from your hotel to bring you to the D-Day landing beaches and the return to your hotel is included. You can move anywhere from the local point (Restaurant, etc ...), the driver will take you there.</t>
         </is>
       </c>
       <c r="B1168" t="inlineStr"/>
@@ -18022,7 +18022,7 @@
     <row r="1169">
       <c r="A1169" t="inlineStr">
         <is>
-          <t>Title: Normandy D Day Landing Customized Private Tour from Paris</t>
+          <t>Title: Private tour of the D-Day landing beaches from Paris</t>
         </is>
       </c>
       <c r="B1169" t="inlineStr"/>
@@ -18067,7 +18067,7 @@
     <row r="1172">
       <c r="A1172" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 216622P12</t>
+          <t>PRODUCTCODE: 31997P5</t>
         </is>
       </c>
       <c r="B1172" t="inlineStr"/>
@@ -18082,7 +18082,7 @@
     <row r="1173">
       <c r="A1173" t="inlineStr">
         <is>
-          <t>Summarized description: The driver will pick you up from your hotel to bring you to the D-Day landing beaches and the return to your hotel is included. You can move anywhere from the local point (Restaurant, etc ...), the driver will take you there.</t>
+          <t>Summarized description: Bayeux Sightseeing Tours can show you the ‘highlights’ of D-Day, or whatever you want to see, and all possible in one day. This is a tour for people who do not want to share the vehicle with others or have specific interests and sites they want to visit.</t>
         </is>
       </c>
       <c r="B1173" t="inlineStr"/>
@@ -18097,7 +18097,7 @@
     <row r="1174">
       <c r="A1174" t="inlineStr">
         <is>
-          <t>Title: Private tour of the D-Day landing beaches from Paris</t>
+          <t>Title: Paris - Normandy D-Day landing beaches - Full day American sector private tour</t>
         </is>
       </c>
       <c r="B1174" t="inlineStr"/>
@@ -18127,7 +18127,7 @@
     <row r="1176">
       <c r="A1176" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1176" t="inlineStr"/>
@@ -18142,7 +18142,7 @@
     <row r="1177">
       <c r="A1177" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 31997P5</t>
+          <t>PRODUCTCODE: 142334P34</t>
         </is>
       </c>
       <c r="B1177" t="inlineStr"/>
@@ -18157,7 +18157,7 @@
     <row r="1178">
       <c r="A1178" t="inlineStr">
         <is>
-          <t>Summarized description: Bayeux Sightseeing Tours can show you the ‘highlights’ of D-Day, or whatever you want to see, and all possible in one day. This is a tour for people who do not want to share the vehicle with others or have specific interests and sites they want to visit.</t>
+          <t>Summarized description: Your guide will tell you the highlights and events of the "Operation Overlord" and the landing in Normandy on June 06, 1944. Travel with your own group of passengers aboard a comfortable and air-conditioning minivan in a friendly atmosphere.</t>
         </is>
       </c>
       <c r="B1178" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
     <row r="1179">
       <c r="A1179" t="inlineStr">
         <is>
-          <t>Title: Paris - Normandy D-Day landing beaches - Full day American sector private tour</t>
+          <t>Title: Pointe du Hoc, Omaha beach from Paris aboard a van (Private Tour)</t>
         </is>
       </c>
       <c r="B1179" t="inlineStr"/>
@@ -18202,7 +18202,7 @@
     <row r="1181">
       <c r="A1181" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'Transportation &amp; Travel Services']</t>
         </is>
       </c>
       <c r="B1181" t="inlineStr"/>
@@ -18217,7 +18217,7 @@
     <row r="1182">
       <c r="A1182" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 142334P34</t>
+          <t>PRODUCTCODE: 85439P1492</t>
         </is>
       </c>
       <c r="B1182" t="inlineStr"/>
@@ -18232,7 +18232,7 @@
     <row r="1183">
       <c r="A1183" t="inlineStr">
         <is>
-          <t>Summarized description: Your guide will tell you the highlights and events of the "Operation Overlord" and the landing in Normandy on June 06, 1944. Travel with your own group of passengers aboard a comfortable and air-conditioning minivan in a friendly atmosphere.</t>
+          <t>Summarized description: Discover Normandy's D-Day sites from Paris in just one day. Explore Omaha Beach, the American Cemetery, and Arromanches' artificial harbor.</t>
         </is>
       </c>
       <c r="B1183" t="inlineStr"/>
@@ -18247,7 +18247,7 @@
     <row r="1184">
       <c r="A1184" t="inlineStr">
         <is>
-          <t>Title: Pointe du Hoc, Omaha beach from Paris aboard a van (Private Tour)</t>
+          <t>Title: Day Trip: Paris to American Cemetery, Omaha Beach, Pointe du Hoc</t>
         </is>
       </c>
       <c r="B1184" t="inlineStr"/>
@@ -18277,7 +18277,7 @@
     <row r="1186">
       <c r="A1186" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours', 'Transportation &amp; Travel Services']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1186" t="inlineStr"/>
@@ -18292,7 +18292,7 @@
     <row r="1187">
       <c r="A1187" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 85439P1492</t>
+          <t>PRODUCTCODE: 192144P3</t>
         </is>
       </c>
       <c r="B1187" t="inlineStr"/>
@@ -18307,7 +18307,7 @@
     <row r="1188">
       <c r="A1188" t="inlineStr">
         <is>
-          <t>Summarized description: Discover Normandy's D-Day sites from Paris in just one day. Explore Omaha Beach, the American Cemetery, and Arromanches' artificial harbor.</t>
+          <t>Summarized description: Full-day tour will explore the emblematic sites and the landing beaches of D-Day. We will visit the battlefield at La Point du Hoc, where numerous bombs craters still scatter the landscape.</t>
         </is>
       </c>
       <c r="B1188" t="inlineStr"/>
@@ -18322,7 +18322,7 @@
     <row r="1189">
       <c r="A1189" t="inlineStr">
         <is>
-          <t>Title: Day Trip: Paris to American Cemetery, Omaha Beach, Pointe du Hoc</t>
+          <t>Title: Normandy, Omaha Beach &amp; American Cemetery Full-Day Private Tour</t>
         </is>
       </c>
       <c r="B1189" t="inlineStr"/>
@@ -18367,7 +18367,7 @@
     <row r="1192">
       <c r="A1192" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 239576P34</t>
+          <t>PRODUCTCODE: 66049P48</t>
         </is>
       </c>
       <c r="B1192" t="inlineStr"/>
@@ -18382,7 +18382,7 @@
     <row r="1193">
       <c r="A1193" t="inlineStr">
         <is>
-          <t>Summarized description: Visit the Canadian Memorial at Juno Beach or Arromanches. Explore the landing beaches, memorials, cemeteries, and museums of this event.</t>
+          <t>Summarized description: The first Allied Forces landed in Normandy on June 6, 1944. Take this tour and jump into history of the WWII and explore the places where the first Allied forces landed.</t>
         </is>
       </c>
       <c r="B1193" t="inlineStr"/>
@@ -18397,7 +18397,7 @@
     <row r="1194">
       <c r="A1194" t="inlineStr">
         <is>
-          <t>Title: Normandy D-Day Beaches : A Historical Day Trip From Paris</t>
+          <t>Title: D-Day American Beaches Omaha, Pointe du Hoc &amp; American Cemetery</t>
         </is>
       </c>
       <c r="B1194" t="inlineStr"/>
@@ -18427,7 +18427,7 @@
     <row r="1196">
       <c r="A1196" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1196" t="inlineStr"/>
@@ -18442,7 +18442,7 @@
     <row r="1197">
       <c r="A1197" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 192144P3</t>
+          <t>PRODUCTCODE: 8647P375</t>
         </is>
       </c>
       <c r="B1197" t="inlineStr"/>
@@ -18457,7 +18457,7 @@
     <row r="1198">
       <c r="A1198" t="inlineStr">
         <is>
-          <t>Summarized description: Full-day tour will explore the emblematic sites and the landing beaches of D-Day. We will visit the battlefield at La Point du Hoc, where numerous bombs craters still scatter the landscape.</t>
+          <t>Summarized description: This is a completely personalized tour just for your family or group. Enjoy this private tour with tour official your guide and discover Normandy on this day tour from Paris.</t>
         </is>
       </c>
       <c r="B1198" t="inlineStr"/>
@@ -18472,7 +18472,7 @@
     <row r="1199">
       <c r="A1199" t="inlineStr">
         <is>
-          <t>Title: Normandy, Omaha Beach &amp; American Cemetery Full-Day Private Tour</t>
+          <t>Title: Normandy Beaches Private Tour from Paris with Hotel Pick Up</t>
         </is>
       </c>
       <c r="B1199" t="inlineStr"/>
@@ -18502,7 +18502,7 @@
     <row r="1201">
       <c r="A1201" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1201" t="inlineStr"/>
@@ -18517,7 +18517,7 @@
     <row r="1202">
       <c r="A1202" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 66049P48</t>
+          <t>PRODUCTCODE: 171266P6</t>
         </is>
       </c>
       <c r="B1202" t="inlineStr"/>
@@ -18532,7 +18532,7 @@
     <row r="1203">
       <c r="A1203" t="inlineStr">
         <is>
-          <t>Summarized description: The first Allied Forces landed in Normandy on June 6, 1944. Take this tour and jump into history of the WWII and explore the places where the first Allied forces landed.</t>
+          <t>Summarized description: Private chauffeur will take you to the Pointe du Hoc, Utah Beach, Omaha Beach, and the American Cemetery. We can also do a tour for the D-Day British / Canadian Landing in Normandy.</t>
         </is>
       </c>
       <c r="B1203" t="inlineStr"/>
@@ -18547,7 +18547,7 @@
     <row r="1204">
       <c r="A1204" t="inlineStr">
         <is>
-          <t>Title: D-Day American Beaches Omaha, Pointe du Hoc &amp; American Cemetery</t>
+          <t>Title: D-Day Normandy Landing Beach WWII Private Tour from Paris</t>
         </is>
       </c>
       <c r="B1204" t="inlineStr"/>
@@ -18577,7 +18577,7 @@
     <row r="1206">
       <c r="A1206" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1206" t="inlineStr"/>
@@ -18592,7 +18592,7 @@
     <row r="1207">
       <c r="A1207" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 171266P6</t>
+          <t>PRODUCTCODE: 107859P699</t>
         </is>
       </c>
       <c r="B1207" t="inlineStr"/>
@@ -18607,7 +18607,7 @@
     <row r="1208">
       <c r="A1208" t="inlineStr">
         <is>
-          <t>Summarized description: Private chauffeur will take you to the Pointe du Hoc, Utah Beach, Omaha Beach, and the American Cemetery. We can also do a tour for the D-Day British / Canadian Landing in Normandy.</t>
+          <t>Summarized description: Omaha Beach and remnants of the Arromanches artificial harbor left by allied forces. Relive the drama and heartache of WW2 at the unmissable Caen Memorial Museum.</t>
         </is>
       </c>
       <c r="B1208" t="inlineStr"/>
@@ -18622,7 +18622,7 @@
     <row r="1209">
       <c r="A1209" t="inlineStr">
         <is>
-          <t>Title: D-Day Normandy Landing Beach WWII Private Tour from Paris</t>
+          <t>Title: France Paris Day Trip of Normandy D-Day Beaches and American Cemetery</t>
         </is>
       </c>
       <c r="B1209" t="inlineStr"/>
@@ -18652,7 +18652,7 @@
     <row r="1211">
       <c r="A1211" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1211" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
     <row r="1212">
       <c r="A1212" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 107859P699</t>
+          <t>PRODUCTCODE: 157851P29</t>
         </is>
       </c>
       <c r="B1212" t="inlineStr"/>
@@ -18682,7 +18682,7 @@
     <row r="1213">
       <c r="A1213" t="inlineStr">
         <is>
-          <t>Summarized description: Omaha Beach and remnants of the Arromanches artificial harbor left by allied forces. Relive the drama and heartache of WW2 at the unmissable Caen Memorial Museum.</t>
+          <t>Summarized description: Discover many of Normandy’s key D-Day landmarks, all in one day. Private tour gives you the freedom to customize your sightseeing (upgrade to explore with a guide)</t>
         </is>
       </c>
       <c r="B1213" t="inlineStr"/>
@@ -18697,7 +18697,7 @@
     <row r="1214">
       <c r="A1214" t="inlineStr">
         <is>
-          <t>Title: France Paris Day Trip of Normandy D-Day Beaches and American Cemetery</t>
+          <t>Title: Normandy D-Day Beaches Private Tour from your hotel in Paris</t>
         </is>
       </c>
       <c r="B1214" t="inlineStr"/>
@@ -18742,7 +18742,7 @@
     <row r="1217">
       <c r="A1217" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 157851P29</t>
+          <t>PRODUCTCODE: 7245P55</t>
         </is>
       </c>
       <c r="B1217" t="inlineStr"/>
@@ -18757,7 +18757,7 @@
     <row r="1218">
       <c r="A1218" t="inlineStr">
         <is>
-          <t>Summarized description: Discover many of Normandy’s key D-Day landmarks, all in one day. Private tour gives you the freedom to customize your sightseeing (upgrade to explore with a guide)</t>
+          <t>Summarized description: Be immersed in the event of D-day of 1944 with our audio-guide. Let it guide you through the Sainte Mère Eglise, Pointe Du Hoc. You will then discover Omaha beach, where the American soldiers landed on June, 6th of 1944. Nearby, visit the American cemetery and Memorial of Colleville-sur-Mer.</t>
         </is>
       </c>
       <c r="B1218" t="inlineStr"/>
@@ -18772,7 +18772,7 @@
     <row r="1219">
       <c r="A1219" t="inlineStr">
         <is>
-          <t>Title: Normandy D-Day Beaches Private Tour from your hotel in Paris</t>
+          <t>Title: D day Normandy Tour with Audio guide hotel pick up Small group</t>
         </is>
       </c>
       <c r="B1219" t="inlineStr"/>
@@ -18892,7 +18892,7 @@
     <row r="1227">
       <c r="A1227" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 208552P2</t>
+          <t>PRODUCTCODE: 142334P11</t>
         </is>
       </c>
       <c r="B1227" t="inlineStr"/>
@@ -18907,7 +18907,7 @@
     <row r="1228">
       <c r="A1228" t="inlineStr">
         <is>
-          <t>Summarized description: First stop in Rouen - the capital of the former county of Normandy. Walking tour of the historic city center with its many medieval half-timbered houses. Deauville - the most famous resort town on the English Channel with a giant sandy beach.</t>
+          <t>Summarized description: Learn about the events of June 6, 1944 at the Canadian War Cemetery in Beny-sur-Mer. Visit the famous “Canada House’ on Juno Beach, said to be the first house liberated in Normandy.</t>
         </is>
       </c>
       <c r="B1228" t="inlineStr"/>
@@ -18922,7 +18922,7 @@
     <row r="1229">
       <c r="A1229" t="inlineStr">
         <is>
-          <t>Title:  ALL INCLUSIVE for a full day group visit to Normandy from Paris</t>
+          <t>Title: Day trip from Paris to Juno Beach, Normandy - Private Tour (2 pax)</t>
         </is>
       </c>
       <c r="B1229" t="inlineStr"/>
@@ -18952,7 +18952,7 @@
     <row r="1231">
       <c r="A1231" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1231" t="inlineStr"/>
@@ -18967,7 +18967,7 @@
     <row r="1232">
       <c r="A1232" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 142334P11</t>
+          <t>PRODUCTCODE: 409970P6</t>
         </is>
       </c>
       <c r="B1232" t="inlineStr"/>
@@ -18982,7 +18982,7 @@
     <row r="1233">
       <c r="A1233" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about the events of June 6, 1944 at the Canadian War Cemetery in Beny-sur-Mer. Visit the famous “Canada House’ on Juno Beach, said to be the first house liberated in Normandy.</t>
+          <t>Summarized description:  Normandy Premium Tour offers a personalized travel experience for two or in a small group (8 People Max) with or without a guide. You will visit Pointe du Hoc, the Normandy American Cemetery, Omaha Beach, etc.</t>
         </is>
       </c>
       <c r="B1233" t="inlineStr"/>
@@ -18997,7 +18997,7 @@
     <row r="1234">
       <c r="A1234" t="inlineStr">
         <is>
-          <t>Title: Day trip from Paris to Juno Beach, Normandy - Private Tour (2 pax)</t>
+          <t>Title: Private DDAY tour with pickup in Paris Full day</t>
         </is>
       </c>
       <c r="B1234" t="inlineStr"/>
@@ -19042,7 +19042,7 @@
     <row r="1237">
       <c r="A1237" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 409970P6</t>
+          <t>PRODUCTCODE: 320547P719</t>
         </is>
       </c>
       <c r="B1237" t="inlineStr"/>
@@ -19057,7 +19057,7 @@
     <row r="1238">
       <c r="A1238" t="inlineStr">
         <is>
-          <t>Summarized description:  Normandy Premium Tour offers a personalized travel experience for two or in a small group (8 People Max) with or without a guide. You will visit Pointe du Hoc, the Normandy American Cemetery, Omaha Beach, etc.</t>
+          <t>Summarized description: Normandy is a charming region just north of Paris. It's both a rural and seaside area famous for producing excellent cheeses, apple cider, and seafood, such as sea-scallop and herring.</t>
         </is>
       </c>
       <c r="B1238" t="inlineStr"/>
@@ -19072,7 +19072,7 @@
     <row r="1239">
       <c r="A1239" t="inlineStr">
         <is>
-          <t>Title: Private DDAY tour with pickup in Paris Full day</t>
+          <t xml:space="preserve">Title: Paris to D-Day Beach Private Guided Tour with Airport Transfer </t>
         </is>
       </c>
       <c r="B1239" t="inlineStr"/>
@@ -19102,7 +19102,7 @@
     <row r="1241">
       <c r="A1241" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Scenic Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1241" t="inlineStr"/>
@@ -19117,7 +19117,7 @@
     <row r="1242">
       <c r="A1242" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 320547P719</t>
+          <t>PRODUCTCODE: 9511P50</t>
         </is>
       </c>
       <c r="B1242" t="inlineStr"/>
@@ -19132,7 +19132,7 @@
     <row r="1243">
       <c r="A1243" t="inlineStr">
         <is>
-          <t>Summarized description: Normandy is a charming region just north of Paris. It's both a rural and seaside area famous for producing excellent cheeses, apple cider, and seafood, such as sea-scallop and herring.</t>
+          <t>Summarized description: A guided tour with only 8 participants (max) especially designed to discover, in one day, landing beaches and sites of legend. Air conditioned and comfortable minivan for a reduced transfer time.</t>
         </is>
       </c>
       <c r="B1243" t="inlineStr"/>
@@ -19147,7 +19147,7 @@
     <row r="1244">
       <c r="A1244" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Paris to D-Day Beach Private Guided Tour with Airport Transfer </t>
+          <t>Title: Private tour Normandy D-Day Landing Beaches Guided from Paris</t>
         </is>
       </c>
       <c r="B1244" t="inlineStr"/>
@@ -19177,7 +19177,7 @@
     <row r="1246">
       <c r="A1246" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Culinary Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1246" t="inlineStr"/>
@@ -19192,7 +19192,7 @@
     <row r="1247">
       <c r="A1247" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 9511P50</t>
+          <t>PRODUCTCODE: 110148P48</t>
         </is>
       </c>
       <c r="B1247" t="inlineStr"/>
@@ -19207,7 +19207,7 @@
     <row r="1248">
       <c r="A1248" t="inlineStr">
         <is>
-          <t>Summarized description: A guided tour with only 8 participants (max) especially designed to discover, in one day, landing beaches and sites of legend. Air conditioned and comfortable minivan for a reduced transfer time.</t>
+          <t>Summarized description: Take your private car from Paris and travel to the city of Bayeux. Admire the 70 meters long middle age Tapestry, Listed “World Heritage” by UNESCO. Continue to the Landing Beaches of Normandy and the American Cemetery.</t>
         </is>
       </c>
       <c r="B1248" t="inlineStr"/>
@@ -19222,7 +19222,7 @@
     <row r="1249">
       <c r="A1249" t="inlineStr">
         <is>
-          <t>Title: Private tour Normandy D-Day Landing Beaches Guided from Paris</t>
+          <t>Title: D-Day Beaches, Mt. St. Michel &amp; St. Malo, 2-Day tour in PRIVATE CAR from Paris</t>
         </is>
       </c>
       <c r="B1249" t="inlineStr"/>
@@ -19252,7 +19252,7 @@
     <row r="1251">
       <c r="A1251" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours', 'City Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1251" t="inlineStr"/>
@@ -19267,7 +19267,7 @@
     <row r="1252">
       <c r="A1252" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 110148P48</t>
+          <t>PRODUCTCODE: 320547P130</t>
         </is>
       </c>
       <c r="B1252" t="inlineStr"/>
@@ -19282,7 +19282,7 @@
     <row r="1253">
       <c r="A1253" t="inlineStr">
         <is>
-          <t>Summarized description: Take your private car from Paris and travel to the city of Bayeux. Admire the 70 meters long middle age Tapestry, Listed “World Heritage” by UNESCO. Continue to the Landing Beaches of Normandy and the American Cemetery.</t>
+          <t>Summarized description:  Normandy is a charming region just north of Paris. It's both a rural and seaside area famous for producing excellent cheeses. The quality of the cuisine of Normandy makes it a must-visit area.</t>
         </is>
       </c>
       <c r="B1253" t="inlineStr"/>
@@ -19297,7 +19297,7 @@
     <row r="1254">
       <c r="A1254" t="inlineStr">
         <is>
-          <t>Title: D-Day Beaches, Mt. St. Michel &amp; St. Malo, 2-Day tour in PRIVATE CAR from Paris</t>
+          <t>Title: Paris to D-Day Beaches Full Day Private Tour with Guide</t>
         </is>
       </c>
       <c r="B1254" t="inlineStr"/>
@@ -19327,7 +19327,7 @@
     <row r="1256">
       <c r="A1256" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1256" t="inlineStr"/>
@@ -19342,7 +19342,7 @@
     <row r="1257">
       <c r="A1257" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 113047P12</t>
+          <t>PRODUCTCODE: 2050P362</t>
         </is>
       </c>
       <c r="B1257" t="inlineStr"/>
@@ -19357,7 +19357,7 @@
     <row r="1258">
       <c r="A1258" t="inlineStr">
         <is>
-          <t>Summarized description: Tour with a Licensed Guide, driver and Sommelier. Drink old vintages of Loire wines and eat in breathtaking places. Taste Normandy cheeses and pair them with ciders and sparkling wines.</t>
+          <t>Summarized description:  Normandy battlefields and landing beaches of World War II. Your guide will take you to famous wartime sites and also to the American cemetery. You will gain insight into the sacrifices of Allied soldiers and French citizens they liberated.</t>
         </is>
       </c>
       <c r="B1258" t="inlineStr"/>
@@ -19372,7 +19372,7 @@
     <row r="1259">
       <c r="A1259" t="inlineStr">
         <is>
-          <t>Title: 4-Day Private Tour Normandy - Mont Saint Michel, WW2 beaches...</t>
+          <t>Title: From Paris Landing Beaches with Guide &amp; Hotel Pick Up</t>
         </is>
       </c>
       <c r="B1259" t="inlineStr"/>
@@ -19402,7 +19402,7 @@
     <row r="1261">
       <c r="A1261" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Cultural Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1261" t="inlineStr"/>
@@ -19417,7 +19417,7 @@
     <row r="1262">
       <c r="A1262" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 320547P130</t>
+          <t>PRODUCTCODE: 118583P5</t>
         </is>
       </c>
       <c r="B1262" t="inlineStr"/>
@@ -19432,7 +19432,7 @@
     <row r="1263">
       <c r="A1263" t="inlineStr">
         <is>
-          <t>Summarized description:  Normandy is a charming region just north of Paris. It's both a rural and seaside area famous for producing excellent cheeses. The quality of the cuisine of Normandy makes it a must-visit area.</t>
+          <t>Summarized description: Guided Tour to Normandy D-Day Beaches from Paris, Lunch included. Immerse yourself in the Second World War liberation of Europe. Visit Arromanches or Juno Beach.</t>
         </is>
       </c>
       <c r="B1263" t="inlineStr"/>
@@ -19447,7 +19447,7 @@
     <row r="1264">
       <c r="A1264" t="inlineStr">
         <is>
-          <t>Title: Paris to D-Day Beaches Full Day Private Tour with Guide</t>
+          <t>Title: Guided Tour to Normandy D-Day Beaches from Paris, Lunch included</t>
         </is>
       </c>
       <c r="B1264" t="inlineStr"/>
@@ -19477,7 +19477,7 @@
     <row r="1266">
       <c r="A1266" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Culinary Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1266" t="inlineStr"/>
@@ -19492,7 +19492,7 @@
     <row r="1267">
       <c r="A1267" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2050P362</t>
+          <t>PRODUCTCODE: 115705P11</t>
         </is>
       </c>
       <c r="B1267" t="inlineStr"/>
@@ -19507,7 +19507,7 @@
     <row r="1268">
       <c r="A1268" t="inlineStr">
         <is>
-          <t>Summarized description:  Normandy battlefields and landing beaches of World War II. Your guide will take you to famous wartime sites and also to the American cemetery. You will gain insight into the sacrifices of Allied soldiers and French citizens they liberated.</t>
+          <t>Summarized description: Discover the most important D-Day beaches, the landing of the allies on the beaches of Normandy will have no secrets. Live a strong and moving moment at the American cemetery and dive into the Liberation of the Second World War.</t>
         </is>
       </c>
       <c r="B1268" t="inlineStr"/>
@@ -19522,7 +19522,7 @@
     <row r="1269">
       <c r="A1269" t="inlineStr">
         <is>
-          <t>Title: From Paris Landing Beaches with Guide &amp; Hotel Pick Up</t>
+          <t>Title: Normandy Landing Beaches Guided Tour Departing From Paris</t>
         </is>
       </c>
       <c r="B1269" t="inlineStr"/>
@@ -19567,7 +19567,7 @@
     <row r="1272">
       <c r="A1272" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 118583P5</t>
+          <t>PRODUCTCODE: 24380P1465</t>
         </is>
       </c>
       <c r="B1272" t="inlineStr"/>
@@ -19582,7 +19582,7 @@
     <row r="1273">
       <c r="A1273" t="inlineStr">
         <is>
-          <t>Summarized description: Guided Tour to Normandy D-Day Beaches from Paris, Lunch included. Immerse yourself in the Second World War liberation of Europe. Visit Arromanches or Juno Beach.</t>
+          <t>Summarized description: The Normandy landings are considered the largest seaborne invasion in history. Explore the landing beaches, memorials, cemeteries and museums related to this event.</t>
         </is>
       </c>
       <c r="B1273" t="inlineStr"/>
@@ -19597,7 +19597,7 @@
     <row r="1274">
       <c r="A1274" t="inlineStr">
         <is>
-          <t>Title: Guided Tour to Normandy D-Day Beaches from Paris, Lunch included</t>
+          <t>Title: D-Day Beaches and Normandy Private Day Trip</t>
         </is>
       </c>
       <c r="B1274" t="inlineStr"/>
@@ -19627,7 +19627,7 @@
     <row r="1276">
       <c r="A1276" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1276" t="inlineStr"/>
@@ -19642,7 +19642,7 @@
     <row r="1277">
       <c r="A1277" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 115705P11</t>
+          <t>PRODUCTCODE: 332536P588</t>
         </is>
       </c>
       <c r="B1277" t="inlineStr"/>
@@ -19657,7 +19657,7 @@
     <row r="1278">
       <c r="A1278" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the most important D-Day beaches, the landing of the allies on the beaches of Normandy will have no secrets. Live a strong and moving moment at the American cemetery and dive into the Liberation of the Second World War.</t>
+          <t>Summarized description: Explore the historic sites and memorials of the D-Day landings. Discover the details of the successful Allied invasions on Nazi German-occupied Western Europe during World War II.</t>
         </is>
       </c>
       <c r="B1278" t="inlineStr"/>
@@ -19672,7 +19672,7 @@
     <row r="1279">
       <c r="A1279" t="inlineStr">
         <is>
-          <t>Title: Normandy Landing Beaches Guided Tour Departing From Paris</t>
+          <t xml:space="preserve">Title: D-Day Normandy Beaches Guided Trip by Car from Paris </t>
         </is>
       </c>
       <c r="B1279" t="inlineStr"/>
@@ -19702,7 +19702,7 @@
     <row r="1281">
       <c r="A1281" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1281" t="inlineStr"/>
@@ -19717,7 +19717,7 @@
     <row r="1282">
       <c r="A1282" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 24380P1465</t>
+          <t>PRODUCTCODE: 118524P22</t>
         </is>
       </c>
       <c r="B1282" t="inlineStr"/>
@@ -19732,7 +19732,7 @@
     <row r="1283">
       <c r="A1283" t="inlineStr">
         <is>
-          <t>Summarized description: The Normandy landings are considered the largest seaborne invasion in history. Explore the landing beaches, memorials, cemeteries and museums related to this event.</t>
+          <t>Summarized description: Small group tour on the DDay beaches from the center of Paris with a knowledgeable bilingual guide. You will see along the way war machines like Sherman tank, cannons, and you will visit a genuine Bunker from WWII.</t>
         </is>
       </c>
       <c r="B1283" t="inlineStr"/>
@@ -19747,7 +19747,7 @@
     <row r="1284">
       <c r="A1284" t="inlineStr">
         <is>
-          <t>Title: D-Day Beaches and Normandy Private Day Trip</t>
+          <t>Title: DDay Beaches small group tour in Normandy from Paris</t>
         </is>
       </c>
       <c r="B1284" t="inlineStr"/>
@@ -19777,7 +19777,7 @@
     <row r="1286">
       <c r="A1286" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours', 'Museums']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1286" t="inlineStr"/>
@@ -19792,7 +19792,7 @@
     <row r="1287">
       <c r="A1287" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 332536P588</t>
+          <t>PRODUCTCODE: 336757P1</t>
         </is>
       </c>
       <c r="B1287" t="inlineStr"/>
@@ -19807,7 +19807,7 @@
     <row r="1288">
       <c r="A1288" t="inlineStr">
         <is>
-          <t>Summarized description: Explore the historic sites and memorials of the D-Day landings. Discover the details of the successful Allied invasions on Nazi German-occupied Western Europe during World War II.</t>
+          <t>Summarized description: D-Day landing beaches of World War II, Pointe Du Hoc, Omaha Beach, American Cemetery, the Visitor Center and learn stories. Booking this spectacular tour from Paris will give you the chance to explore Normandy coast.</t>
         </is>
       </c>
       <c r="B1288" t="inlineStr"/>
@@ -19822,7 +19822,7 @@
     <row r="1289">
       <c r="A1289" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: D-Day Normandy Beaches Guided Trip by Car from Paris </t>
+          <t>Title: Normandy D Day World War II Tour from Paris</t>
         </is>
       </c>
       <c r="B1289" t="inlineStr"/>
@@ -19852,7 +19852,7 @@
     <row r="1291">
       <c r="A1291" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1291" t="inlineStr"/>
@@ -19867,7 +19867,7 @@
     <row r="1292">
       <c r="A1292" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 118524P22</t>
+          <t>PRODUCTCODE: 8474P47</t>
         </is>
       </c>
       <c r="B1292" t="inlineStr"/>
@@ -19882,7 +19882,7 @@
     <row r="1293">
       <c r="A1293" t="inlineStr">
         <is>
-          <t>Summarized description: Small group tour on the DDay beaches from the center of Paris with a knowledgeable bilingual guide. You will see along the way war machines like Sherman tank, cannons, and you will visit a genuine Bunker from WWII.</t>
+          <t>Summarized description: Live a memorable and moving experience with your guide driver, passionate about WWII. Your guide will take you to the D-Day key sites. You will learn a lot about Normandy region, people, landscapes and patrimony.</t>
         </is>
       </c>
       <c r="B1293" t="inlineStr"/>
@@ -19897,7 +19897,7 @@
     <row r="1294">
       <c r="A1294" t="inlineStr">
         <is>
-          <t>Title: DDay Beaches small group tour in Normandy from Paris</t>
+          <t>Title: Private Tour to Normandy D Day Beaches and American Cemetery</t>
         </is>
       </c>
       <c r="B1294" t="inlineStr"/>
@@ -19927,7 +19927,7 @@
     <row r="1296">
       <c r="A1296" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1296" t="inlineStr"/>
@@ -19942,7 +19942,7 @@
     <row r="1297">
       <c r="A1297" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 336757P1</t>
+          <t>PRODUCTCODE: 88115P307</t>
         </is>
       </c>
       <c r="B1297" t="inlineStr"/>
@@ -19957,7 +19957,7 @@
     <row r="1298">
       <c r="A1298" t="inlineStr">
         <is>
-          <t>Summarized description: D-Day landing beaches of World War II, Pointe Du Hoc, Omaha Beach, American Cemetery, the Visitor Center and learn stories. Booking this spectacular tour from Paris will give you the chance to explore Normandy coast.</t>
+          <t>Summarized description: The trip includes a delicious lunch, and comfortable, air conditioned roundtrip transfers by bus. Enjoy a full day excursion from Paris to the D-Day Beaches in Normandy.</t>
         </is>
       </c>
       <c r="B1298" t="inlineStr"/>
@@ -19972,7 +19972,7 @@
     <row r="1299">
       <c r="A1299" t="inlineStr">
         <is>
-          <t>Title: Normandy D Day World War II Tour from Paris</t>
+          <t>Title: Guided Tour of the D-Day Beaches</t>
         </is>
       </c>
       <c r="B1299" t="inlineStr"/>
@@ -20002,7 +20002,7 @@
     <row r="1301">
       <c r="A1301" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Historical Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B1301" t="inlineStr"/>
@@ -20017,7 +20017,7 @@
     <row r="1302">
       <c r="A1302" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 8474P47</t>
+          <t>PRODUCTCODE: 118583P16</t>
         </is>
       </c>
       <c r="B1302" t="inlineStr"/>
@@ -20032,7 +20032,7 @@
     <row r="1303">
       <c r="A1303" t="inlineStr">
         <is>
-          <t>Summarized description: Live a memorable and moving experience with your guide driver, passionate about WWII. Your guide will take you to the D-Day key sites. You will learn a lot about Normandy region, people, landscapes and patrimony.</t>
+          <t>Summarized description: Guided Tour to Normandy D-Day Beaches from Paris, Lunch included. Immerse yourself in the Second World War liberation of Europe. Follow in the footsteps of those who experienced the war.</t>
         </is>
       </c>
       <c r="B1303" t="inlineStr"/>
@@ -20047,7 +20047,7 @@
     <row r="1304">
       <c r="A1304" t="inlineStr">
         <is>
-          <t>Title: Private Tour to Normandy D Day Beaches and American Cemetery</t>
+          <t>Title: Guided Tour to Normandy D-Day Beaches from Paris, Lunch included</t>
         </is>
       </c>
       <c r="B1304" t="inlineStr"/>
@@ -20077,7 +20077,7 @@
     <row r="1306">
       <c r="A1306" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1306" t="inlineStr"/>
@@ -20092,7 +20092,7 @@
     <row r="1307">
       <c r="A1307" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 268293P134</t>
+          <t>PRODUCTCODE: 117374P12</t>
         </is>
       </c>
       <c r="B1307" t="inlineStr"/>
@@ -20107,7 +20107,7 @@
     <row r="1308">
       <c r="A1308" t="inlineStr">
         <is>
-          <t>Summarized description:  Normandy American Cemetery in Colleville-sur-Mer with very nice Museum, Omaha Beaches with Signal Monument. Stop at Church Saint-Come-et-Saint-Damien in Angoville-au-Plain, Stop at Sainte-Mère-Église town. Utah Beach Landing Museum with a big collection of historical artifacts, military vehicles and the original B26 bomber. Airborne Museum visit including unique D-Day Night Jumps embarkation of a C-47 aircraft.</t>
+          <t>Summarized description: Learn all about the Allied landings on the beaches of Normandy. With an expert professional guide, follow in the footsteps of those who lived through the war.Enjoy a full-day tour from Paris to the D-Day beaches.</t>
         </is>
       </c>
       <c r="B1308" t="inlineStr"/>
@@ -20122,7 +20122,7 @@
     <row r="1309">
       <c r="A1309" t="inlineStr">
         <is>
-          <t>Title: Private D-Day Omaha Utah Beach Guided Trip from Paris by Mercedes</t>
+          <t>Title: Guided Tour of Normandy D-Day Beaches from Paris, with transport</t>
         </is>
       </c>
       <c r="B1309" t="inlineStr"/>
@@ -20152,7 +20152,7 @@
     <row r="1311">
       <c r="A1311" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1311" t="inlineStr"/>
@@ -20167,7 +20167,7 @@
     <row r="1312">
       <c r="A1312" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 88115P307</t>
+          <t>PRODUCTCODE: 7245P56</t>
         </is>
       </c>
       <c r="B1312" t="inlineStr"/>
@@ -20182,7 +20182,7 @@
     <row r="1313">
       <c r="A1313" t="inlineStr">
         <is>
-          <t>Summarized description: The trip includes a delicious lunch, and comfortable, air conditioned roundtrip transfers by bus. Enjoy a full day excursion from Paris to the D-Day Beaches in Normandy.</t>
+          <t>Summarized description: Discover Normandy through the eyes of a professional touristic local guide. Enjoy a pickup from your Paris hotel and let our chauffeur drive you to Bayeux. The D-day tour will get started.</t>
         </is>
       </c>
       <c r="B1313" t="inlineStr"/>
@@ -20197,7 +20197,7 @@
     <row r="1314">
       <c r="A1314" t="inlineStr">
         <is>
-          <t>Title: Guided Tour of the D-Day Beaches</t>
+          <t>Title: Normandy D-Day beaches Day trip with hotel pickup</t>
         </is>
       </c>
       <c r="B1314" t="inlineStr"/>
@@ -20227,7 +20227,7 @@
     <row r="1316">
       <c r="A1316" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Dining Experiences']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1316" t="inlineStr"/>
@@ -20242,7 +20242,7 @@
     <row r="1317">
       <c r="A1317" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 118583P16</t>
+          <t>PRODUCTCODE: 67584P4</t>
         </is>
       </c>
       <c r="B1317" t="inlineStr"/>
@@ -20257,7 +20257,7 @@
     <row r="1318">
       <c r="A1318" t="inlineStr">
         <is>
-          <t>Summarized description: Guided Tour to Normandy D-Day Beaches from Paris, Lunch included. Immerse yourself in the Second World War liberation of Europe. Follow in the footsteps of those who experienced the war.</t>
+          <t>Summarized description: D-Day marked an important turning point in World War II. Normandy is home to multiple sites where battles raged on D-Day. See Omaha Beach, Pont du Hoc, the American Cemetary and more.</t>
         </is>
       </c>
       <c r="B1318" t="inlineStr"/>
@@ -20272,7 +20272,7 @@
     <row r="1319">
       <c r="A1319" t="inlineStr">
         <is>
-          <t>Title: Guided Tour to Normandy D-Day Beaches from Paris, Lunch included</t>
+          <t>Title: Day Trip to Normandy Beaches and WWII Memorials from Paris</t>
         </is>
       </c>
       <c r="B1319" t="inlineStr"/>
@@ -20302,7 +20302,7 @@
     <row r="1321">
       <c r="A1321" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1321" t="inlineStr"/>
@@ -20317,7 +20317,7 @@
     <row r="1322">
       <c r="A1322" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 117374P12</t>
+          <t>PRODUCTCODE: 140538P1</t>
         </is>
       </c>
       <c r="B1322" t="inlineStr"/>
@@ -20332,7 +20332,7 @@
     <row r="1323">
       <c r="A1323" t="inlineStr">
         <is>
-          <t>Summarized description: Learn all about the Allied landings on the beaches of Normandy. With an expert professional guide, follow in the footsteps of those who lived through the war.Enjoy a full-day tour from Paris to the D-Day beaches.</t>
+          <t>Summarized description: Stand on Normandy Beach and visit historical sites of World War II during this full-day, guided tour from Paris. Visit important sites like Omaha Beach, Saint Laurent-sur-Mer, the Normandy American Cemetery, and Memorial.</t>
         </is>
       </c>
       <c r="B1323" t="inlineStr"/>
@@ -20347,7 +20347,7 @@
     <row r="1324">
       <c r="A1324" t="inlineStr">
         <is>
-          <t>Title: Guided Tour of Normandy D-Day Beaches from Paris, with transport</t>
+          <t>Title: Normandy D Day US Beaches &amp; Honfleur City - Daytrip from Paris</t>
         </is>
       </c>
       <c r="B1324" t="inlineStr"/>
@@ -20377,7 +20377,7 @@
     <row r="1326">
       <c r="A1326" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1326" t="inlineStr"/>
@@ -20392,7 +20392,7 @@
     <row r="1327">
       <c r="A1327" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7245P56</t>
+          <t>PRODUCTCODE: 140538P20</t>
         </is>
       </c>
       <c r="B1327" t="inlineStr"/>
@@ -20407,7 +20407,7 @@
     <row r="1328">
       <c r="A1328" t="inlineStr">
         <is>
-          <t>Summarized description: Discover Normandy through the eyes of a professional touristic local guide. Enjoy a pickup from your Paris hotel and let our chauffeur drive you to Bayeux. The D-day tour will get started.</t>
+          <t>Summarized description: Day trip from Paris covers Normandy’s top WWII-related sites. Visit the landing beaches of Ponte du Hoc and Omaha. Get a first-hand look at military gear and vehicles at the Overlord Museum.</t>
         </is>
       </c>
       <c r="B1328" t="inlineStr"/>
@@ -20422,7 +20422,7 @@
     <row r="1329">
       <c r="A1329" t="inlineStr">
         <is>
-          <t>Title: Normandy D-Day beaches Day trip with hotel pickup</t>
+          <t>Title: American Sector - Omaha &amp; Pointe du Hoc WWII Day Trip from Paris</t>
         </is>
       </c>
       <c r="B1329" t="inlineStr"/>
@@ -20452,7 +20452,7 @@
     <row r="1331">
       <c r="A1331" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1331" t="inlineStr"/>
@@ -20467,7 +20467,7 @@
     <row r="1332">
       <c r="A1332" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 175581P41</t>
+          <t>PRODUCTCODE: 140538P22</t>
         </is>
       </c>
       <c r="B1332" t="inlineStr"/>
@@ -20482,7 +20482,7 @@
     <row r="1333">
       <c r="A1333" t="inlineStr">
         <is>
-          <t>Summarized description: Travel from Paris to the beaches of Normandy in order to honor the sacrifices made there on June 6th, 1944. The Utah Beach Museum, housed in an original German bunker, will be your first stop. After a tasting of the local cider our next stop is an authentic Norman-style lunch.</t>
+          <t>Summarized description: Day trip from Paris covers Normandy’s top WWII-related sites. Visit the landing beaches of Ponte du Hoc and Omaha, pay your respects at the American Cemetery. Get a first-hand look at military gear and vehicles at the Overlord Museum.</t>
         </is>
       </c>
       <c r="B1333" t="inlineStr"/>
@@ -20497,7 +20497,7 @@
     <row r="1334">
       <c r="A1334" t="inlineStr">
         <is>
-          <t>Title: Normandy Day Trip from Paris with D-Day Beaches &amp; Authentic Lunch</t>
+          <t>Title: Normandy Omaha Beach, Pointe Du Hoc, American Cemetery Daytrip from Paris</t>
         </is>
       </c>
       <c r="B1334" t="inlineStr"/>
@@ -20527,7 +20527,7 @@
     <row r="1336">
       <c r="A1336" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1336" t="inlineStr"/>
@@ -20542,7 +20542,7 @@
     <row r="1337">
       <c r="A1337" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 67584P4</t>
+          <t>PRODUCTCODE: 142334P1</t>
         </is>
       </c>
       <c r="B1337" t="inlineStr"/>
@@ -20557,7 +20557,7 @@
     <row r="1338">
       <c r="A1338" t="inlineStr">
         <is>
-          <t>Summarized description: D-Day marked an important turning point in World War II. Normandy is home to multiple sites where battles raged on D-Day. See Omaha Beach, Pont du Hoc, the American Cemetary and more.</t>
+          <t>Summarized description: Visit to Normandy D-Day battle sites and U.S landing beaches from Paris. Walk along the Bloody Beach (Omaha) and visit the American War Cemetery.</t>
         </is>
       </c>
       <c r="B1338" t="inlineStr"/>
@@ -20572,7 +20572,7 @@
     <row r="1339">
       <c r="A1339" t="inlineStr">
         <is>
-          <t>Title: Day Trip to Normandy Beaches and WWII Memorials from Paris</t>
+          <t>Title: Pointe du Hoc,Omaha Beach, American Cemetery - Day trip from Paris to Normandy</t>
         </is>
       </c>
       <c r="B1339" t="inlineStr"/>
@@ -20617,7 +20617,7 @@
     <row r="1342">
       <c r="A1342" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 140538P20</t>
+          <t>PRODUCTCODE: 6839P95</t>
         </is>
       </c>
       <c r="B1342" t="inlineStr"/>
@@ -20632,7 +20632,7 @@
     <row r="1343">
       <c r="A1343" t="inlineStr">
         <is>
-          <t>Summarized description: Day trip from Paris covers Normandy’s top WWII-related sites. Visit the landing beaches of Ponte du Hoc and Omaha. Get a first-hand look at military gear and vehicles at the Overlord Museum.</t>
+          <t>Summarized description: During your stay in Paris, relive the Allied landings of 6 June 1944 by visiting the beaches in Normandy. You will be aboard an air-conditioned car or bus, accompanied by a guide who is an expert in WW2.</t>
         </is>
       </c>
       <c r="B1343" t="inlineStr"/>
@@ -20647,7 +20647,7 @@
     <row r="1344">
       <c r="A1344" t="inlineStr">
         <is>
-          <t>Title: American Sector - Omaha &amp; Pointe du Hoc WWII Day Trip from Paris</t>
+          <t>Title: Normandy Beaches Experience by coach from Paris</t>
         </is>
       </c>
       <c r="B1344" t="inlineStr"/>
@@ -20677,7 +20677,7 @@
     <row r="1346">
       <c r="A1346" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1346" t="inlineStr"/>
@@ -20692,7 +20692,7 @@
     <row r="1347">
       <c r="A1347" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 140538P22</t>
+          <t>PRODUCTCODE: 105237P2</t>
         </is>
       </c>
       <c r="B1347" t="inlineStr"/>
@@ -20707,7 +20707,7 @@
     <row r="1348">
       <c r="A1348" t="inlineStr">
         <is>
-          <t>Summarized description: Day trip from Paris covers Normandy’s top WWII-related sites. Visit the landing beaches of Ponte du Hoc and Omaha, pay your respects at the American Cemetery. Get a first-hand look at military gear and vehicles at the Overlord Museum.</t>
+          <t>Summarized description: Immerse yourself in the Second World War liberation of Europe. Find out all about the Allied landings on the beaches of Normandy. Follow in the footsteps of those who experienced the war.</t>
         </is>
       </c>
       <c r="B1348" t="inlineStr"/>
@@ -20722,7 +20722,7 @@
     <row r="1349">
       <c r="A1349" t="inlineStr">
         <is>
-          <t>Title: Normandy Omaha Beach, Pointe Du Hoc, American Cemetery Daytrip from Paris</t>
+          <t>Title: Guided Tour to Normandy D Day Beaches from Paris</t>
         </is>
       </c>
       <c r="B1349" t="inlineStr"/>
@@ -20767,7 +20767,7 @@
     <row r="1352">
       <c r="A1352" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 142334P1</t>
+          <t>PRODUCTCODE: 105237P1</t>
         </is>
       </c>
       <c r="B1352" t="inlineStr"/>
@@ -20782,7 +20782,7 @@
     <row r="1353">
       <c r="A1353" t="inlineStr">
         <is>
-          <t>Summarized description: Visit to Normandy D-Day battle sites and U.S landing beaches from Paris. Walk along the Bloody Beach (Omaha) and visit the American War Cemetery.</t>
+          <t>Summarized description: Immerse yourself in the Second World War liberation of Europe. Find out all about the Allied landings on the beaches of Normandy. Follow in the footsteps of those who experienced the war.</t>
         </is>
       </c>
       <c r="B1353" t="inlineStr"/>
@@ -20797,7 +20797,7 @@
     <row r="1354">
       <c r="A1354" t="inlineStr">
         <is>
-          <t>Title: Pointe du Hoc,Omaha Beach, American Cemetery - Day trip from Paris to Normandy</t>
+          <t>Title: Guided Tour to Normandy D Day Beaches from Paris</t>
         </is>
       </c>
       <c r="B1354" t="inlineStr"/>
@@ -20842,7 +20842,7 @@
     <row r="1357">
       <c r="A1357" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 105237P2</t>
+          <t>PRODUCTCODE: 253419P3</t>
         </is>
       </c>
       <c r="B1357" t="inlineStr"/>
@@ -20857,7 +20857,7 @@
     <row r="1358">
       <c r="A1358" t="inlineStr">
         <is>
-          <t>Summarized description: Immerse yourself in the Second World War liberation of Europe. Find out all about the Allied landings on the beaches of Normandy. Follow in the footsteps of those who experienced the war.</t>
+          <t>Summarized description: Unique tour of the DDAY sites in Normandy, from Paris. Normandy born licensed tour guide, specialized in Norman history. Carefully chosenDDAY sites for a comprehensive overview of Operation Overlord.</t>
         </is>
       </c>
       <c r="B1358" t="inlineStr"/>
@@ -20872,7 +20872,7 @@
     <row r="1359">
       <c r="A1359" t="inlineStr">
         <is>
-          <t>Title: Guided Tour to Normandy D Day Beaches from Paris</t>
+          <t>Title: Private Normandy Tour DDAY Beaches from Paris</t>
         </is>
       </c>
       <c r="B1359" t="inlineStr"/>
@@ -20917,7 +20917,7 @@
     <row r="1362">
       <c r="A1362" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 105237P1</t>
+          <t>PRODUCTCODE: 108258P5</t>
         </is>
       </c>
       <c r="B1362" t="inlineStr"/>
@@ -20932,7 +20932,7 @@
     <row r="1363">
       <c r="A1363" t="inlineStr">
         <is>
-          <t>Summarized description: Immerse yourself in the Second World War liberation of Europe. Find out all about the Allied landings on the beaches of Normandy. Follow in the footsteps of those who experienced the war.</t>
+          <t>Summarized description: The driver will pick you from your place to bring you to the Landing beaches and the returning to your place is included. Hot Spots : American Cemetery, Memorial Museum of Omaha Beach, Overlord Musem, beaches, etc...</t>
         </is>
       </c>
       <c r="B1363" t="inlineStr"/>
@@ -20947,7 +20947,7 @@
     <row r="1364">
       <c r="A1364" t="inlineStr">
         <is>
-          <t>Title: Guided Tour to Normandy D Day Beaches from Paris</t>
+          <t>Title: Normandy Landing Beaches - Private Trip</t>
         </is>
       </c>
       <c r="B1364" t="inlineStr"/>
@@ -20977,7 +20977,7 @@
     <row r="1366">
       <c r="A1366" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1366" t="inlineStr"/>
@@ -20992,7 +20992,7 @@
     <row r="1367">
       <c r="A1367" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 253419P3</t>
+          <t>PRODUCTCODE: 142334P26</t>
         </is>
       </c>
       <c r="B1367" t="inlineStr"/>
@@ -21007,7 +21007,7 @@
     <row r="1368">
       <c r="A1368" t="inlineStr">
         <is>
-          <t>Summarized description: Unique tour of the DDAY sites in Normandy, from Paris. Normandy born licensed tour guide, specialized in Norman history. Carefully chosenDDAY sites for a comprehensive overview of Operation Overlord.</t>
+          <t>Summarized description: Learn about the events of June 6, 1944. Visit to Normandy D-Day battle sites and paratroopers drop zones from Paris. Pay tribute to the fallen americans soldiers while visiting the Normandy American Military Cemetery which overlooks Omaha Beach.</t>
         </is>
       </c>
       <c r="B1368" t="inlineStr"/>
@@ -21022,7 +21022,7 @@
     <row r="1369">
       <c r="A1369" t="inlineStr">
         <is>
-          <t>Title: Private Normandy Tour DDAY Beaches from Paris</t>
+          <t>Title: Day trip from Paris to Sainte Mère Eglise aboard a Van - Private Tour (7 pax)</t>
         </is>
       </c>
       <c r="B1369" t="inlineStr"/>
@@ -21052,7 +21052,7 @@
     <row r="1371">
       <c r="A1371" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'Transportation &amp; Travel Services']</t>
         </is>
       </c>
       <c r="B1371" t="inlineStr"/>
@@ -21067,7 +21067,7 @@
     <row r="1372">
       <c r="A1372" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 108258P5</t>
+          <t>PRODUCTCODE: 248877P32</t>
         </is>
       </c>
       <c r="B1372" t="inlineStr"/>
@@ -21082,7 +21082,7 @@
     <row r="1373">
       <c r="A1373" t="inlineStr">
         <is>
-          <t>Summarized description: The driver will pick you from your place to bring you to the Landing beaches and the returning to your place is included. Hot Spots : American Cemetery, Memorial Museum of Omaha Beach, Overlord Musem, beaches, etc...</t>
+          <t>Summarized description: The Normandy landings were the landing operations on Tuesday, 6 June 1944 of the Allied invasion of Normandy in Operation Overlord during World War II. Enjoy a guided tour of the Caen Memorial Museum, visit the American Cemetery in Saint Laurent, and see other important sites.</t>
         </is>
       </c>
       <c r="B1373" t="inlineStr"/>
@@ -21097,7 +21097,7 @@
     <row r="1374">
       <c r="A1374" t="inlineStr">
         <is>
-          <t>Title: Normandy Landing Beaches - Private Trip</t>
+          <t>Title: From Paris : Exclusive Normandy D-Day Beaches Day Trip (with Live Guide)</t>
         </is>
       </c>
       <c r="B1374" t="inlineStr"/>
@@ -21142,7 +21142,7 @@
     <row r="1377">
       <c r="A1377" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 248877P32</t>
+          <t>PRODUCTCODE: 142334P12</t>
         </is>
       </c>
       <c r="B1377" t="inlineStr"/>
@@ -21157,7 +21157,7 @@
     <row r="1378">
       <c r="A1378" t="inlineStr">
         <is>
-          <t>Summarized description: The Normandy landings were the landing operations on Tuesday, 6 June 1944 of the Allied invasion of Normandy in Operation Overlord during World War II. Enjoy a guided tour of the Caen Memorial Museum, visit the American Cemetery in Saint Laurent, and see other important sites.</t>
+          <t>Summarized description: Omaha Beach is a popular tourist destination in the United States. Travel with your own group of passengers (7 travellers) aboard a Private Air conditioned Minivan.</t>
         </is>
       </c>
       <c r="B1378" t="inlineStr"/>
@@ -21172,7 +21172,7 @@
     <row r="1379">
       <c r="A1379" t="inlineStr">
         <is>
-          <t>Title: From Paris : Exclusive Normandy D-Day Beaches Day Trip (with Live Guide)</t>
+          <t xml:space="preserve">Title: Day trip from Paris to Omaha Beach, American Cemetery - Private Tour (7 pax) </t>
         </is>
       </c>
       <c r="B1379" t="inlineStr"/>
@@ -21202,7 +21202,7 @@
     <row r="1381">
       <c r="A1381" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'Transportation &amp; Travel Services']</t>
         </is>
       </c>
       <c r="B1381" t="inlineStr"/>
@@ -21217,7 +21217,7 @@
     <row r="1382">
       <c r="A1382" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 142334P12</t>
+          <t>PRODUCTCODE: 22311P6</t>
         </is>
       </c>
       <c r="B1382" t="inlineStr"/>
@@ -21232,7 +21232,7 @@
     <row r="1383">
       <c r="A1383" t="inlineStr">
         <is>
-          <t>Summarized description: Omaha Beach is a popular tourist destination in the United States. Travel with your own group of passengers (7 travellers) aboard a Private Air conditioned Minivan.</t>
+          <t>Summarized description: Dive into the heartrending history of WWII with a private guide. About 2h30 after your pick-up, you will be at the American cemetery of Normandy. Facing the graves of thousands of soldiers.</t>
         </is>
       </c>
       <c r="B1383" t="inlineStr"/>
@@ -21247,7 +21247,7 @@
     <row r="1384">
       <c r="A1384" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Day trip from Paris to Omaha Beach, American Cemetery - Private Tour (7 pax) </t>
+          <t xml:space="preserve">Title: Normandy D day beaches day tour from Paris hotel- Private tour </t>
         </is>
       </c>
       <c r="B1384" t="inlineStr"/>
@@ -21277,7 +21277,7 @@
     <row r="1386">
       <c r="A1386" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours', 'Transportation &amp; Travel Services']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1386" t="inlineStr"/>
@@ -21292,7 +21292,7 @@
     <row r="1387">
       <c r="A1387" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 22311P6</t>
+          <t>PRODUCTCODE: 6839P93</t>
         </is>
       </c>
       <c r="B1387" t="inlineStr"/>
@@ -21307,7 +21307,7 @@
     <row r="1388">
       <c r="A1388" t="inlineStr">
         <is>
-          <t>Summarized description: Dive into the heartrending history of WWII with a private guide. About 2h30 after your pick-up, you will be at the American cemetery of Normandy. Facing the graves of thousands of soldiers.</t>
+          <t>Summarized description: D-Day landing beaches in Normandy are a must-see during your stay in Paris. Take a 2-hour train ride to visit the beaches and the American Cemetery.</t>
         </is>
       </c>
       <c r="B1388" t="inlineStr"/>
@@ -21322,7 +21322,7 @@
     <row r="1389">
       <c r="A1389" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Normandy D day beaches day tour from Paris hotel- Private tour </t>
+          <t>Title: Normandy DDay Tour from Paris by train</t>
         </is>
       </c>
       <c r="B1389" t="inlineStr"/>
@@ -21367,7 +21367,7 @@
     <row r="1392">
       <c r="A1392" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 218758P5</t>
+          <t>PRODUCTCODE: 268293P132</t>
         </is>
       </c>
       <c r="B1392" t="inlineStr"/>
@@ -21382,7 +21382,7 @@
     <row r="1393">
       <c r="A1393" t="inlineStr">
         <is>
-          <t>Summarized description: The Normandy region is famous for producing cider, calvados liquor, Camembert cheese and medieval cities. A full day dedicated to memory of the heroes of the last world war.</t>
+          <t>Summarized description: Mercedes E220 business-class car for 2-3 people or Mercedes minivan for 3-7 people. Tiered pricing. Hotel Pick up and Drop off included. Live-guided from 4 people. Best anti-war Caen Memorial and Museum. 360 Circular Cinema with very impressive documentary. Arromanches-les-Bains Viewpoint over artificial D-Day harbour. Omaha Beaches with Signal Monument. Normandy American Cemetery in Colleville-sur-Mer. Pointe du Hoc Rangers Monument with fortifications. Overlord Museum with big collections of WW2 artifacts.</t>
         </is>
       </c>
       <c r="B1393" t="inlineStr"/>
@@ -21397,7 +21397,7 @@
     <row r="1394">
       <c r="A1394" t="inlineStr">
         <is>
-          <t>Title: Normandy / D-Day Landing Beaches with Minivan</t>
+          <t>Title: Private Normandy D-Day Omaha Beaches Top 6 Sights trip from Paris</t>
         </is>
       </c>
       <c r="B1394" t="inlineStr"/>
@@ -21427,7 +21427,7 @@
     <row r="1396">
       <c r="A1396" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1396" t="inlineStr"/>
@@ -21442,7 +21442,7 @@
     <row r="1397">
       <c r="A1397" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6839P93</t>
+          <t>PRODUCTCODE: 2050P342</t>
         </is>
       </c>
       <c r="B1397" t="inlineStr"/>
@@ -21457,7 +21457,7 @@
     <row r="1398">
       <c r="A1398" t="inlineStr">
         <is>
-          <t>Summarized description: D-Day landing beaches in Normandy are a must-see during your stay in Paris. Take a 2-hour train ride to visit the beaches and the American Cemetery.</t>
+          <t>Summarized description: The Omaha Beach and its visitor center to learn stories and historical facts about the events in Normandy. A walk through the American Cemetery dedicated to honor the fallen heroes of the U.S.</t>
         </is>
       </c>
       <c r="B1398" t="inlineStr"/>
@@ -21472,7 +21472,7 @@
     <row r="1399">
       <c r="A1399" t="inlineStr">
         <is>
-          <t>Title: Normandy DDay Tour from Paris by train</t>
+          <t>Title: Intimate Guided Normandy Tour from Paris with Hotel Transfers - GROUP OPTION</t>
         </is>
       </c>
       <c r="B1399" t="inlineStr"/>
@@ -21517,7 +21517,7 @@
     <row r="1402">
       <c r="A1402" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 268293P132</t>
+          <t>PRODUCTCODE: 15619P8</t>
         </is>
       </c>
       <c r="B1402" t="inlineStr"/>
@@ -21532,7 +21532,7 @@
     <row r="1403">
       <c r="A1403" t="inlineStr">
         <is>
-          <t>Summarized description: Mercedes E220 business-class car for 2-3 people or Mercedes minivan for 3-7 people. Tiered pricing. Hotel Pick up and Drop off included. Live-guided from 4 people. Best anti-war Caen Memorial and Museum. 360 Circular Cinema with very impressive documentary. Arromanches-les-Bains Viewpoint over artificial D-Day harbour. Omaha Beaches with Signal Monument. Normandy American Cemetery in Colleville-sur-Mer. Pointe du Hoc Rangers Monument with fortifications. Overlord Museum with big collections of WW2 artifacts.</t>
+          <t>Summarized description: Discover the French region of Normandy on a day trip from Paris with services of private driver AND guide. Immerse yourself in one of the major historical events of our time.</t>
         </is>
       </c>
       <c r="B1403" t="inlineStr"/>
@@ -21547,7 +21547,7 @@
     <row r="1404">
       <c r="A1404" t="inlineStr">
         <is>
-          <t>Title: Private Normandy D-Day Omaha Beaches Top 6 Sights trip from Paris</t>
+          <t>Title: D-Day landing beaches from Paris with private driver and guide</t>
         </is>
       </c>
       <c r="B1404" t="inlineStr"/>
@@ -21577,7 +21577,7 @@
     <row r="1406">
       <c r="A1406" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1406" t="inlineStr"/>
@@ -21592,7 +21592,7 @@
     <row r="1407">
       <c r="A1407" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2050P342</t>
+          <t>*****</t>
         </is>
       </c>
       <c r="B1407" t="inlineStr"/>
@@ -21604,231 +21604,6 @@
       <c r="H1407" t="inlineStr"/>
       <c r="I1407" t="inlineStr"/>
     </row>
-    <row r="1408">
-      <c r="A1408" t="inlineStr">
-        <is>
-          <t>Summarized description: The Omaha Beach and its visitor center to learn stories and historical facts about the events in Normandy. A walk through the American Cemetery dedicated to honor the fallen heroes of the U.S.</t>
-        </is>
-      </c>
-      <c r="B1408" t="inlineStr"/>
-      <c r="C1408" t="inlineStr"/>
-      <c r="D1408" t="inlineStr"/>
-      <c r="E1408" t="inlineStr"/>
-      <c r="F1408" t="inlineStr"/>
-      <c r="G1408" t="inlineStr"/>
-      <c r="H1408" t="inlineStr"/>
-      <c r="I1408" t="inlineStr"/>
-    </row>
-    <row r="1409">
-      <c r="A1409" t="inlineStr">
-        <is>
-          <t>Title: Intimate Guided Normandy Tour from Paris with Hotel Transfers - GROUP OPTION</t>
-        </is>
-      </c>
-      <c r="B1409" t="inlineStr"/>
-      <c r="C1409" t="inlineStr"/>
-      <c r="D1409" t="inlineStr"/>
-      <c r="E1409" t="inlineStr"/>
-      <c r="F1409" t="inlineStr"/>
-      <c r="G1409" t="inlineStr"/>
-      <c r="H1409" t="inlineStr"/>
-      <c r="I1409" t="inlineStr"/>
-    </row>
-    <row r="1410">
-      <c r="A1410" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1410" t="inlineStr"/>
-      <c r="C1410" t="inlineStr"/>
-      <c r="D1410" t="inlineStr"/>
-      <c r="E1410" t="inlineStr"/>
-      <c r="F1410" t="inlineStr"/>
-      <c r="G1410" t="inlineStr"/>
-      <c r="H1410" t="inlineStr"/>
-      <c r="I1410" t="inlineStr"/>
-    </row>
-    <row r="1411">
-      <c r="A1411" t="inlineStr">
-        <is>
-          <t>Category: ['Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1411" t="inlineStr"/>
-      <c r="C1411" t="inlineStr"/>
-      <c r="D1411" t="inlineStr"/>
-      <c r="E1411" t="inlineStr"/>
-      <c r="F1411" t="inlineStr"/>
-      <c r="G1411" t="inlineStr"/>
-      <c r="H1411" t="inlineStr"/>
-      <c r="I1411" t="inlineStr"/>
-    </row>
-    <row r="1412">
-      <c r="A1412" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 13437P56</t>
-        </is>
-      </c>
-      <c r="B1412" t="inlineStr"/>
-      <c r="C1412" t="inlineStr"/>
-      <c r="D1412" t="inlineStr"/>
-      <c r="E1412" t="inlineStr"/>
-      <c r="F1412" t="inlineStr"/>
-      <c r="G1412" t="inlineStr"/>
-      <c r="H1412" t="inlineStr"/>
-      <c r="I1412" t="inlineStr"/>
-    </row>
-    <row r="1413">
-      <c r="A1413" t="inlineStr">
-        <is>
-          <t>Summarized description: Discover the beaches of Normandy in France. Discover the history of the landings. Discover some of the most famous sites. Discover how to get to the beaches.</t>
-        </is>
-      </c>
-      <c r="B1413" t="inlineStr"/>
-      <c r="C1413" t="inlineStr"/>
-      <c r="D1413" t="inlineStr"/>
-      <c r="E1413" t="inlineStr"/>
-      <c r="F1413" t="inlineStr"/>
-      <c r="G1413" t="inlineStr"/>
-      <c r="H1413" t="inlineStr"/>
-      <c r="I1413" t="inlineStr"/>
-    </row>
-    <row r="1414">
-      <c r="A1414" t="inlineStr">
-        <is>
-          <t>Title: Customized Private D Day Normandy Landing Tour from Paris - Group Option</t>
-        </is>
-      </c>
-      <c r="B1414" t="inlineStr"/>
-      <c r="C1414" t="inlineStr"/>
-      <c r="D1414" t="inlineStr"/>
-      <c r="E1414" t="inlineStr"/>
-      <c r="F1414" t="inlineStr"/>
-      <c r="G1414" t="inlineStr"/>
-      <c r="H1414" t="inlineStr"/>
-      <c r="I1414" t="inlineStr"/>
-    </row>
-    <row r="1415">
-      <c r="A1415" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1415" t="inlineStr"/>
-      <c r="C1415" t="inlineStr"/>
-      <c r="D1415" t="inlineStr"/>
-      <c r="E1415" t="inlineStr"/>
-      <c r="F1415" t="inlineStr"/>
-      <c r="G1415" t="inlineStr"/>
-      <c r="H1415" t="inlineStr"/>
-      <c r="I1415" t="inlineStr"/>
-    </row>
-    <row r="1416">
-      <c r="A1416" t="inlineStr">
-        <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1416" t="inlineStr"/>
-      <c r="C1416" t="inlineStr"/>
-      <c r="D1416" t="inlineStr"/>
-      <c r="E1416" t="inlineStr"/>
-      <c r="F1416" t="inlineStr"/>
-      <c r="G1416" t="inlineStr"/>
-      <c r="H1416" t="inlineStr"/>
-      <c r="I1416" t="inlineStr"/>
-    </row>
-    <row r="1417">
-      <c r="A1417" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 15619P8</t>
-        </is>
-      </c>
-      <c r="B1417" t="inlineStr"/>
-      <c r="C1417" t="inlineStr"/>
-      <c r="D1417" t="inlineStr"/>
-      <c r="E1417" t="inlineStr"/>
-      <c r="F1417" t="inlineStr"/>
-      <c r="G1417" t="inlineStr"/>
-      <c r="H1417" t="inlineStr"/>
-      <c r="I1417" t="inlineStr"/>
-    </row>
-    <row r="1418">
-      <c r="A1418" t="inlineStr">
-        <is>
-          <t>Summarized description: Discover the French region of Normandy on a day trip from Paris with services of private driver AND guide. Immerse yourself in one of the major historical events of our time.</t>
-        </is>
-      </c>
-      <c r="B1418" t="inlineStr"/>
-      <c r="C1418" t="inlineStr"/>
-      <c r="D1418" t="inlineStr"/>
-      <c r="E1418" t="inlineStr"/>
-      <c r="F1418" t="inlineStr"/>
-      <c r="G1418" t="inlineStr"/>
-      <c r="H1418" t="inlineStr"/>
-      <c r="I1418" t="inlineStr"/>
-    </row>
-    <row r="1419">
-      <c r="A1419" t="inlineStr">
-        <is>
-          <t>Title: D-Day landing beaches from Paris with private driver and guide</t>
-        </is>
-      </c>
-      <c r="B1419" t="inlineStr"/>
-      <c r="C1419" t="inlineStr"/>
-      <c r="D1419" t="inlineStr"/>
-      <c r="E1419" t="inlineStr"/>
-      <c r="F1419" t="inlineStr"/>
-      <c r="G1419" t="inlineStr"/>
-      <c r="H1419" t="inlineStr"/>
-      <c r="I1419" t="inlineStr"/>
-    </row>
-    <row r="1420">
-      <c r="A1420" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1420" t="inlineStr"/>
-      <c r="C1420" t="inlineStr"/>
-      <c r="D1420" t="inlineStr"/>
-      <c r="E1420" t="inlineStr"/>
-      <c r="F1420" t="inlineStr"/>
-      <c r="G1420" t="inlineStr"/>
-      <c r="H1420" t="inlineStr"/>
-      <c r="I1420" t="inlineStr"/>
-    </row>
-    <row r="1421">
-      <c r="A1421" t="inlineStr">
-        <is>
-          <t>Category: ['Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1421" t="inlineStr"/>
-      <c r="C1421" t="inlineStr"/>
-      <c r="D1421" t="inlineStr"/>
-      <c r="E1421" t="inlineStr"/>
-      <c r="F1421" t="inlineStr"/>
-      <c r="G1421" t="inlineStr"/>
-      <c r="H1421" t="inlineStr"/>
-      <c r="I1421" t="inlineStr"/>
-    </row>
-    <row r="1422">
-      <c r="A1422" t="inlineStr">
-        <is>
-          <t>*****</t>
-        </is>
-      </c>
-      <c r="B1422" t="inlineStr"/>
-      <c r="C1422" t="inlineStr"/>
-      <c r="D1422" t="inlineStr"/>
-      <c r="E1422" t="inlineStr"/>
-      <c r="F1422" t="inlineStr"/>
-      <c r="G1422" t="inlineStr"/>
-      <c r="H1422" t="inlineStr"/>
-      <c r="I1422" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
